--- a/Predictions/timestamps_cp_lstm.xlsx
+++ b/Predictions/timestamps_cp_lstm.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -467,4082 +467,4082 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>31.81916618347168</v>
+        <v>29.96891021728516</v>
       </c>
       <c r="B2" t="n">
-        <v>34.19028472900391</v>
+        <v>24.46981239318848</v>
       </c>
       <c r="C2" t="n">
-        <v>4.11110258102417</v>
+        <v>13.49127101898193</v>
       </c>
       <c r="D2" t="n">
-        <v>7.893968105316162</v>
+        <v>15.75383186340332</v>
       </c>
       <c r="E2" t="n">
-        <v>-4.683309555053711</v>
+        <v>-6.50937557220459</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.619775533676147</v>
+        <v>-4.548216342926025</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>29.99094390869141</v>
+        <v>28.13871002197266</v>
       </c>
       <c r="B3" t="n">
-        <v>32.98707962036133</v>
+        <v>24.46981239318848</v>
       </c>
       <c r="C3" t="n">
-        <v>2.384484529495239</v>
+        <v>11.57739734649658</v>
       </c>
       <c r="D3" t="n">
-        <v>6.79859733581543</v>
+        <v>14.79709911346436</v>
       </c>
       <c r="E3" t="n">
-        <v>-6.076088905334473</v>
+        <v>-5.382920742034912</v>
       </c>
       <c r="F3" t="n">
-        <v>-4.386329650878906</v>
+        <v>-5.803711891174316</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>28.36003112792969</v>
+        <v>27.3359546661377</v>
       </c>
       <c r="B4" t="n">
-        <v>31.4218578338623</v>
+        <v>26.97010040283203</v>
       </c>
       <c r="C4" t="n">
-        <v>2.384484529495239</v>
+        <v>10.30636119842529</v>
       </c>
       <c r="D4" t="n">
-        <v>6.79859733581543</v>
+        <v>14.79709911346436</v>
       </c>
       <c r="E4" t="n">
-        <v>-7.148444652557373</v>
+        <v>-4.27722692489624</v>
       </c>
       <c r="F4" t="n">
-        <v>-5.712236404418945</v>
+        <v>-6.942634582519531</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>26.8780403137207</v>
+        <v>26.35252571105957</v>
       </c>
       <c r="B5" t="n">
-        <v>30.29081344604492</v>
+        <v>28.24241828918457</v>
       </c>
       <c r="C5" t="n">
-        <v>2.842550992965698</v>
+        <v>10.30636119842529</v>
       </c>
       <c r="D5" t="n">
-        <v>9.741521835327148</v>
+        <v>12.9518346786499</v>
       </c>
       <c r="E5" t="n">
-        <v>-7.148444652557373</v>
+        <v>-2.978384494781494</v>
       </c>
       <c r="F5" t="n">
-        <v>-5.712236404418945</v>
+        <v>-5.339160919189453</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>25.18436431884766</v>
+        <v>25.12414360046387</v>
       </c>
       <c r="B6" t="n">
-        <v>28.99855422973633</v>
+        <v>28.24241828918457</v>
       </c>
       <c r="C6" t="n">
-        <v>4.39693546295166</v>
+        <v>8.949084281921387</v>
       </c>
       <c r="D6" t="n">
-        <v>9.741521835327148</v>
+        <v>13.4752779006958</v>
       </c>
       <c r="E6" t="n">
-        <v>-7.496873378753662</v>
+        <v>-1.437622547149658</v>
       </c>
       <c r="F6" t="n">
-        <v>-4.890700817108154</v>
+        <v>-3.226704597473145</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>23.13064956665039</v>
+        <v>22.11521530151367</v>
       </c>
       <c r="B7" t="n">
-        <v>26.13053131103516</v>
+        <v>27.65866661071777</v>
       </c>
       <c r="C7" t="n">
-        <v>4.32814884185791</v>
+        <v>8.584454536437988</v>
       </c>
       <c r="D7" t="n">
-        <v>11.66948127746582</v>
+        <v>14.24782752990723</v>
       </c>
       <c r="E7" t="n">
-        <v>-5.990907192230225</v>
+        <v>0.102936752140522</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.386568546295166</v>
+        <v>-0.7342415452003479</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>20.82025146484375</v>
+        <v>19.97513580322266</v>
       </c>
       <c r="B8" t="n">
-        <v>24.38430213928223</v>
+        <v>25.50239181518555</v>
       </c>
       <c r="C8" t="n">
-        <v>3.126400709152222</v>
+        <v>7.721272468566895</v>
       </c>
       <c r="D8" t="n">
-        <v>11.54627132415771</v>
+        <v>14.6543025970459</v>
       </c>
       <c r="E8" t="n">
-        <v>-4.603599071502686</v>
+        <v>1.347878456115723</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.909194827079773</v>
+        <v>1.4452805519104</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>18.43222808837891</v>
+        <v>17.2407112121582</v>
       </c>
       <c r="B9" t="n">
-        <v>22.27228546142578</v>
+        <v>22.69627571105957</v>
       </c>
       <c r="C9" t="n">
-        <v>1.576317548751831</v>
+        <v>6.449618339538574</v>
       </c>
       <c r="D9" t="n">
-        <v>10.84433364868164</v>
+        <v>14.31895351409912</v>
       </c>
       <c r="E9" t="n">
-        <v>-3.580794811248779</v>
+        <v>2.170121192932129</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.6189042329788208</v>
+        <v>2.919824361801147</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>16.09037399291992</v>
+        <v>14.20668983459473</v>
       </c>
       <c r="B10" t="n">
-        <v>19.99759864807129</v>
+        <v>19.68087959289551</v>
       </c>
       <c r="C10" t="n">
-        <v>0.155255138874054</v>
+        <v>3.770448684692383</v>
       </c>
       <c r="D10" t="n">
-        <v>9.771525382995605</v>
+        <v>13.11747741699219</v>
       </c>
       <c r="E10" t="n">
-        <v>-2.779629230499268</v>
+        <v>2.598130226135254</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4750102162361145</v>
+        <v>2.919824361801147</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>13.86374473571777</v>
+        <v>11.1486873626709</v>
       </c>
       <c r="B11" t="n">
-        <v>17.69580841064453</v>
+        <v>16.83489990234375</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.9798385500907898</v>
+        <v>2.1549973487854</v>
       </c>
       <c r="D11" t="n">
-        <v>8.487124443054199</v>
+        <v>10.17778778076172</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.963906764984131</v>
+        <v>2.770937919616699</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4750102162361145</v>
+        <v>4.441767692565918</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>11.78434753417969</v>
+        <v>8.30275821685791</v>
       </c>
       <c r="B12" t="n">
-        <v>15.47033023834229</v>
+        <v>14.35974788665771</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.723363161087036</v>
+        <v>0.3709704279899597</v>
       </c>
       <c r="D12" t="n">
-        <v>7.184548377990723</v>
+        <v>8.710700988769531</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.9986200928688049</v>
+        <v>2.938711166381836</v>
       </c>
       <c r="F12" t="n">
-        <v>2.393181562423706</v>
+        <v>4.249065399169922</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>9.857355117797852</v>
+        <v>5.799022674560547</v>
       </c>
       <c r="B13" t="n">
-        <v>13.39266014099121</v>
+        <v>12.21101379394531</v>
       </c>
       <c r="C13" t="n">
-        <v>-2.055571794509888</v>
+        <v>-1.272028207778931</v>
       </c>
       <c r="D13" t="n">
-        <v>6.060898780822754</v>
+        <v>7.198962688446045</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1390509158372879</v>
+        <v>3.25119686126709</v>
       </c>
       <c r="F13" t="n">
-        <v>3.234888792037964</v>
+        <v>4.174678802490234</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>8.068222045898438</v>
+        <v>3.62965989112854</v>
       </c>
       <c r="B14" t="n">
-        <v>11.4992847442627</v>
+        <v>10.18112182617188</v>
       </c>
       <c r="C14" t="n">
-        <v>-2.02686619758606</v>
+        <v>-2.764419078826904</v>
       </c>
       <c r="D14" t="n">
-        <v>5.267966270446777</v>
+        <v>5.712800979614258</v>
       </c>
       <c r="E14" t="n">
-        <v>1.411951541900635</v>
+        <v>3.577866554260254</v>
       </c>
       <c r="F14" t="n">
-        <v>4.168237209320068</v>
+        <v>4.302375793457031</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6.389955520629883</v>
+        <v>1.655615210533142</v>
       </c>
       <c r="B15" t="n">
-        <v>9.784372329711914</v>
+        <v>8.067159652709961</v>
       </c>
       <c r="C15" t="n">
-        <v>-1.727881669998169</v>
+        <v>-4.215511322021484</v>
       </c>
       <c r="D15" t="n">
-        <v>4.888258934020996</v>
+        <v>4.12892484664917</v>
       </c>
       <c r="E15" t="n">
-        <v>2.786421298980713</v>
+        <v>3.573291778564453</v>
       </c>
       <c r="F15" t="n">
-        <v>5.266957759857178</v>
+        <v>4.453740119934082</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4.789249897003174</v>
+        <v>-0.2277055382728577</v>
       </c>
       <c r="B16" t="n">
-        <v>8.213970184326172</v>
+        <v>5.832608699798584</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.271186113357544</v>
+        <v>-5.657191753387451</v>
       </c>
       <c r="D16" t="n">
-        <v>4.899992942810059</v>
+        <v>2.430446863174438</v>
       </c>
       <c r="E16" t="n">
-        <v>4.228640079498291</v>
+        <v>3.299590110778809</v>
       </c>
       <c r="F16" t="n">
-        <v>6.530289173126221</v>
+        <v>4.460762023925781</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3.237432956695557</v>
+        <v>-2.006708145141602</v>
       </c>
       <c r="B17" t="n">
-        <v>6.737940788269043</v>
+        <v>3.563314437866211</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.7682659029960632</v>
+        <v>-6.96054744720459</v>
       </c>
       <c r="D17" t="n">
-        <v>5.215176582336426</v>
+        <v>0.7822157740592957</v>
       </c>
       <c r="E17" t="n">
-        <v>5.692578792572021</v>
+        <v>3.016837120056152</v>
       </c>
       <c r="F17" t="n">
-        <v>7.883523464202881</v>
+        <v>4.141493797302246</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1.718780159950256</v>
+        <v>-3.613519430160522</v>
       </c>
       <c r="B18" t="n">
-        <v>5.308467864990234</v>
+        <v>1.365068793296814</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.3108856081962585</v>
+        <v>-6.96054744720459</v>
       </c>
       <c r="D18" t="n">
-        <v>5.700997352600098</v>
+        <v>-0.5983420610427856</v>
       </c>
       <c r="E18" t="n">
-        <v>7.10900354385376</v>
+        <v>2.923625946044922</v>
       </c>
       <c r="F18" t="n">
-        <v>9.21589183807373</v>
+        <v>3.55866813659668</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.2366325259208679</v>
+        <v>-5.012336254119873</v>
       </c>
       <c r="B19" t="n">
-        <v>3.901715993881226</v>
+        <v>-0.694579541683197</v>
       </c>
       <c r="C19" t="n">
-        <v>0.05238801240921021</v>
+        <v>-8.83621883392334</v>
       </c>
       <c r="D19" t="n">
-        <v>6.232235908508301</v>
+        <v>-0.5983420610427856</v>
       </c>
       <c r="E19" t="n">
-        <v>8.420925140380859</v>
+        <v>3.036533355712891</v>
       </c>
       <c r="F19" t="n">
-        <v>10.4576940536499</v>
+        <v>2.911378860473633</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-1.183511734008789</v>
+        <v>-6.226624965667725</v>
       </c>
       <c r="B20" t="n">
-        <v>2.527319431304932</v>
+        <v>-2.562227487564087</v>
       </c>
       <c r="C20" t="n">
-        <v>0.355002224445343</v>
+        <v>-8.664607048034668</v>
       </c>
       <c r="D20" t="n">
-        <v>6.759737968444824</v>
+        <v>-2.575657606124878</v>
       </c>
       <c r="E20" t="n">
-        <v>9.617908477783203</v>
+        <v>3.244711875915527</v>
       </c>
       <c r="F20" t="n">
-        <v>11.57276630401611</v>
+        <v>2.367609977722168</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-2.500868320465088</v>
+        <v>-7.301995277404785</v>
       </c>
       <c r="B21" t="n">
-        <v>1.218099594116211</v>
+        <v>-4.201381206512451</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7125499844551086</v>
+        <v>-7.817194938659668</v>
       </c>
       <c r="D21" t="n">
-        <v>7.331377983093262</v>
+        <v>-2.711817502975464</v>
       </c>
       <c r="E21" t="n">
-        <v>10.68937492370605</v>
+        <v>3.431012153625488</v>
       </c>
       <c r="F21" t="n">
-        <v>12.53208065032959</v>
+        <v>1.979681849479675</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-3.683346748352051</v>
+        <v>-7.301995277404785</v>
       </c>
       <c r="B22" t="n">
-        <v>0.01200461387634277</v>
+        <v>-5.578903198242188</v>
       </c>
       <c r="C22" t="n">
-        <v>1.281243085861206</v>
+        <v>-6.450234413146973</v>
       </c>
       <c r="D22" t="n">
-        <v>8.05751895904541</v>
+        <v>-2.425698041915894</v>
       </c>
       <c r="E22" t="n">
-        <v>11.60043334960938</v>
+        <v>3.601509094238281</v>
       </c>
       <c r="F22" t="n">
-        <v>13.31389713287354</v>
+        <v>1.774094939231873</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-4.719986915588379</v>
+        <v>-9.261460304260254</v>
       </c>
       <c r="B23" t="n">
-        <v>-1.066566824913025</v>
+        <v>-6.702632427215576</v>
       </c>
       <c r="C23" t="n">
-        <v>2.173474073410034</v>
+        <v>-3.603439331054688</v>
       </c>
       <c r="D23" t="n">
-        <v>9.058451652526855</v>
+        <v>-1.734080195426941</v>
       </c>
       <c r="E23" t="n">
-        <v>12.31420135498047</v>
+        <v>3.750311851501465</v>
       </c>
       <c r="F23" t="n">
-        <v>13.89901447296143</v>
+        <v>1.756071925163269</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-4.719986915588379</v>
+        <v>-10.09585285186768</v>
       </c>
       <c r="B24" t="n">
-        <v>-1.066566824913025</v>
+        <v>-6.702632427215576</v>
       </c>
       <c r="C24" t="n">
-        <v>3.43196177482605</v>
+        <v>-1.806013703346252</v>
       </c>
       <c r="D24" t="n">
-        <v>10.42271900177002</v>
+        <v>-0.6645363569259644</v>
       </c>
       <c r="E24" t="n">
-        <v>12.78773498535156</v>
+        <v>3.775700569152832</v>
       </c>
       <c r="F24" t="n">
-        <v>14.28266048431396</v>
+        <v>1.880037665367126</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-6.518285274505615</v>
+        <v>-10.84712696075439</v>
       </c>
       <c r="B25" t="n">
-        <v>-2.961504459381104</v>
+        <v>-8.534804344177246</v>
       </c>
       <c r="C25" t="n">
-        <v>5.043286323547363</v>
+        <v>0.6251488327980042</v>
       </c>
       <c r="D25" t="n">
-        <v>13.30050277709961</v>
+        <v>0.7606974840164185</v>
       </c>
       <c r="E25" t="n">
-        <v>12.94051361083984</v>
+        <v>3.497539520263672</v>
       </c>
       <c r="F25" t="n">
-        <v>14.44459056854248</v>
+        <v>2.016217231750488</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-7.176984310150146</v>
+        <v>-11.42639255523682</v>
       </c>
       <c r="B26" t="n">
-        <v>-3.643978595733643</v>
+        <v>-9.127589225769043</v>
       </c>
       <c r="C26" t="n">
-        <v>8.106067657470703</v>
+        <v>3.751816272735596</v>
       </c>
       <c r="D26" t="n">
-        <v>15.22294330596924</v>
+        <v>3.679421424865723</v>
       </c>
       <c r="E26" t="n">
-        <v>12.64590835571289</v>
+        <v>2.663588523864746</v>
       </c>
       <c r="F26" t="n">
-        <v>14.23840618133545</v>
+        <v>1.940480589866638</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-7.696614742279053</v>
+        <v>-11.68471240997314</v>
       </c>
       <c r="B27" t="n">
-        <v>-4.1418137550354</v>
+        <v>-9.60428524017334</v>
       </c>
       <c r="C27" t="n">
-        <v>10.06570816040039</v>
+        <v>7.718606948852539</v>
       </c>
       <c r="D27" t="n">
-        <v>17.87036895751953</v>
+        <v>5.559324264526367</v>
       </c>
       <c r="E27" t="n">
-        <v>10.56417942047119</v>
+        <v>-0.1214489936828613</v>
       </c>
       <c r="F27" t="n">
-        <v>12.26610660552979</v>
+        <v>1.304742693901062</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-7.919541835784912</v>
+        <v>-11.44398212432861</v>
       </c>
       <c r="B28" t="n">
-        <v>-4.340855121612549</v>
+        <v>-9.875781059265137</v>
       </c>
       <c r="C28" t="n">
-        <v>12.80624866485596</v>
+        <v>12.6431713104248</v>
       </c>
       <c r="D28" t="n">
-        <v>21.272216796875</v>
+        <v>8.075015068054199</v>
       </c>
       <c r="E28" t="n">
-        <v>8.186336517333984</v>
+        <v>-2.110072612762451</v>
       </c>
       <c r="F28" t="n">
-        <v>9.864574432373047</v>
+        <v>-2.257200717926025</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-7.63599157333374</v>
+        <v>-10.54584217071533</v>
       </c>
       <c r="B29" t="n">
-        <v>-4.037718296051025</v>
+        <v>-9.752264976501465</v>
       </c>
       <c r="C29" t="n">
-        <v>16.44378662109375</v>
+        <v>18.50729560852051</v>
       </c>
       <c r="D29" t="n">
-        <v>25.47747993469238</v>
+        <v>11.24915218353271</v>
       </c>
       <c r="E29" t="n">
-        <v>4.333477973937988</v>
+        <v>-4.426290035247803</v>
       </c>
       <c r="F29" t="n">
-        <v>5.951388835906982</v>
+        <v>-6.17597484588623</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-6.586205959320068</v>
+        <v>-7.510860443115234</v>
       </c>
       <c r="B30" t="n">
-        <v>-3.056828022003174</v>
+        <v>-9.007731437683105</v>
       </c>
       <c r="C30" t="n">
-        <v>21.11053466796875</v>
+        <v>25.12320709228516</v>
       </c>
       <c r="D30" t="n">
-        <v>30.50497817993164</v>
+        <v>15.27725791931152</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.870579719543457</v>
+        <v>-6.683369636535645</v>
       </c>
       <c r="F30" t="n">
-        <v>0.7370457649230957</v>
+        <v>-12.0238094329834</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-3.113144397735596</v>
+        <v>-5.122106552124023</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1178412437438965</v>
+        <v>-5.944388389587402</v>
       </c>
       <c r="C31" t="n">
-        <v>26.82816123962402</v>
+        <v>32.25350189208984</v>
       </c>
       <c r="D31" t="n">
-        <v>36.26954650878906</v>
+        <v>20.45157051086426</v>
       </c>
       <c r="E31" t="n">
-        <v>-6.719797611236572</v>
+        <v>-8.718819618225098</v>
       </c>
       <c r="F31" t="n">
-        <v>-4.96049976348877</v>
+        <v>-18.30978393554688</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-0.4689701795578003</v>
+        <v>-1.881449460983276</v>
       </c>
       <c r="B32" t="n">
-        <v>2.466393947601318</v>
+        <v>-3.233471870422363</v>
       </c>
       <c r="C32" t="n">
-        <v>33.40145874023438</v>
+        <v>39.65170669555664</v>
       </c>
       <c r="D32" t="n">
-        <v>42.49921035766602</v>
+        <v>26.8826904296875</v>
       </c>
       <c r="E32" t="n">
-        <v>-12.07654857635498</v>
+        <v>-10.48493194580078</v>
       </c>
       <c r="F32" t="n">
-        <v>-9.799932479858398</v>
+        <v>-22.8691349029541</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3.030867338180542</v>
+        <v>2.066547393798828</v>
       </c>
       <c r="B33" t="n">
-        <v>5.50727367401123</v>
+        <v>0.36980140209198</v>
       </c>
       <c r="C33" t="n">
-        <v>40.37563323974609</v>
+        <v>46.86121368408203</v>
       </c>
       <c r="D33" t="n">
-        <v>48.71872711181641</v>
+        <v>34.18709564208984</v>
       </c>
       <c r="E33" t="n">
-        <v>-15.65449142456055</v>
+        <v>-11.9200439453125</v>
       </c>
       <c r="F33" t="n">
-        <v>-12.61366748809814</v>
+        <v>-24.62974548339844</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>7.057008266448975</v>
+        <v>6.442668914794922</v>
       </c>
       <c r="B34" t="n">
-        <v>8.969526290893555</v>
+        <v>4.408923625946045</v>
       </c>
       <c r="C34" t="n">
-        <v>47.10581207275391</v>
+        <v>53.19766235351562</v>
       </c>
       <c r="D34" t="n">
-        <v>54.31951141357422</v>
+        <v>41.56214904785156</v>
       </c>
       <c r="E34" t="n">
-        <v>-16.73704528808594</v>
+        <v>-11.9200439453125</v>
       </c>
       <c r="F34" t="n">
-        <v>-12.61366748809814</v>
+        <v>-24.62974548339844</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>11.30039596557617</v>
+        <v>10.84746837615967</v>
       </c>
       <c r="B35" t="n">
-        <v>12.62313175201416</v>
+        <v>8.577325820922852</v>
       </c>
       <c r="C35" t="n">
-        <v>52.96131896972656</v>
+        <v>57.97917938232422</v>
       </c>
       <c r="D35" t="n">
-        <v>58.73102569580078</v>
+        <v>48.19155502319336</v>
       </c>
       <c r="E35" t="n">
-        <v>-15.42965507507324</v>
+        <v>-13.75139045715332</v>
       </c>
       <c r="F35" t="n">
-        <v>-11.27526378631592</v>
+        <v>-21.16018676757812</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>15.50992012023926</v>
+        <v>14.94927406311035</v>
       </c>
       <c r="B36" t="n">
-        <v>16.28717422485352</v>
+        <v>12.69236469268799</v>
       </c>
       <c r="C36" t="n">
-        <v>57.43720245361328</v>
+        <v>60.89289855957031</v>
       </c>
       <c r="D36" t="n">
-        <v>61.56212615966797</v>
+        <v>53.48200225830078</v>
       </c>
       <c r="E36" t="n">
-        <v>-12.42845630645752</v>
+        <v>-13.41290473937988</v>
       </c>
       <c r="F36" t="n">
-        <v>-8.105599403381348</v>
+        <v>-18.36725425720215</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>19.50490188598633</v>
+        <v>18.60684585571289</v>
       </c>
       <c r="B37" t="n">
-        <v>19.79352569580078</v>
+        <v>16.61112403869629</v>
       </c>
       <c r="C37" t="n">
-        <v>60.21489715576172</v>
+        <v>62.01609039306641</v>
       </c>
       <c r="D37" t="n">
-        <v>62.59899139404297</v>
+        <v>57.11627960205078</v>
       </c>
       <c r="E37" t="n">
-        <v>-8.635122299194336</v>
+        <v>-11.24274063110352</v>
       </c>
       <c r="F37" t="n">
-        <v>-4.465160369873047</v>
+        <v>-15.24462509155273</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>23.16200637817383</v>
+        <v>21.82148742675781</v>
       </c>
       <c r="B38" t="n">
-        <v>22.99783706665039</v>
+        <v>20.20121383666992</v>
       </c>
       <c r="C38" t="n">
-        <v>60.21489715576172</v>
+        <v>62.01609039306641</v>
       </c>
       <c r="D38" t="n">
-        <v>62.59899139404297</v>
+        <v>58.98409271240234</v>
       </c>
       <c r="E38" t="n">
-        <v>-4.791173934936523</v>
+        <v>-9.332725524902344</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.9351655244827271</v>
+        <v>-11.99103546142578</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>26.39105987548828</v>
+        <v>24.6346607208252</v>
       </c>
       <c r="B39" t="n">
-        <v>25.78562545776367</v>
+        <v>23.34504318237305</v>
       </c>
       <c r="C39" t="n">
-        <v>60.79702758789062</v>
+        <v>59.35527420043945</v>
       </c>
       <c r="D39" t="n">
-        <v>58.84436416625977</v>
+        <v>58.98409271240234</v>
       </c>
       <c r="E39" t="n">
-        <v>-1.377225637435913</v>
+        <v>-6.856422424316406</v>
       </c>
       <c r="F39" t="n">
-        <v>2.105374097824097</v>
+        <v>-8.740554809570312</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>29.13001823425293</v>
+        <v>27.05625915527344</v>
       </c>
       <c r="B40" t="n">
-        <v>28.05874443054199</v>
+        <v>25.94755172729492</v>
       </c>
       <c r="C40" t="n">
-        <v>57.96549224853516</v>
+        <v>55.91036224365234</v>
       </c>
       <c r="D40" t="n">
-        <v>54.84790802001953</v>
+        <v>57.33023071289062</v>
       </c>
       <c r="E40" t="n">
-        <v>1.375831961631775</v>
+        <v>-4.228760719299316</v>
       </c>
       <c r="F40" t="n">
-        <v>4.399844169616699</v>
+        <v>-5.685586929321289</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>31.33990859985352</v>
+        <v>29.0423469543457</v>
       </c>
       <c r="B41" t="n">
-        <v>29.76438903808594</v>
+        <v>27.93780517578125</v>
       </c>
       <c r="C41" t="n">
-        <v>53.68117523193359</v>
+        <v>50.61656188964844</v>
       </c>
       <c r="D41" t="n">
-        <v>49.32259368896484</v>
+        <v>53.54237365722656</v>
       </c>
       <c r="E41" t="n">
-        <v>3.379062652587891</v>
+        <v>-1.812413930892944</v>
       </c>
       <c r="F41" t="n">
-        <v>5.808025360107422</v>
+        <v>-3.049898147583008</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>32.98814392089844</v>
+        <v>30.51678466796875</v>
       </c>
       <c r="B42" t="n">
-        <v>30.89135551452637</v>
+        <v>29.28793907165527</v>
       </c>
       <c r="C42" t="n">
-        <v>48.10028076171875</v>
+        <v>43.46713256835938</v>
       </c>
       <c r="D42" t="n">
-        <v>42.63388442993164</v>
+        <v>47.67151641845703</v>
       </c>
       <c r="E42" t="n">
-        <v>4.56744384765625</v>
+        <v>0.1295081377029419</v>
       </c>
       <c r="F42" t="n">
-        <v>5.808025360107422</v>
+        <v>-1.061436653137207</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>34.0516357421875</v>
+        <v>30.51678466796875</v>
       </c>
       <c r="B43" t="n">
-        <v>30.89135551452637</v>
+        <v>29.28793907165527</v>
       </c>
       <c r="C43" t="n">
-        <v>41.45927429199219</v>
+        <v>34.97381973266602</v>
       </c>
       <c r="D43" t="n">
-        <v>35.21969604492188</v>
+        <v>40.09654998779297</v>
       </c>
       <c r="E43" t="n">
-        <v>4.56744384765625</v>
+        <v>1.442224502563477</v>
       </c>
       <c r="F43" t="n">
-        <v>6.778552532196045</v>
+        <v>0.1093875765800476</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>34.0516357421875</v>
+        <v>32.34519195556641</v>
       </c>
       <c r="B44" t="n">
-        <v>32.05651092529297</v>
+        <v>30.88817596435547</v>
       </c>
       <c r="C44" t="n">
-        <v>34.06595230102539</v>
+        <v>26.2294807434082</v>
       </c>
       <c r="D44" t="n">
-        <v>27.57735061645508</v>
+        <v>31.84376525878906</v>
       </c>
       <c r="E44" t="n">
-        <v>5.259269237518311</v>
+        <v>1.442224502563477</v>
       </c>
       <c r="F44" t="n">
-        <v>5.592593669891357</v>
+        <v>0.1093875765800476</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>35.05704879760742</v>
+        <v>32.29974746704102</v>
       </c>
       <c r="B45" t="n">
-        <v>31.77842330932617</v>
+        <v>30.98534965515137</v>
       </c>
       <c r="C45" t="n">
-        <v>26.28875541687012</v>
+        <v>18.36014366149902</v>
       </c>
       <c r="D45" t="n">
-        <v>20.20854187011719</v>
+        <v>24.09542846679688</v>
       </c>
       <c r="E45" t="n">
-        <v>4.205178737640381</v>
+        <v>2.734204292297363</v>
       </c>
       <c r="F45" t="n">
-        <v>4.129766941070557</v>
+        <v>0.842610776424408</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>34.5882568359375</v>
+        <v>32.2196159362793</v>
       </c>
       <c r="B46" t="n">
-        <v>31.33286285400391</v>
+        <v>31.07551574707031</v>
       </c>
       <c r="C46" t="n">
-        <v>18.58515167236328</v>
+        <v>12.09096527099609</v>
       </c>
       <c r="D46" t="n">
-        <v>13.68685913085938</v>
+        <v>17.63297271728516</v>
       </c>
       <c r="E46" t="n">
-        <v>3.111948490142822</v>
+        <v>2.141554832458496</v>
       </c>
       <c r="F46" t="n">
-        <v>2.92284369468689</v>
+        <v>0.1293782591819763</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>33.8651237487793</v>
+        <v>32.28364181518555</v>
       </c>
       <c r="B47" t="n">
-        <v>30.94042587280273</v>
+        <v>31.17549896240234</v>
       </c>
       <c r="C47" t="n">
-        <v>11.52409934997559</v>
+        <v>7.748569011688232</v>
       </c>
       <c r="D47" t="n">
-        <v>8.541607856750488</v>
+        <v>12.78236770629883</v>
       </c>
       <c r="E47" t="n">
-        <v>2.430430889129639</v>
+        <v>1.21561336517334</v>
       </c>
       <c r="F47" t="n">
-        <v>2.34175181388855</v>
+        <v>-0.4735026955604553</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>33.12637710571289</v>
+        <v>32.36653137207031</v>
       </c>
       <c r="B48" t="n">
-        <v>30.6898136138916</v>
+        <v>31.31213569641113</v>
       </c>
       <c r="C48" t="n">
-        <v>5.733715534210205</v>
+        <v>5.321897506713867</v>
       </c>
       <c r="D48" t="n">
-        <v>5.14095401763916</v>
+        <v>9.60369873046875</v>
       </c>
       <c r="E48" t="n">
-        <v>2.130645275115967</v>
+        <v>0.2803406715393066</v>
       </c>
       <c r="F48" t="n">
-        <v>2.251848936080933</v>
+        <v>-1.017341256141663</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>32.55458068847656</v>
+        <v>32.28041458129883</v>
       </c>
       <c r="B49" t="n">
-        <v>30.52915382385254</v>
+        <v>31.4342155456543</v>
       </c>
       <c r="C49" t="n">
-        <v>1.769416451454163</v>
+        <v>5.321897506713867</v>
       </c>
       <c r="D49" t="n">
-        <v>3.59133243560791</v>
+        <v>8.01402473449707</v>
       </c>
       <c r="E49" t="n">
-        <v>1.850016117095947</v>
+        <v>-0.5754480361938477</v>
       </c>
       <c r="F49" t="n">
-        <v>2.175262212753296</v>
+        <v>-1.808257222175598</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>32.23835372924805</v>
+        <v>31.9727954864502</v>
       </c>
       <c r="B50" t="n">
-        <v>30.33648681640625</v>
+        <v>31.38314628601074</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.1994093060493469</v>
+        <v>3.773237943649292</v>
       </c>
       <c r="D50" t="n">
-        <v>3.59133243560791</v>
+        <v>8.01402473449707</v>
       </c>
       <c r="E50" t="n">
-        <v>1.029963970184326</v>
+        <v>-1.669657230377197</v>
       </c>
       <c r="F50" t="n">
-        <v>1.45571494102478</v>
+        <v>-3.110746145248413</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>32.15205383300781</v>
+        <v>31.50805854797363</v>
       </c>
       <c r="B51" t="n">
-        <v>31.70835113525391</v>
+        <v>32.92352294921875</v>
       </c>
       <c r="C51" t="n">
-        <v>5.818822860717773</v>
+        <v>9.202476501464844</v>
       </c>
       <c r="D51" t="n">
-        <v>10.0675630569458</v>
+        <v>9.900667190551758</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.805765688419342</v>
+        <v>-3.30048131942749</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.3373740017414093</v>
+        <v>-4.892000198364258</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>33.86725997924805</v>
+        <v>30.59346008300781</v>
       </c>
       <c r="B52" t="n">
-        <v>33.21954345703125</v>
+        <v>25.4338264465332</v>
       </c>
       <c r="C52" t="n">
-        <v>8.035755157470703</v>
+        <v>14.47187614440918</v>
       </c>
       <c r="D52" t="n">
-        <v>11.37777328491211</v>
+        <v>17.53749847412109</v>
       </c>
       <c r="E52" t="n">
-        <v>-3.286432981491089</v>
+        <v>-6.268295288085938</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.299399852752686</v>
+        <v>-5.374231338500977</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>33.28836441040039</v>
+        <v>29.55250930786133</v>
       </c>
       <c r="B53" t="n">
-        <v>33.21954345703125</v>
+        <v>21.31001281738281</v>
       </c>
       <c r="C53" t="n">
-        <v>4.786139011383057</v>
+        <v>14.47187614440918</v>
       </c>
       <c r="D53" t="n">
-        <v>8.346981048583984</v>
+        <v>19.88972091674805</v>
       </c>
       <c r="E53" t="n">
-        <v>-4.814302444458008</v>
+        <v>-6.268295288085938</v>
       </c>
       <c r="F53" t="n">
-        <v>-3.786365270614624</v>
+        <v>-5.374231338500977</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>29.64578247070312</v>
+        <v>28.10497283935547</v>
       </c>
       <c r="B54" t="n">
-        <v>33.17958068847656</v>
+        <v>21.31001281738281</v>
       </c>
       <c r="C54" t="n">
-        <v>2.09797739982605</v>
+        <v>12.97610664367676</v>
       </c>
       <c r="D54" t="n">
-        <v>6.528541088104248</v>
+        <v>19.88972091674805</v>
       </c>
       <c r="E54" t="n">
-        <v>-4.814302444458008</v>
+        <v>-4.930237770080566</v>
       </c>
       <c r="F54" t="n">
-        <v>-3.786365270614624</v>
+        <v>-4.231680870056152</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>27.59616088867188</v>
+        <v>26.43113327026367</v>
       </c>
       <c r="B55" t="n">
-        <v>31.75781059265137</v>
+        <v>21.92754745483398</v>
       </c>
       <c r="C55" t="n">
-        <v>2.09797739982605</v>
+        <v>10.79815483093262</v>
       </c>
       <c r="D55" t="n">
-        <v>6.528541088104248</v>
+        <v>17.02688980102539</v>
       </c>
       <c r="E55" t="n">
-        <v>-6.5964674949646</v>
+        <v>-3.371591091156006</v>
       </c>
       <c r="F55" t="n">
-        <v>-5.700323581695557</v>
+        <v>-5.398173809051514</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>26.14958572387695</v>
+        <v>24.93402862548828</v>
       </c>
       <c r="B56" t="n">
-        <v>30.49867248535156</v>
+        <v>24.65494918823242</v>
       </c>
       <c r="C56" t="n">
-        <v>2.776132583618164</v>
+        <v>9.017532348632812</v>
       </c>
       <c r="D56" t="n">
-        <v>8.945502281188965</v>
+        <v>15.12021446228027</v>
       </c>
       <c r="E56" t="n">
-        <v>-8.076149940490723</v>
+        <v>-1.837618112564087</v>
       </c>
       <c r="F56" t="n">
-        <v>-6.930169582366943</v>
+        <v>-5.886919021606445</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>24.83934211730957</v>
+        <v>23.72859573364258</v>
       </c>
       <c r="B57" t="n">
-        <v>29.07666397094727</v>
+        <v>26.99827194213867</v>
       </c>
       <c r="C57" t="n">
-        <v>4.064890384674072</v>
+        <v>7.640530109405518</v>
       </c>
       <c r="D57" t="n">
-        <v>10.4121265411377</v>
+        <v>13.50557613372803</v>
       </c>
       <c r="E57" t="n">
-        <v>-7.992960453033447</v>
+        <v>-0.5073586702346802</v>
       </c>
       <c r="F57" t="n">
-        <v>-5.023673057556152</v>
+        <v>-3.650012969970703</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>23.10167121887207</v>
+        <v>22.55100440979004</v>
       </c>
       <c r="B58" t="n">
-        <v>27.23350524902344</v>
+        <v>28.13056182861328</v>
       </c>
       <c r="C58" t="n">
-        <v>4.064890384674072</v>
+        <v>6.405405044555664</v>
       </c>
       <c r="D58" t="n">
-        <v>10.4121265411377</v>
+        <v>12.35430908203125</v>
       </c>
       <c r="E58" t="n">
-        <v>-6.275737285614014</v>
+        <v>0.5930208563804626</v>
       </c>
       <c r="F58" t="n">
-        <v>-3.315300464630127</v>
+        <v>-1.365595102310181</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>20.89523315429688</v>
+        <v>20.92707824707031</v>
       </c>
       <c r="B59" t="n">
-        <v>25.04194259643555</v>
+        <v>28.13056182861328</v>
       </c>
       <c r="C59" t="n">
-        <v>3.108990669250488</v>
+        <v>5.124736309051514</v>
       </c>
       <c r="D59" t="n">
-        <v>11.72135829925537</v>
+        <v>12.35430908203125</v>
       </c>
       <c r="E59" t="n">
-        <v>-4.508283615112305</v>
+        <v>0.5930208563804626</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.741378426551819</v>
+        <v>1.216915488243103</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>18.52163314819336</v>
+        <v>18.51641082763672</v>
       </c>
       <c r="B60" t="n">
-        <v>22.6577262878418</v>
+        <v>25.25125503540039</v>
       </c>
       <c r="C60" t="n">
-        <v>1.630443453788757</v>
+        <v>3.793837547302246</v>
       </c>
       <c r="D60" t="n">
-        <v>10.91326999664307</v>
+        <v>10.83372497558594</v>
       </c>
       <c r="E60" t="n">
-        <v>-3.347903728485107</v>
+        <v>2.305535316467285</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.4561073482036591</v>
+        <v>3.228883028030396</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>16.2236442565918</v>
+        <v>15.37977123260498</v>
       </c>
       <c r="B61" t="n">
-        <v>20.21923446655273</v>
+        <v>22.09763145446777</v>
       </c>
       <c r="C61" t="n">
-        <v>0.1978505253791809</v>
+        <v>2.470676422119141</v>
       </c>
       <c r="D61" t="n">
-        <v>9.896811485290527</v>
+        <v>10.45694351196289</v>
       </c>
       <c r="E61" t="n">
-        <v>-2.640749454498291</v>
+        <v>2.62491512298584</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5962283611297607</v>
+        <v>3.228883028030396</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>14.08557510375977</v>
+        <v>11.94617652893066</v>
       </c>
       <c r="B62" t="n">
-        <v>17.81075286865234</v>
+        <v>18.52364349365234</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.9448671340942383</v>
+        <v>1.185635924339294</v>
       </c>
       <c r="D62" t="n">
-        <v>8.757950782775879</v>
+        <v>9.81734561920166</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.966185569763184</v>
+        <v>2.728870391845703</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5962283611297607</v>
+        <v>5.192348480224609</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>12.10140895843506</v>
+        <v>8.73100471496582</v>
       </c>
       <c r="B63" t="n">
-        <v>15.50924777984619</v>
+        <v>15.2983980178833</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.9448671340942383</v>
+        <v>-0.03845489025115967</v>
       </c>
       <c r="D63" t="n">
-        <v>7.578938484191895</v>
+        <v>8.85273265838623</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.095322608947754</v>
+        <v>2.867001533508301</v>
       </c>
       <c r="F63" t="n">
-        <v>2.447772741317749</v>
+        <v>4.450056076049805</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>10.24479103088379</v>
+        <v>6.051750183105469</v>
       </c>
       <c r="B64" t="n">
-        <v>13.38080024719238</v>
+        <v>12.72170448303223</v>
       </c>
       <c r="C64" t="n">
-        <v>-2.468791246414185</v>
+        <v>-1.192888259887695</v>
       </c>
       <c r="D64" t="n">
-        <v>6.511754035949707</v>
+        <v>7.679806709289551</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.00663619302213192</v>
+        <v>3.225532531738281</v>
       </c>
       <c r="F64" t="n">
-        <v>3.285041570663452</v>
+        <v>3.859599113464355</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>8.490792274475098</v>
+        <v>3.940943956375122</v>
       </c>
       <c r="B65" t="n">
-        <v>11.46515560150146</v>
+        <v>10.61561393737793</v>
       </c>
       <c r="C65" t="n">
-        <v>-2.440320253372192</v>
+        <v>-2.395307064056396</v>
       </c>
       <c r="D65" t="n">
-        <v>5.714982032775879</v>
+        <v>6.387553215026855</v>
       </c>
       <c r="E65" t="n">
-        <v>1.236287593841553</v>
+        <v>3.657532691955566</v>
       </c>
       <c r="F65" t="n">
-        <v>4.210873126983643</v>
+        <v>3.728010177612305</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>6.816636085510254</v>
+        <v>2.19542407989502</v>
       </c>
       <c r="B66" t="n">
-        <v>9.758567810058594</v>
+        <v>8.64152717590332</v>
       </c>
       <c r="C66" t="n">
-        <v>-2.088805437088013</v>
+        <v>-3.718918085098267</v>
       </c>
       <c r="D66" t="n">
-        <v>5.295533180236816</v>
+        <v>4.953768730163574</v>
       </c>
       <c r="E66" t="n">
-        <v>2.584535121917725</v>
+        <v>3.686308860778809</v>
       </c>
       <c r="F66" t="n">
-        <v>5.298238277435303</v>
+        <v>3.878588676452637</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>5.199143409729004</v>
+        <v>0.6049354076385498</v>
       </c>
       <c r="B67" t="n">
-        <v>8.221354484558105</v>
+        <v>6.633434772491455</v>
       </c>
       <c r="C67" t="n">
-        <v>-1.536927461624146</v>
+        <v>-5.113173007965088</v>
       </c>
       <c r="D67" t="n">
-        <v>5.261540412902832</v>
+        <v>3.274266481399536</v>
       </c>
       <c r="E67" t="n">
-        <v>3.997385501861572</v>
+        <v>3.375683784484863</v>
       </c>
       <c r="F67" t="n">
-        <v>6.553246021270752</v>
+        <v>4.045577049255371</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>3.620317459106445</v>
+        <v>-0.8873847723007202</v>
       </c>
       <c r="B68" t="n">
-        <v>6.793317794799805</v>
+        <v>4.607469081878662</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.920642077922821</v>
+        <v>-6.411042213439941</v>
       </c>
       <c r="D68" t="n">
-        <v>5.54122257232666</v>
+        <v>1.559050679206848</v>
       </c>
       <c r="E68" t="n">
-        <v>5.430348873138428</v>
+        <v>3.039966583251953</v>
       </c>
       <c r="F68" t="n">
-        <v>7.908523082733154</v>
+        <v>3.866631507873535</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.072811603546143</v>
+        <v>-2.219413757324219</v>
       </c>
       <c r="B69" t="n">
-        <v>5.415114402770996</v>
+        <v>2.652550935745239</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.3562614321708679</v>
+        <v>-6.411042213439941</v>
       </c>
       <c r="D69" t="n">
-        <v>6.009995460510254</v>
+        <v>0.1825610399246216</v>
       </c>
       <c r="E69" t="n">
-        <v>6.817846775054932</v>
+        <v>2.875898361206055</v>
       </c>
       <c r="F69" t="n">
-        <v>9.259757041931152</v>
+        <v>3.322328567504883</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.562421441078186</v>
+        <v>-3.329633474349976</v>
       </c>
       <c r="B70" t="n">
-        <v>4.051016807556152</v>
+        <v>0.8241376876831055</v>
       </c>
       <c r="C70" t="n">
-        <v>0.08924561738967896</v>
+        <v>-8.340876579284668</v>
       </c>
       <c r="D70" t="n">
-        <v>6.540862083435059</v>
+        <v>-0.6084049940109253</v>
       </c>
       <c r="E70" t="n">
-        <v>8.106143951416016</v>
+        <v>2.861193656921387</v>
       </c>
       <c r="F70" t="n">
-        <v>10.54105472564697</v>
+        <v>2.63868522644043</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-0.8871200680732727</v>
+        <v>-3.329633474349976</v>
       </c>
       <c r="B71" t="n">
-        <v>2.701127290725708</v>
+        <v>-0.8292361497879028</v>
       </c>
       <c r="C71" t="n">
-        <v>0.4328182339668274</v>
+        <v>-8.184859275817871</v>
       </c>
       <c r="D71" t="n">
-        <v>7.071127891540527</v>
+        <v>-0.866942286491394</v>
       </c>
       <c r="E71" t="n">
-        <v>9.287557601928711</v>
+        <v>2.90339183807373</v>
       </c>
       <c r="F71" t="n">
-        <v>11.71213626861572</v>
+        <v>2.055220603942871</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-2.234933853149414</v>
+        <v>-5.122994899749756</v>
       </c>
       <c r="B72" t="n">
-        <v>1.396936774253845</v>
+        <v>-2.268046617507935</v>
       </c>
       <c r="C72" t="n">
-        <v>0.7865322232246399</v>
+        <v>-7.23117733001709</v>
       </c>
       <c r="D72" t="n">
-        <v>7.633305549621582</v>
+        <v>-0.7372082471847534</v>
       </c>
       <c r="E72" t="n">
-        <v>10.34449768066406</v>
+        <v>2.899615287780762</v>
       </c>
       <c r="F72" t="n">
-        <v>12.73372364044189</v>
+        <v>1.645318865776062</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-3.439904928207397</v>
+        <v>-5.706706523895264</v>
       </c>
       <c r="B73" t="n">
-        <v>0.1849021315574646</v>
+        <v>-3.454524040222168</v>
       </c>
       <c r="C73" t="n">
-        <v>1.322954893112183</v>
+        <v>-4.647366523742676</v>
       </c>
       <c r="D73" t="n">
-        <v>8.334044456481934</v>
+        <v>-0.313200831413269</v>
       </c>
       <c r="E73" t="n">
-        <v>11.23087310791016</v>
+        <v>2.879420280456543</v>
       </c>
       <c r="F73" t="n">
-        <v>13.56695461273193</v>
+        <v>1.417843222618103</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-4.476882457733154</v>
+        <v>-6.257007122039795</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.8949673175811768</v>
+        <v>-3.454524040222168</v>
       </c>
       <c r="C74" t="n">
-        <v>2.190298795700073</v>
+        <v>-2.986423492431641</v>
       </c>
       <c r="D74" t="n">
-        <v>9.299567222595215</v>
+        <v>0.3888083696365356</v>
       </c>
       <c r="E74" t="n">
-        <v>11.90307426452637</v>
+        <v>2.876465797424316</v>
       </c>
       <c r="F74" t="n">
-        <v>14.17851543426514</v>
+        <v>1.36836564540863</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-4.476882457733154</v>
+        <v>-6.785590648651123</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.8949673175811768</v>
+        <v>-5.321322441101074</v>
       </c>
       <c r="C75" t="n">
-        <v>3.457115888595581</v>
+        <v>-0.8372007012367249</v>
       </c>
       <c r="D75" t="n">
-        <v>10.62476921081543</v>
+        <v>1.345973134040833</v>
       </c>
       <c r="E75" t="n">
-        <v>12.31817245483398</v>
+        <v>2.795207023620605</v>
       </c>
       <c r="F75" t="n">
-        <v>14.55842876434326</v>
+        <v>1.464184165000916</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-6.2079176902771</v>
+        <v>-7.264138698577881</v>
       </c>
       <c r="B76" t="n">
-        <v>-2.75358247756958</v>
+        <v>-5.823962211608887</v>
       </c>
       <c r="C76" t="n">
-        <v>5.10939884185791</v>
+        <v>1.790488481521606</v>
       </c>
       <c r="D76" t="n">
-        <v>13.42820739746094</v>
+        <v>2.544198274612427</v>
       </c>
       <c r="E76" t="n">
-        <v>12.40152931213379</v>
+        <v>2.466073036193848</v>
       </c>
       <c r="F76" t="n">
-        <v>14.68807315826416</v>
+        <v>1.592138648033142</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-6.760367870330811</v>
+        <v>-7.615098476409912</v>
       </c>
       <c r="B77" t="n">
-        <v>-3.37194299697876</v>
+        <v>-6.220305442810059</v>
       </c>
       <c r="C77" t="n">
-        <v>8.239543914794922</v>
+        <v>5.01661491394043</v>
       </c>
       <c r="D77" t="n">
-        <v>15.2822208404541</v>
+        <v>3.988906145095825</v>
       </c>
       <c r="E77" t="n">
-        <v>12.04046058654785</v>
+        <v>1.682265281677246</v>
       </c>
       <c r="F77" t="n">
-        <v>14.42882251739502</v>
+        <v>1.578269839286804</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-7.163825511932373</v>
+        <v>-7.719098567962646</v>
       </c>
       <c r="B78" t="n">
-        <v>-3.802013874053955</v>
+        <v>-6.540146827697754</v>
       </c>
       <c r="C78" t="n">
-        <v>10.1922550201416</v>
+        <v>9.044895172119141</v>
       </c>
       <c r="D78" t="n">
-        <v>17.82522583007812</v>
+        <v>5.69564151763916</v>
       </c>
       <c r="E78" t="n">
-        <v>9.902024269104004</v>
+        <v>-0.7208540439605713</v>
       </c>
       <c r="F78" t="n">
-        <v>12.37265586853027</v>
+        <v>1.131737112998962</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-7.299367427825928</v>
+        <v>-7.433219432830811</v>
       </c>
       <c r="B79" t="n">
-        <v>-3.951881885528564</v>
+        <v>-6.724345207214355</v>
       </c>
       <c r="C79" t="n">
-        <v>12.89554786682129</v>
+        <v>14.062087059021</v>
       </c>
       <c r="D79" t="n">
-        <v>21.10441589355469</v>
+        <v>8.873166084289551</v>
       </c>
       <c r="E79" t="n">
-        <v>7.535995483398438</v>
+        <v>-2.349745750427246</v>
       </c>
       <c r="F79" t="n">
-        <v>9.950557708740234</v>
+        <v>-1.7418532371521</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-6.975966930389404</v>
+        <v>-6.620112895965576</v>
       </c>
       <c r="B80" t="n">
-        <v>-3.629644870758057</v>
+        <v>-6.60472583770752</v>
       </c>
       <c r="C80" t="n">
-        <v>16.49129104614258</v>
+        <v>20.08208656311035</v>
       </c>
       <c r="D80" t="n">
-        <v>25.18910980224609</v>
+        <v>10.93337726593018</v>
       </c>
       <c r="E80" t="n">
-        <v>3.737426042556763</v>
+        <v>-4.148588180541992</v>
       </c>
       <c r="F80" t="n">
-        <v>6.078892707824707</v>
+        <v>-5.127488136291504</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-5.910090923309326</v>
+        <v>-3.9941725730896</v>
       </c>
       <c r="B81" t="n">
-        <v>-2.673048496246338</v>
+        <v>-5.985165596008301</v>
       </c>
       <c r="C81" t="n">
-        <v>21.11880302429199</v>
+        <v>26.86029434204102</v>
       </c>
       <c r="D81" t="n">
-        <v>30.120849609375</v>
+        <v>13.96819496154785</v>
       </c>
       <c r="E81" t="n">
-        <v>-1.327187180519104</v>
+        <v>-5.769570350646973</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9717402458190918</v>
+        <v>-10.41129684448242</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-2.471317529678345</v>
+        <v>-1.914407253265381</v>
       </c>
       <c r="B82" t="n">
-        <v>0.4623970985412598</v>
+        <v>-3.230257987976074</v>
       </c>
       <c r="C82" t="n">
-        <v>26.80742263793945</v>
+        <v>34.01252365112305</v>
       </c>
       <c r="D82" t="n">
-        <v>35.80524444580078</v>
+        <v>18.36788368225098</v>
       </c>
       <c r="E82" t="n">
-        <v>-6.96030855178833</v>
+        <v>-7.105748176574707</v>
       </c>
       <c r="F82" t="n">
-        <v>-4.577277183532715</v>
+        <v>-16.34790420532227</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.1623108386993408</v>
+        <v>0.9343724250793457</v>
       </c>
       <c r="B83" t="n">
-        <v>2.793689727783203</v>
+        <v>-0.5958167314529419</v>
       </c>
       <c r="C83" t="n">
-        <v>33.3519172668457</v>
+        <v>41.22576522827148</v>
       </c>
       <c r="D83" t="n">
-        <v>41.94168853759766</v>
+        <v>24.34521865844727</v>
       </c>
       <c r="E83" t="n">
-        <v>-12.09345436096191</v>
+        <v>-8.290439605712891</v>
       </c>
       <c r="F83" t="n">
-        <v>-9.315462112426758</v>
+        <v>-20.82723236083984</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>3.643135070800781</v>
+        <v>4.482131958007812</v>
       </c>
       <c r="B84" t="n">
-        <v>5.797146320343018</v>
+        <v>2.857989311218262</v>
       </c>
       <c r="C84" t="n">
-        <v>40.27431106567383</v>
+        <v>48.23754119873047</v>
       </c>
       <c r="D84" t="n">
-        <v>48.04143524169922</v>
+        <v>31.41080474853516</v>
       </c>
       <c r="E84" t="n">
-        <v>-15.53007507324219</v>
+        <v>-9.405094146728516</v>
       </c>
       <c r="F84" t="n">
-        <v>-12.17032623291016</v>
+        <v>-22.59907913208008</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>7.630696296691895</v>
+        <v>8.529473304748535</v>
       </c>
       <c r="B85" t="n">
-        <v>9.196737289428711</v>
+        <v>6.573038101196289</v>
       </c>
       <c r="C85" t="n">
-        <v>46.92825317382812</v>
+        <v>54.52177810668945</v>
       </c>
       <c r="D85" t="n">
-        <v>53.53325653076172</v>
+        <v>38.65372467041016</v>
       </c>
       <c r="E85" t="n">
-        <v>-16.59453582763672</v>
+        <v>-9.405094146728516</v>
       </c>
       <c r="F85" t="n">
-        <v>-12.17032623291016</v>
+        <v>-22.59907913208008</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>11.8158073425293</v>
+        <v>12.64261245727539</v>
       </c>
       <c r="B86" t="n">
-        <v>12.77571487426758</v>
+        <v>10.23927688598633</v>
       </c>
       <c r="C86" t="n">
-        <v>52.70824432373047</v>
+        <v>59.34266662597656</v>
       </c>
       <c r="D86" t="n">
-        <v>57.90641784667969</v>
+        <v>45.24556732177734</v>
       </c>
       <c r="E86" t="n">
-        <v>-15.37252140045166</v>
+        <v>-11.17437076568604</v>
       </c>
       <c r="F86" t="n">
-        <v>-11.37640762329102</v>
+        <v>-19.14238739013672</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>15.95799350738525</v>
+        <v>16.38854598999023</v>
       </c>
       <c r="B87" t="n">
-        <v>16.37636184692383</v>
+        <v>13.76802349090576</v>
       </c>
       <c r="C87" t="n">
-        <v>57.15437316894531</v>
+        <v>62.21126556396484</v>
       </c>
       <c r="D87" t="n">
-        <v>60.80734634399414</v>
+        <v>50.66968536376953</v>
       </c>
       <c r="E87" t="n">
-        <v>-12.5070104598999</v>
+        <v>-11.20838451385498</v>
       </c>
       <c r="F87" t="n">
-        <v>-8.390265464782715</v>
+        <v>-16.48508071899414</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>19.8779182434082</v>
+        <v>19.57157516479492</v>
       </c>
       <c r="B88" t="n">
-        <v>19.84809494018555</v>
+        <v>17.11936378479004</v>
       </c>
       <c r="C88" t="n">
-        <v>59.96137237548828</v>
+        <v>62.21126556396484</v>
       </c>
       <c r="D88" t="n">
-        <v>62.02151489257812</v>
+        <v>54.65911102294922</v>
       </c>
       <c r="E88" t="n">
-        <v>-8.851276397705078</v>
+        <v>-10.46653175354004</v>
       </c>
       <c r="F88" t="n">
-        <v>-4.888012409210205</v>
+        <v>-13.64370059967041</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>23.44522285461426</v>
+        <v>22.2288932800293</v>
       </c>
       <c r="B89" t="n">
-        <v>23.04104995727539</v>
+        <v>20.21709632873535</v>
       </c>
       <c r="C89" t="n">
-        <v>60.97824859619141</v>
+        <v>62.88554382324219</v>
       </c>
       <c r="D89" t="n">
-        <v>62.02151489257812</v>
+        <v>57.06881713867188</v>
       </c>
       <c r="E89" t="n">
-        <v>-5.12789249420166</v>
+        <v>-7.673730850219727</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.432289004325867</v>
+        <v>-10.75310802459717</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>26.56746673583984</v>
+        <v>24.49640655517578</v>
       </c>
       <c r="B90" t="n">
-        <v>25.82181167602539</v>
+        <v>22.95552825927734</v>
       </c>
       <c r="C90" t="n">
-        <v>60.97824859619141</v>
+        <v>60.57021713256836</v>
       </c>
       <c r="D90" t="n">
-        <v>58.84937286376953</v>
+        <v>57.06881713867188</v>
       </c>
       <c r="E90" t="n">
-        <v>-1.812315225601196</v>
+        <v>-5.770839691162109</v>
       </c>
       <c r="F90" t="n">
-        <v>1.595262765884399</v>
+        <v>-7.837695121765137</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>29.1879768371582</v>
+        <v>26.48577499389648</v>
       </c>
       <c r="B91" t="n">
-        <v>28.07740020751953</v>
+        <v>25.22990608215332</v>
       </c>
       <c r="C91" t="n">
-        <v>57.2100715637207</v>
+        <v>56.99657821655273</v>
       </c>
       <c r="D91" t="n">
-        <v>54.97716903686523</v>
+        <v>57.08153915405273</v>
       </c>
       <c r="E91" t="n">
-        <v>0.8695379495620728</v>
+        <v>-3.59888768196106</v>
       </c>
       <c r="F91" t="n">
-        <v>3.92914867401123</v>
+        <v>-4.998026371002197</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>31.28455924987793</v>
+        <v>28.22191619873047</v>
       </c>
       <c r="B92" t="n">
-        <v>29.74518585205078</v>
+        <v>26.94546318054199</v>
       </c>
       <c r="C92" t="n">
-        <v>53.23088073730469</v>
+        <v>51.83314514160156</v>
       </c>
       <c r="D92" t="n">
-        <v>49.52425384521484</v>
+        <v>53.76528930664062</v>
       </c>
       <c r="E92" t="n">
-        <v>2.837160587310791</v>
+        <v>-1.529210925102234</v>
       </c>
       <c r="F92" t="n">
-        <v>5.405974388122559</v>
+        <v>-2.430358171463013</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>32.8484992980957</v>
+        <v>29.63032150268555</v>
       </c>
       <c r="B93" t="n">
-        <v>30.81322860717773</v>
+        <v>28.04108619689941</v>
       </c>
       <c r="C93" t="n">
-        <v>47.77138519287109</v>
+        <v>44.73185729980469</v>
       </c>
       <c r="D93" t="n">
-        <v>42.83277130126953</v>
+        <v>48.19319915771484</v>
       </c>
       <c r="E93" t="n">
-        <v>4.029751777648926</v>
+        <v>0.2052226662635803</v>
       </c>
       <c r="F93" t="n">
-        <v>5.405974388122559</v>
+        <v>-0.422167956829071</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>33.86832427978516</v>
+        <v>29.63032150268555</v>
       </c>
       <c r="B94" t="n">
-        <v>30.81322860717773</v>
+        <v>28.04108619689941</v>
       </c>
       <c r="C94" t="n">
-        <v>41.18555450439453</v>
+        <v>35.90084075927734</v>
       </c>
       <c r="D94" t="n">
-        <v>35.36725616455078</v>
+        <v>40.49055480957031</v>
       </c>
       <c r="E94" t="n">
-        <v>4.029751777648926</v>
+        <v>1.509831190109253</v>
       </c>
       <c r="F94" t="n">
-        <v>6.522058963775635</v>
+        <v>0.7178457975387573</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>33.86832427978516</v>
+        <v>31.51780891418457</v>
       </c>
       <c r="B95" t="n">
-        <v>31.84621810913086</v>
+        <v>29.19923782348633</v>
       </c>
       <c r="C95" t="n">
-        <v>33.84804153442383</v>
+        <v>26.55483245849609</v>
       </c>
       <c r="D95" t="n">
-        <v>27.68363571166992</v>
+        <v>31.79161643981934</v>
       </c>
       <c r="E95" t="n">
-        <v>4.771605014801025</v>
+        <v>1.509831190109253</v>
       </c>
       <c r="F95" t="n">
-        <v>5.413852214813232</v>
+        <v>0.7178457975387573</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>34.84936141967773</v>
+        <v>31.48556327819824</v>
       </c>
       <c r="B96" t="n">
-        <v>31.5539379119873</v>
+        <v>29.37697410583496</v>
       </c>
       <c r="C96" t="n">
-        <v>26.16666793823242</v>
+        <v>18.2556209564209</v>
       </c>
       <c r="D96" t="n">
-        <v>20.31145858764648</v>
+        <v>23.66492080688477</v>
       </c>
       <c r="E96" t="n">
-        <v>3.742271900177002</v>
+        <v>3.169400215148926</v>
       </c>
       <c r="F96" t="n">
-        <v>4.054520130157471</v>
+        <v>1.105700850486755</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>34.40312194824219</v>
+        <v>31.44159698486328</v>
       </c>
       <c r="B97" t="n">
-        <v>31.13691520690918</v>
+        <v>29.82037353515625</v>
       </c>
       <c r="C97" t="n">
-        <v>18.59626388549805</v>
+        <v>11.96276473999023</v>
       </c>
       <c r="D97" t="n">
-        <v>13.79408264160156</v>
+        <v>17.12501335144043</v>
       </c>
       <c r="E97" t="n">
-        <v>2.669503688812256</v>
+        <v>2.767130851745605</v>
       </c>
       <c r="F97" t="n">
-        <v>2.959927320480347</v>
+        <v>0.04193680733442307</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>33.69885635375977</v>
+        <v>31.71603965759277</v>
       </c>
       <c r="B98" t="n">
-        <v>30.83310127258301</v>
+        <v>30.28831672668457</v>
       </c>
       <c r="C98" t="n">
-        <v>11.685546875</v>
+        <v>7.910152912139893</v>
       </c>
       <c r="D98" t="n">
-        <v>8.607603073120117</v>
+        <v>12.45097351074219</v>
       </c>
       <c r="E98" t="n">
-        <v>2.014580249786377</v>
+        <v>1.60118293762207</v>
       </c>
       <c r="F98" t="n">
-        <v>2.462519407272339</v>
+        <v>-0.7498069405555725</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>32.9815559387207</v>
+        <v>32.12305068969727</v>
       </c>
       <c r="B99" t="n">
-        <v>30.72054100036621</v>
+        <v>30.68688774108887</v>
       </c>
       <c r="C99" t="n">
-        <v>6.036314487457275</v>
+        <v>5.858640193939209</v>
       </c>
       <c r="D99" t="n">
-        <v>5.096712589263916</v>
+        <v>9.492816925048828</v>
       </c>
       <c r="E99" t="n">
-        <v>1.710155963897705</v>
+        <v>0.2245311737060547</v>
       </c>
       <c r="F99" t="n">
-        <v>2.394112348556519</v>
+        <v>-1.251162648200989</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>32.44270324707031</v>
+        <v>32.33405685424805</v>
       </c>
       <c r="B100" t="n">
-        <v>30.70300674438477</v>
+        <v>31.04290390014648</v>
       </c>
       <c r="C100" t="n">
-        <v>2.167290210723877</v>
+        <v>5.858640193939209</v>
       </c>
       <c r="D100" t="n">
-        <v>3.406693935394287</v>
+        <v>7.967223644256592</v>
       </c>
       <c r="E100" t="n">
-        <v>1.372626781463623</v>
+        <v>-0.9196953773498535</v>
       </c>
       <c r="F100" t="n">
-        <v>2.289412260055542</v>
+        <v>-1.828510880470276</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>32.1689567565918</v>
+        <v>32.23968887329102</v>
       </c>
       <c r="B101" t="n">
-        <v>30.61698150634766</v>
+        <v>31.28143119812012</v>
       </c>
       <c r="C101" t="n">
-        <v>0.2369295358657837</v>
+        <v>4.83054256439209</v>
       </c>
       <c r="D101" t="n">
-        <v>3.406693935394287</v>
+        <v>7.967223644256592</v>
       </c>
       <c r="E101" t="n">
-        <v>0.4827598929405212</v>
+        <v>-2.039943218231201</v>
       </c>
       <c r="F101" t="n">
-        <v>1.544335126876831</v>
+        <v>-2.850932836532593</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>32.15652847290039</v>
+        <v>31.92116355895996</v>
       </c>
       <c r="B102" t="n">
-        <v>31.82525825500488</v>
+        <v>32.64442443847656</v>
       </c>
       <c r="C102" t="n">
-        <v>5.361606121063232</v>
+        <v>9.384796142578125</v>
       </c>
       <c r="D102" t="n">
-        <v>9.458686828613281</v>
+        <v>9.623615264892578</v>
       </c>
       <c r="E102" t="n">
-        <v>-0.3297896683216095</v>
+        <v>-3.541479825973511</v>
       </c>
       <c r="F102" t="n">
-        <v>0.8655197620391846</v>
+        <v>-4.388533592224121</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>33.52625274658203</v>
+        <v>30.60980606079102</v>
       </c>
       <c r="B103" t="n">
-        <v>33.31362533569336</v>
+        <v>24.9420337677002</v>
       </c>
       <c r="C103" t="n">
-        <v>9.082184791564941</v>
+        <v>14.92375087738037</v>
       </c>
       <c r="D103" t="n">
-        <v>12.3173828125</v>
+        <v>18.11500358581543</v>
       </c>
       <c r="E103" t="n">
-        <v>-4.162688732147217</v>
+        <v>-6.619313716888428</v>
       </c>
       <c r="F103" t="n">
-        <v>-2.928156852722168</v>
+        <v>-5.182543754577637</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>33.26588821411133</v>
+        <v>30.60980606079102</v>
       </c>
       <c r="B104" t="n">
-        <v>34.67446136474609</v>
+        <v>19.89105033874512</v>
       </c>
       <c r="C104" t="n">
-        <v>6.100545883178711</v>
+        <v>14.92375087738037</v>
       </c>
       <c r="D104" t="n">
-        <v>9.641908645629883</v>
+        <v>21.95983123779297</v>
       </c>
       <c r="E104" t="n">
-        <v>-5.429441928863525</v>
+        <v>-6.619313716888428</v>
       </c>
       <c r="F104" t="n">
-        <v>-4.56458568572998</v>
+        <v>-5.182543754577637</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>30.40127754211426</v>
+        <v>28.57757186889648</v>
       </c>
       <c r="B105" t="n">
-        <v>33.63506317138672</v>
+        <v>18.12786865234375</v>
       </c>
       <c r="C105" t="n">
-        <v>2.710933208465576</v>
+        <v>14.49262237548828</v>
       </c>
       <c r="D105" t="n">
-        <v>7.249853610992432</v>
+        <v>21.95983123779297</v>
       </c>
       <c r="E105" t="n">
-        <v>-5.429441928863525</v>
+        <v>-5.775335311889648</v>
       </c>
       <c r="F105" t="n">
-        <v>-4.56458568572998</v>
+        <v>-3.650473594665527</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>27.5334529876709</v>
+        <v>26.43282318115234</v>
       </c>
       <c r="B106" t="n">
-        <v>31.98984336853027</v>
+        <v>18.12786865234375</v>
       </c>
       <c r="C106" t="n">
-        <v>1.19091522693634</v>
+        <v>11.96929836273193</v>
       </c>
       <c r="D106" t="n">
-        <v>7.249853610992432</v>
+        <v>21.31619262695312</v>
       </c>
       <c r="E106" t="n">
-        <v>-5.82662296295166</v>
+        <v>-3.554085969924927</v>
       </c>
       <c r="F106" t="n">
-        <v>-5.6090087890625</v>
+        <v>-4.400970935821533</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>25.60256576538086</v>
+        <v>24.16701316833496</v>
       </c>
       <c r="B107" t="n">
-        <v>30.60533905029297</v>
+        <v>21.83402252197266</v>
       </c>
       <c r="C107" t="n">
-        <v>1.19091522693634</v>
+        <v>9.51987361907959</v>
       </c>
       <c r="D107" t="n">
-        <v>8.07854175567627</v>
+        <v>18.39993286132812</v>
       </c>
       <c r="E107" t="n">
-        <v>-7.481805324554443</v>
+        <v>-1.306008458137512</v>
       </c>
       <c r="F107" t="n">
-        <v>-6.713094234466553</v>
+        <v>-4.990952968597412</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>24.42234039306641</v>
+        <v>22.3682861328125</v>
       </c>
       <c r="B108" t="n">
-        <v>29.30220794677734</v>
+        <v>24.49599075317383</v>
       </c>
       <c r="C108" t="n">
-        <v>4.471212387084961</v>
+        <v>7.433257102966309</v>
       </c>
       <c r="D108" t="n">
-        <v>10.02777290344238</v>
+        <v>15.27077102661133</v>
       </c>
       <c r="E108" t="n">
-        <v>-8.316266059875488</v>
+        <v>0.4310120940208435</v>
       </c>
       <c r="F108" t="n">
-        <v>-5.246564865112305</v>
+        <v>-4.721889019012451</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>23.03654098510742</v>
+        <v>21.16282272338867</v>
       </c>
       <c r="B109" t="n">
-        <v>27.56261444091797</v>
+        <v>26.78991317749023</v>
       </c>
       <c r="C109" t="n">
-        <v>4.471212387084961</v>
+        <v>5.621201515197754</v>
       </c>
       <c r="D109" t="n">
-        <v>10.02777290344238</v>
+        <v>12.42297172546387</v>
       </c>
       <c r="E109" t="n">
-        <v>-5.602402687072754</v>
+        <v>1.55321741104126</v>
       </c>
       <c r="F109" t="n">
-        <v>-3.299062728881836</v>
+        <v>-1.664033770561218</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>20.98863220214844</v>
+        <v>21.16282272338867</v>
       </c>
       <c r="B110" t="n">
-        <v>25.35221481323242</v>
+        <v>27.93170356750488</v>
       </c>
       <c r="C110" t="n">
-        <v>4.157684326171875</v>
+        <v>3.849214553833008</v>
       </c>
       <c r="D110" t="n">
-        <v>11.96921825408936</v>
+        <v>10.09071159362793</v>
       </c>
       <c r="E110" t="n">
-        <v>-4.360257625579834</v>
+        <v>1.55321741104126</v>
       </c>
       <c r="F110" t="n">
-        <v>-1.566198468208313</v>
+        <v>0.7711601853370667</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>18.57747650146484</v>
+        <v>19.17927742004395</v>
       </c>
       <c r="B111" t="n">
-        <v>22.90651512145996</v>
+        <v>27.93170356750488</v>
       </c>
       <c r="C111" t="n">
-        <v>2.292367458343506</v>
+        <v>2.028393268585205</v>
       </c>
       <c r="D111" t="n">
-        <v>10.90377998352051</v>
+        <v>8.368703842163086</v>
       </c>
       <c r="E111" t="n">
-        <v>-4.360257625579834</v>
+        <v>2.864248275756836</v>
       </c>
       <c r="F111" t="n">
-        <v>-0.2649797797203064</v>
+        <v>3.233591079711914</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>16.23698425292969</v>
+        <v>15.49751281738281</v>
       </c>
       <c r="B112" t="n">
-        <v>20.4209156036377</v>
+        <v>24.85214233398438</v>
       </c>
       <c r="C112" t="n">
-        <v>0.4818965196609497</v>
+        <v>0.3547589182853699</v>
       </c>
       <c r="D112" t="n">
-        <v>9.771489143371582</v>
+        <v>7.326061725616455</v>
       </c>
       <c r="E112" t="n">
-        <v>-2.466753959655762</v>
+        <v>2.90300178527832</v>
       </c>
       <c r="F112" t="n">
-        <v>-0.2649797797203064</v>
+        <v>4.708730220794678</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>14.14963722229004</v>
+        <v>12.52638816833496</v>
       </c>
       <c r="B113" t="n">
-        <v>17.9761962890625</v>
+        <v>21.29015731811523</v>
       </c>
       <c r="C113" t="n">
-        <v>-0.9117975831031799</v>
+        <v>-0.8447883129119873</v>
       </c>
       <c r="D113" t="n">
-        <v>8.740862846374512</v>
+        <v>7.326061725616455</v>
       </c>
       <c r="E113" t="n">
-        <v>-1.975998401641846</v>
+        <v>2.807473182678223</v>
       </c>
       <c r="F113" t="n">
-        <v>1.729801893234253</v>
+        <v>4.708730220794678</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>12.28169059753418</v>
+        <v>9.215041160583496</v>
       </c>
       <c r="B114" t="n">
-        <v>15.6315393447876</v>
+        <v>17.28633499145508</v>
       </c>
       <c r="C114" t="n">
-        <v>-0.9117975831031799</v>
+        <v>-0.8447883129119873</v>
       </c>
       <c r="D114" t="n">
-        <v>7.743460655212402</v>
+        <v>6.652417182922363</v>
       </c>
       <c r="E114" t="n">
-        <v>-1.240788459777832</v>
+        <v>2.738945007324219</v>
       </c>
       <c r="F114" t="n">
-        <v>2.485632658004761</v>
+        <v>4.972953796386719</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>10.54576683044434</v>
+        <v>6.359859466552734</v>
       </c>
       <c r="B115" t="n">
-        <v>13.45232772827148</v>
+        <v>13.77134227752686</v>
       </c>
       <c r="C115" t="n">
-        <v>-2.729342699050903</v>
+        <v>-2.044806718826294</v>
       </c>
       <c r="D115" t="n">
-        <v>6.816708564758301</v>
+        <v>7.272210121154785</v>
       </c>
       <c r="E115" t="n">
-        <v>-0.2096271961927414</v>
+        <v>2.946109771728516</v>
       </c>
       <c r="F115" t="n">
-        <v>3.325727224349976</v>
+        <v>3.544883728027344</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>8.881446838378906</v>
+        <v>4.233314514160156</v>
       </c>
       <c r="B116" t="n">
-        <v>11.49213600158691</v>
+        <v>11.02431488037109</v>
       </c>
       <c r="C116" t="n">
-        <v>-2.737433671951294</v>
+        <v>-1.942658543586731</v>
       </c>
       <c r="D116" t="n">
-        <v>6.09550952911377</v>
+        <v>7.334885597229004</v>
       </c>
       <c r="E116" t="n">
-        <v>1.015937328338623</v>
+        <v>3.342206954956055</v>
       </c>
       <c r="F116" t="n">
-        <v>4.253570079803467</v>
+        <v>2.969204902648926</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>7.258391380310059</v>
+        <v>2.641688585281372</v>
       </c>
       <c r="B117" t="n">
-        <v>9.762222290039062</v>
+        <v>8.855266571044922</v>
       </c>
       <c r="C117" t="n">
-        <v>-2.402854204177856</v>
+        <v>-2.493098497390747</v>
       </c>
       <c r="D117" t="n">
-        <v>5.705363273620605</v>
+        <v>6.348202705383301</v>
       </c>
       <c r="E117" t="n">
-        <v>2.356054782867432</v>
+        <v>3.476110458374023</v>
       </c>
       <c r="F117" t="n">
-        <v>5.3316969871521</v>
+        <v>3.2120361328125</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>5.658699989318848</v>
+        <v>1.281748652458191</v>
       </c>
       <c r="B118" t="n">
-        <v>8.228594779968262</v>
+        <v>7.014925479888916</v>
       </c>
       <c r="C118" t="n">
-        <v>-1.822688341140747</v>
+        <v>-3.849356889724731</v>
       </c>
       <c r="D118" t="n">
-        <v>5.679051399230957</v>
+        <v>3.419781684875488</v>
       </c>
       <c r="E118" t="n">
-        <v>3.75438928604126</v>
+        <v>3.351181983947754</v>
       </c>
       <c r="F118" t="n">
-        <v>6.574533939361572</v>
+        <v>3.673894882202148</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>4.072138786315918</v>
+        <v>0.01651448011398315</v>
       </c>
       <c r="B119" t="n">
-        <v>6.82768726348877</v>
+        <v>5.329207897186279</v>
       </c>
       <c r="C119" t="n">
-        <v>-1.133879899978638</v>
+        <v>-5.599003791809082</v>
       </c>
       <c r="D119" t="n">
-        <v>5.957518577575684</v>
+        <v>2.117655754089355</v>
       </c>
       <c r="E119" t="n">
-        <v>5.164969921112061</v>
+        <v>3.194304466247559</v>
       </c>
       <c r="F119" t="n">
-        <v>7.925594806671143</v>
+        <v>3.697695732116699</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>2.499290466308594</v>
+        <v>-1.106313109397888</v>
       </c>
       <c r="B120" t="n">
-        <v>5.49083423614502</v>
+        <v>3.719731330871582</v>
       </c>
       <c r="C120" t="n">
-        <v>-0.4754535555839539</v>
+        <v>-7.15632152557373</v>
       </c>
       <c r="D120" t="n">
-        <v>6.421706199645996</v>
+        <v>1.112370491027832</v>
       </c>
       <c r="E120" t="n">
-        <v>6.527823925018311</v>
+        <v>3.103184700012207</v>
       </c>
       <c r="F120" t="n">
-        <v>9.28903865814209</v>
+        <v>3.189976692199707</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.9521697759628296</v>
+        <v>-1.106313109397888</v>
       </c>
       <c r="B121" t="n">
-        <v>4.169642448425293</v>
+        <v>2.159071922302246</v>
       </c>
       <c r="C121" t="n">
-        <v>0.05919152498245239</v>
+        <v>-8.060893058776855</v>
       </c>
       <c r="D121" t="n">
-        <v>6.94509220123291</v>
+        <v>1.112370491027832</v>
       </c>
       <c r="E121" t="n">
-        <v>7.794012546539307</v>
+        <v>2.988593101501465</v>
       </c>
       <c r="F121" t="n">
-        <v>10.6046838760376</v>
+        <v>2.448141098022461</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-0.5416025519371033</v>
+        <v>-2.892327785491943</v>
       </c>
       <c r="B122" t="n">
-        <v>2.85187554359436</v>
+        <v>0.6797341108322144</v>
       </c>
       <c r="C122" t="n">
-        <v>0.4627178311347961</v>
+        <v>-8.01267147064209</v>
       </c>
       <c r="D122" t="n">
-        <v>7.45879077911377</v>
+        <v>0.1055842638015747</v>
       </c>
       <c r="E122" t="n">
-        <v>8.959262847900391</v>
+        <v>2.826013565063477</v>
       </c>
       <c r="F122" t="n">
-        <v>11.82959461212158</v>
+        <v>1.811277270317078</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>-1.937119841575623</v>
+        <v>-3.28500509262085</v>
       </c>
       <c r="B123" t="n">
-        <v>1.562625765800476</v>
+        <v>-0.6471559405326843</v>
       </c>
       <c r="C123" t="n">
-        <v>0.8330619931221008</v>
+        <v>-6.972407341003418</v>
       </c>
       <c r="D123" t="n">
-        <v>7.988320350646973</v>
+        <v>0.5056926012039185</v>
       </c>
       <c r="E123" t="n">
-        <v>10.00080299377441</v>
+        <v>2.613735198974609</v>
       </c>
       <c r="F123" t="n">
-        <v>12.91394329071045</v>
+        <v>1.389117121696472</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-3.183834552764893</v>
+        <v>-3.548881053924561</v>
       </c>
       <c r="B124" t="n">
-        <v>0.3513304591178894</v>
+        <v>-1.742454290390015</v>
       </c>
       <c r="C124" t="n">
-        <v>1.348335981369019</v>
+        <v>-4.008757591247559</v>
       </c>
       <c r="D124" t="n">
-        <v>8.641465187072754</v>
+        <v>1.0970698595047</v>
       </c>
       <c r="E124" t="n">
-        <v>10.86260032653809</v>
+        <v>2.413565635681152</v>
       </c>
       <c r="F124" t="n">
-        <v>13.80183696746826</v>
+        <v>1.172569632530212</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-4.242409706115723</v>
+        <v>-3.8030104637146</v>
       </c>
       <c r="B125" t="n">
-        <v>-0.7304219007492065</v>
+        <v>-1.742454290390015</v>
       </c>
       <c r="C125" t="n">
-        <v>2.185883283615112</v>
+        <v>-2.168180465698242</v>
       </c>
       <c r="D125" t="n">
-        <v>9.55428409576416</v>
+        <v>1.830876469612122</v>
       </c>
       <c r="E125" t="n">
-        <v>11.49482727050781</v>
+        <v>2.282135009765625</v>
       </c>
       <c r="F125" t="n">
-        <v>14.44519329071045</v>
+        <v>1.1352618932724</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-4.242409706115723</v>
+        <v>-4.082911968231201</v>
       </c>
       <c r="B126" t="n">
-        <v>-0.7304219007492065</v>
+        <v>-3.414405107498169</v>
       </c>
       <c r="C126" t="n">
-        <v>3.44633936882019</v>
+        <v>0.1290515661239624</v>
       </c>
       <c r="D126" t="n">
-        <v>10.83187007904053</v>
+        <v>2.712720155715942</v>
       </c>
       <c r="E126" t="n">
-        <v>11.85494804382324</v>
+        <v>2.131811141967773</v>
       </c>
       <c r="F126" t="n">
-        <v>14.82796955108643</v>
+        <v>1.240626215934753</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>-5.951316356658936</v>
+        <v>-4.357360363006592</v>
       </c>
       <c r="B127" t="n">
-        <v>-2.569265842437744</v>
+        <v>-3.782000780105591</v>
       </c>
       <c r="C127" t="n">
-        <v>6.144291877746582</v>
+        <v>2.841923475265503</v>
       </c>
       <c r="D127" t="n">
-        <v>13.56997108459473</v>
+        <v>3.750218629837036</v>
       </c>
       <c r="E127" t="n">
-        <v>11.87527084350586</v>
+        <v>1.789656639099121</v>
       </c>
       <c r="F127" t="n">
-        <v>14.93295383453369</v>
+        <v>1.387107253074646</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-6.418796062469482</v>
+        <v>-4.540313243865967</v>
       </c>
       <c r="B128" t="n">
-        <v>-3.13882303237915</v>
+        <v>-4.034295082092285</v>
       </c>
       <c r="C128" t="n">
-        <v>7.822693824768066</v>
+        <v>6.093329429626465</v>
       </c>
       <c r="D128" t="n">
-        <v>15.37019729614258</v>
+        <v>4.94954776763916</v>
       </c>
       <c r="E128" t="n">
-        <v>11.45759201049805</v>
+        <v>1.062143325805664</v>
       </c>
       <c r="F128" t="n">
-        <v>14.63074398040771</v>
+        <v>1.427420973777771</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-6.719371318817139</v>
+        <v>-4.514867305755615</v>
       </c>
       <c r="B129" t="n">
-        <v>-3.508997440338135</v>
+        <v>-4.21941089630127</v>
       </c>
       <c r="C129" t="n">
-        <v>10.03312301635742</v>
+        <v>10.11725997924805</v>
       </c>
       <c r="D129" t="n">
-        <v>17.82220840454102</v>
+        <v>6.325737953186035</v>
       </c>
       <c r="E129" t="n">
-        <v>9.282337188720703</v>
+        <v>-0.1891069412231445</v>
       </c>
       <c r="F129" t="n">
-        <v>12.51318359375</v>
+        <v>1.108768820762634</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>-6.770335674285889</v>
+        <v>-4.14924955368042</v>
       </c>
       <c r="B130" t="n">
-        <v>-3.607489109039307</v>
+        <v>-4.291377067565918</v>
       </c>
       <c r="C130" t="n">
-        <v>12.83429145812988</v>
+        <v>15.15330505371094</v>
       </c>
       <c r="D130" t="n">
-        <v>20.97951889038086</v>
+        <v>7.905919075012207</v>
       </c>
       <c r="E130" t="n">
-        <v>6.936701774597168</v>
+        <v>-1.931409358978271</v>
       </c>
       <c r="F130" t="n">
-        <v>10.0791597366333</v>
+        <v>-1.301443338394165</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>-6.403514385223389</v>
+        <v>-3.322061061859131</v>
       </c>
       <c r="B131" t="n">
-        <v>-3.253838062286377</v>
+        <v>-4.08350658416748</v>
       </c>
       <c r="C131" t="n">
-        <v>16.44906425476074</v>
+        <v>21.25603485107422</v>
       </c>
       <c r="D131" t="n">
-        <v>24.93066215515137</v>
+        <v>10.91657733917236</v>
       </c>
       <c r="E131" t="n">
-        <v>3.195118427276611</v>
+        <v>-3.811415195465088</v>
       </c>
       <c r="F131" t="n">
-        <v>6.250166416168213</v>
+        <v>-4.28496789932251</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>-5.31721830368042</v>
+        <v>-0.8791184425354004</v>
       </c>
       <c r="B132" t="n">
-        <v>-2.295179843902588</v>
+        <v>-3.435118913650513</v>
       </c>
       <c r="C132" t="n">
-        <v>21.06559753417969</v>
+        <v>28.14455032348633</v>
       </c>
       <c r="D132" t="n">
-        <v>29.74610137939453</v>
+        <v>13.13824462890625</v>
       </c>
       <c r="E132" t="n">
-        <v>-1.736869812011719</v>
+        <v>-5.292253971099854</v>
       </c>
       <c r="F132" t="n">
-        <v>1.240567326545715</v>
+        <v>-9.085338592529297</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>-1.889529466629028</v>
+        <v>0.983454704284668</v>
       </c>
       <c r="B133" t="n">
-        <v>0.8154196739196777</v>
+        <v>-0.8376686573028564</v>
       </c>
       <c r="C133" t="n">
-        <v>26.73935317993164</v>
+        <v>35.30560684204102</v>
       </c>
       <c r="D133" t="n">
-        <v>35.34423828125</v>
+        <v>16.81298637390137</v>
       </c>
       <c r="E133" t="n">
-        <v>-7.168933868408203</v>
+        <v>-6.178208827972412</v>
       </c>
       <c r="F133" t="n">
-        <v>-4.175681591033936</v>
+        <v>-14.67136287689209</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.7392137050628662</v>
+        <v>3.502999067306519</v>
       </c>
       <c r="B134" t="n">
-        <v>3.12898588180542</v>
+        <v>1.687589526176453</v>
       </c>
       <c r="C134" t="n">
-        <v>33.2659797668457</v>
+        <v>42.34088134765625</v>
       </c>
       <c r="D134" t="n">
-        <v>41.40801620483398</v>
+        <v>22.24246597290039</v>
       </c>
       <c r="E134" t="n">
-        <v>-12.09504795074463</v>
+        <v>-6.696675777435303</v>
       </c>
       <c r="F134" t="n">
-        <v>-8.825965881347656</v>
+        <v>-19.0488452911377</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>4.207485198974609</v>
+        <v>6.670035362243652</v>
       </c>
       <c r="B135" t="n">
-        <v>6.098893165588379</v>
+        <v>4.984700202941895</v>
       </c>
       <c r="C135" t="n">
-        <v>40.14882659912109</v>
+        <v>49.10545349121094</v>
       </c>
       <c r="D135" t="n">
-        <v>47.42021179199219</v>
+        <v>28.96348571777344</v>
       </c>
       <c r="E135" t="n">
-        <v>-15.40198707580566</v>
+        <v>-7.340396404266357</v>
       </c>
       <c r="F135" t="n">
-        <v>-11.72392654418945</v>
+        <v>-20.86366081237793</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>8.163565635681152</v>
+        <v>10.39155197143555</v>
       </c>
       <c r="B136" t="n">
-        <v>9.445657730102539</v>
+        <v>8.437366485595703</v>
       </c>
       <c r="C136" t="n">
-        <v>46.73677062988281</v>
+        <v>55.26722717285156</v>
       </c>
       <c r="D136" t="n">
-        <v>52.81472015380859</v>
+        <v>36.01895523071289</v>
       </c>
       <c r="E136" t="n">
-        <v>-16.4520149230957</v>
+        <v>-8.218428611755371</v>
       </c>
       <c r="F136" t="n">
-        <v>-11.72392654418945</v>
+        <v>-20.86366081237793</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>12.29701805114746</v>
+        <v>14.25938701629639</v>
       </c>
       <c r="B137" t="n">
-        <v>12.96205520629883</v>
+        <v>11.70953178405762</v>
       </c>
       <c r="C137" t="n">
-        <v>52.44732666015625</v>
+        <v>60.14048767089844</v>
       </c>
       <c r="D137" t="n">
-        <v>57.1259765625</v>
+        <v>42.52344512939453</v>
       </c>
       <c r="E137" t="n">
-        <v>-15.31398010253906</v>
+        <v>-8.983983039855957</v>
       </c>
       <c r="F137" t="n">
-        <v>-11.4473819732666</v>
+        <v>-17.44245338439941</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>16.37895011901855</v>
+        <v>17.75688171386719</v>
       </c>
       <c r="B138" t="n">
-        <v>16.50750350952148</v>
+        <v>14.76436424255371</v>
       </c>
       <c r="C138" t="n">
-        <v>56.86402130126953</v>
+        <v>63.08321380615234</v>
       </c>
       <c r="D138" t="n">
-        <v>60.05403900146484</v>
+        <v>47.98697662353516</v>
       </c>
       <c r="E138" t="n">
-        <v>-12.58425140380859</v>
+        <v>-9.26759147644043</v>
       </c>
       <c r="F138" t="n">
-        <v>-8.642986297607422</v>
+        <v>-14.80469703674316</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>20.23752403259277</v>
+        <v>20.59222984313965</v>
       </c>
       <c r="B139" t="n">
-        <v>19.94506072998047</v>
+        <v>17.64851570129395</v>
       </c>
       <c r="C139" t="n">
-        <v>59.70573806762695</v>
+        <v>63.08321380615234</v>
       </c>
       <c r="D139" t="n">
-        <v>61.41017150878906</v>
+        <v>52.22467422485352</v>
       </c>
       <c r="E139" t="n">
-        <v>-9.069852828979492</v>
+        <v>-8.82679557800293</v>
       </c>
       <c r="F139" t="n">
-        <v>-5.284634590148926</v>
+        <v>-12.13479423522949</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>23.73663711547852</v>
+        <v>22.78560256958008</v>
       </c>
       <c r="B140" t="n">
-        <v>23.12102699279785</v>
+        <v>20.34078025817871</v>
       </c>
       <c r="C140" t="n">
-        <v>60.79905700683594</v>
+        <v>63.43367004394531</v>
       </c>
       <c r="D140" t="n">
-        <v>61.41017150878906</v>
+        <v>55.12143707275391</v>
       </c>
       <c r="E140" t="n">
-        <v>-5.469658851623535</v>
+        <v>-7.554399013519287</v>
       </c>
       <c r="F140" t="n">
-        <v>-1.91196596622467</v>
+        <v>-9.54774284362793</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>26.77424240112305</v>
+        <v>24.53916358947754</v>
       </c>
       <c r="B141" t="n">
-        <v>25.88599014282227</v>
+        <v>22.7390022277832</v>
       </c>
       <c r="C141" t="n">
-        <v>60.79905700683594</v>
+        <v>60.95892333984375</v>
       </c>
       <c r="D141" t="n">
-        <v>58.83319473266602</v>
+        <v>56.51483535766602</v>
       </c>
       <c r="E141" t="n">
-        <v>-2.250509023666382</v>
+        <v>-4.435454845428467</v>
       </c>
       <c r="F141" t="n">
-        <v>1.095789432525635</v>
+        <v>-6.95880126953125</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>29.28964996337891</v>
+        <v>26.06562423706055</v>
       </c>
       <c r="B142" t="n">
-        <v>28.11411285400391</v>
+        <v>24.71235275268555</v>
       </c>
       <c r="C142" t="n">
-        <v>57.17493438720703</v>
+        <v>57.44539642333984</v>
       </c>
       <c r="D142" t="n">
-        <v>55.11586761474609</v>
+        <v>56.51483535766602</v>
       </c>
       <c r="E142" t="n">
-        <v>0.365320086479187</v>
+        <v>-2.801101922988892</v>
       </c>
       <c r="F142" t="n">
-        <v>3.467597484588623</v>
+        <v>-4.350513935089111</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>31.27079582214355</v>
+        <v>27.48002243041992</v>
       </c>
       <c r="B143" t="n">
-        <v>29.73639297485352</v>
+        <v>26.13064575195312</v>
       </c>
       <c r="C143" t="n">
-        <v>53.15361785888672</v>
+        <v>52.61046981811523</v>
       </c>
       <c r="D143" t="n">
-        <v>49.75605010986328</v>
+        <v>53.59059906005859</v>
       </c>
       <c r="E143" t="n">
-        <v>2.302893400192261</v>
+        <v>-1.136833310127258</v>
       </c>
       <c r="F143" t="n">
-        <v>5.018332958221436</v>
+        <v>-1.853160381317139</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>32.73370361328125</v>
+        <v>28.75043487548828</v>
       </c>
       <c r="B144" t="n">
-        <v>30.74255752563477</v>
+        <v>26.13064575195312</v>
       </c>
       <c r="C144" t="n">
-        <v>47.62224578857422</v>
+        <v>45.86772537231445</v>
       </c>
       <c r="D144" t="n">
-        <v>43.06229400634766</v>
+        <v>48.68266677856445</v>
       </c>
       <c r="E144" t="n">
-        <v>3.503863334655762</v>
+        <v>0.3072556853294373</v>
       </c>
       <c r="F144" t="n">
-        <v>5.018332958221436</v>
+        <v>0.215160608291626</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>32.73370361328125</v>
+        <v>28.75043487548828</v>
       </c>
       <c r="B145" t="n">
-        <v>30.74255752563477</v>
+        <v>27.64686012268066</v>
       </c>
       <c r="C145" t="n">
-        <v>40.98200225830078</v>
+        <v>36.98170852661133</v>
       </c>
       <c r="D145" t="n">
-        <v>35.52584457397461</v>
+        <v>41.01849365234375</v>
       </c>
       <c r="E145" t="n">
-        <v>3.503863334655762</v>
+        <v>1.518229007720947</v>
       </c>
       <c r="F145" t="n">
-        <v>6.29115629196167</v>
+        <v>1.375093579292297</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>34.64487075805664</v>
+        <v>30.6075325012207</v>
       </c>
       <c r="B146" t="n">
-        <v>31.6374568939209</v>
+        <v>27.30505752563477</v>
       </c>
       <c r="C146" t="n">
-        <v>33.65215301513672</v>
+        <v>27.09731292724609</v>
       </c>
       <c r="D146" t="n">
-        <v>27.77770614624023</v>
+        <v>31.83993148803711</v>
       </c>
       <c r="E146" t="n">
-        <v>4.29900598526001</v>
+        <v>2.538557767868042</v>
       </c>
       <c r="F146" t="n">
-        <v>5.25258207321167</v>
+        <v>1.375093579292297</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>34.62236785888672</v>
+        <v>30.53154945373535</v>
       </c>
       <c r="B147" t="n">
-        <v>31.3243465423584</v>
+        <v>27.44146537780762</v>
       </c>
       <c r="C147" t="n">
-        <v>26.0562801361084</v>
+        <v>18.24430847167969</v>
       </c>
       <c r="D147" t="n">
-        <v>20.39598846435547</v>
+        <v>23.24468040466309</v>
       </c>
       <c r="E147" t="n">
-        <v>3.287354946136475</v>
+        <v>2.538557767868042</v>
       </c>
       <c r="F147" t="n">
-        <v>3.993189573287964</v>
+        <v>1.403282999992371</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>34.21191787719727</v>
+        <v>30.44008636474609</v>
       </c>
       <c r="B148" t="n">
-        <v>30.93541526794434</v>
+        <v>28.35806655883789</v>
       </c>
       <c r="C148" t="n">
-        <v>18.61419868469238</v>
+        <v>11.76279067993164</v>
       </c>
       <c r="D148" t="n">
-        <v>13.90358543395996</v>
+        <v>16.5695915222168</v>
       </c>
       <c r="E148" t="n">
-        <v>2.233788967132568</v>
+        <v>3.548030853271484</v>
       </c>
       <c r="F148" t="n">
-        <v>3.003047704696655</v>
+        <v>-0.1362863183021545</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>33.55808258056641</v>
+        <v>30.94119453430176</v>
       </c>
       <c r="B149" t="n">
-        <v>30.70864868164062</v>
+        <v>29.41776847839355</v>
       </c>
       <c r="C149" t="n">
-        <v>11.82660102844238</v>
+        <v>7.925720691680908</v>
       </c>
       <c r="D149" t="n">
-        <v>8.718213081359863</v>
+        <v>12.06407165527344</v>
       </c>
       <c r="E149" t="n">
-        <v>1.612233638763428</v>
+        <v>1.142879247665405</v>
       </c>
       <c r="F149" t="n">
-        <v>2.582183599472046</v>
+        <v>-1.22161591053009</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>32.89908218383789</v>
+        <v>31.79684257507324</v>
       </c>
       <c r="B150" t="n">
-        <v>30.70824432373047</v>
+        <v>30.22054672241211</v>
       </c>
       <c r="C150" t="n">
-        <v>6.273701190948486</v>
+        <v>6.308670997619629</v>
       </c>
       <c r="D150" t="n">
-        <v>5.145095825195312</v>
+        <v>9.378883361816406</v>
       </c>
       <c r="E150" t="n">
-        <v>1.314880847930908</v>
+        <v>-0.1601985692977905</v>
       </c>
       <c r="F150" t="n">
-        <v>2.523258924484253</v>
+        <v>-1.686380505561829</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>32.41628646850586</v>
+        <v>32.41983413696289</v>
       </c>
       <c r="B151" t="n">
-        <v>30.80941772460938</v>
+        <v>30.79057884216309</v>
       </c>
       <c r="C151" t="n">
-        <v>2.468089580535889</v>
+        <v>6.308670997619629</v>
       </c>
       <c r="D151" t="n">
-        <v>3.340698719024658</v>
+        <v>8.014972686767578</v>
       </c>
       <c r="E151" t="n">
-        <v>0.9372352957725525</v>
+        <v>-1.377321481704712</v>
       </c>
       <c r="F151" t="n">
-        <v>2.390425443649292</v>
+        <v>-1.948105454444885</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>32.17498779296875</v>
+        <v>32.5552978515625</v>
       </c>
       <c r="B152" t="n">
-        <v>30.82379913330078</v>
+        <v>31.1693172454834</v>
       </c>
       <c r="C152" t="n">
-        <v>0.5804225206375122</v>
+        <v>6.057999610900879</v>
       </c>
       <c r="D152" t="n">
-        <v>3.340698719024658</v>
+        <v>8.014972686767578</v>
       </c>
       <c r="E152" t="n">
-        <v>-0.009782841429114342</v>
+        <v>-2.608634948730469</v>
       </c>
       <c r="F152" t="n">
-        <v>1.621153593063354</v>
+        <v>-2.561219930648804</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>32.18124771118164</v>
+        <v>32.31487655639648</v>
       </c>
       <c r="B153" t="n">
-        <v>31.98024559020996</v>
+        <v>32.49709320068359</v>
       </c>
       <c r="C153" t="n">
-        <v>5.065499305725098</v>
+        <v>9.902683258056641</v>
       </c>
       <c r="D153" t="n">
-        <v>8.825531005859375</v>
+        <v>9.232510566711426</v>
       </c>
       <c r="E153" t="n">
-        <v>-0.6061587333679199</v>
+        <v>-3.881985187530518</v>
       </c>
       <c r="F153" t="n">
-        <v>1.264229536056519</v>
+        <v>-4.796870708465576</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>33.16247177124023</v>
+        <v>30.72711181640625</v>
       </c>
       <c r="B154" t="n">
-        <v>33.30034255981445</v>
+        <v>24.70272445678711</v>
       </c>
       <c r="C154" t="n">
-        <v>9.834385871887207</v>
+        <v>15.29484272003174</v>
       </c>
       <c r="D154" t="n">
-        <v>12.87515354156494</v>
+        <v>18.18862915039062</v>
       </c>
       <c r="E154" t="n">
-        <v>-4.54097843170166</v>
+        <v>-6.166357040405273</v>
       </c>
       <c r="F154" t="n">
-        <v>-3.005933284759521</v>
+        <v>-4.796870708465576</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>33.05275726318359</v>
+        <v>30.72711181640625</v>
       </c>
       <c r="B155" t="n">
-        <v>35.36707305908203</v>
+        <v>19.1520824432373</v>
       </c>
       <c r="C155" t="n">
-        <v>7.285995483398438</v>
+        <v>15.29484272003174</v>
       </c>
       <c r="D155" t="n">
-        <v>10.7665548324585</v>
+        <v>22.98089027404785</v>
       </c>
       <c r="E155" t="n">
-        <v>-5.92214298248291</v>
+        <v>-7.17520809173584</v>
       </c>
       <c r="F155" t="n">
-        <v>-5.08256721496582</v>
+        <v>-4.074986457824707</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>31.3610782623291</v>
+        <v>29.8830623626709</v>
       </c>
       <c r="B156" t="n">
-        <v>35.36707305908203</v>
+        <v>16.74848937988281</v>
       </c>
       <c r="C156" t="n">
-        <v>3.697218418121338</v>
+        <v>15.44893836975098</v>
       </c>
       <c r="D156" t="n">
-        <v>8.265485763549805</v>
+        <v>24.82188606262207</v>
       </c>
       <c r="E156" t="n">
-        <v>-5.92214298248291</v>
+        <v>-7.17520809173584</v>
       </c>
       <c r="F156" t="n">
-        <v>-5.08256721496582</v>
+        <v>-3.593687057495117</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>27.82836532592773</v>
+        <v>27.35567474365234</v>
       </c>
       <c r="B157" t="n">
-        <v>32.02392578125</v>
+        <v>16.74848937988281</v>
       </c>
       <c r="C157" t="n">
-        <v>1.180814385414124</v>
+        <v>12.99995994567871</v>
       </c>
       <c r="D157" t="n">
-        <v>7.071755886077881</v>
+        <v>24.82188606262207</v>
       </c>
       <c r="E157" t="n">
-        <v>-5.357878684997559</v>
+        <v>-3.537754058837891</v>
       </c>
       <c r="F157" t="n">
-        <v>-5.837668895721436</v>
+        <v>-3.983077764511108</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>25.21738433837891</v>
+        <v>24.34810447692871</v>
       </c>
       <c r="B158" t="n">
-        <v>30.52113914489746</v>
+        <v>18.95001983642578</v>
       </c>
       <c r="C158" t="n">
-        <v>1.180814385414124</v>
+        <v>10.28099250793457</v>
       </c>
       <c r="D158" t="n">
-        <v>7.071755886077881</v>
+        <v>20.92189025878906</v>
       </c>
       <c r="E158" t="n">
-        <v>-6.629896640777588</v>
+        <v>-0.9181027412414551</v>
       </c>
       <c r="F158" t="n">
-        <v>-6.44461727142334</v>
+        <v>-4.271251678466797</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>23.90359878540039</v>
+        <v>21.69179153442383</v>
       </c>
       <c r="B159" t="n">
-        <v>29.32834243774414</v>
+        <v>21.63549423217773</v>
       </c>
       <c r="C159" t="n">
-        <v>3.455955505371094</v>
+        <v>7.714199542999268</v>
       </c>
       <c r="D159" t="n">
-        <v>10.37430953979492</v>
+        <v>17.3989143371582</v>
       </c>
       <c r="E159" t="n">
-        <v>-8.366241455078125</v>
+        <v>1.326914548873901</v>
       </c>
       <c r="F159" t="n">
-        <v>-5.528410911560059</v>
+        <v>-4.190798282623291</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>22.86215400695801</v>
+        <v>19.84951400756836</v>
       </c>
       <c r="B160" t="n">
-        <v>27.78916358947754</v>
+        <v>24.41011238098145</v>
       </c>
       <c r="C160" t="n">
-        <v>4.906670093536377</v>
+        <v>5.446010112762451</v>
       </c>
       <c r="D160" t="n">
-        <v>10.37430953979492</v>
+        <v>13.57397651672363</v>
       </c>
       <c r="E160" t="n">
-        <v>-5.887247085571289</v>
+        <v>2.695100784301758</v>
       </c>
       <c r="F160" t="n">
-        <v>-3.349545478820801</v>
+        <v>-2.171436786651611</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>21.10050964355469</v>
+        <v>18.77657508850098</v>
       </c>
       <c r="B161" t="n">
-        <v>25.63179397583008</v>
+        <v>26.56071090698242</v>
       </c>
       <c r="C161" t="n">
-        <v>4.906670093536377</v>
+        <v>3.341034173965454</v>
       </c>
       <c r="D161" t="n">
-        <v>12.33356857299805</v>
+        <v>9.989540100097656</v>
       </c>
       <c r="E161" t="n">
-        <v>-4.405195236206055</v>
+        <v>2.695100784301758</v>
       </c>
       <c r="F161" t="n">
-        <v>-1.406293034553528</v>
+        <v>0.01059556007385254</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>18.68321990966797</v>
+        <v>18.77657508850098</v>
       </c>
       <c r="B162" t="n">
-        <v>23.14579772949219</v>
+        <v>26.56071090698242</v>
       </c>
       <c r="C162" t="n">
-        <v>2.546809196472168</v>
+        <v>1.184863567352295</v>
       </c>
       <c r="D162" t="n">
-        <v>11.02505493164062</v>
+        <v>6.937595844268799</v>
       </c>
       <c r="E162" t="n">
-        <v>-3.323437452316284</v>
+        <v>3.825468063354492</v>
       </c>
       <c r="F162" t="n">
-        <v>-0.05051511526107788</v>
+        <v>2.707206726074219</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>16.21625328063965</v>
+        <v>15.88259315490723</v>
       </c>
       <c r="B163" t="n">
-        <v>20.63121223449707</v>
+        <v>27.31921768188477</v>
       </c>
       <c r="C163" t="n">
-        <v>0.6247786283493042</v>
+        <v>-1.005783915519714</v>
       </c>
       <c r="D163" t="n">
-        <v>9.56806468963623</v>
+        <v>4.667004585266113</v>
       </c>
       <c r="E163" t="n">
-        <v>-3.323437452316284</v>
+        <v>3.458517074584961</v>
       </c>
       <c r="F163" t="n">
-        <v>-0.05051511526107788</v>
+        <v>4.826447486877441</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>14.09053421020508</v>
+        <v>13.38490295410156</v>
       </c>
       <c r="B164" t="n">
-        <v>18.18479537963867</v>
+        <v>24.53911972045898</v>
       </c>
       <c r="C164" t="n">
-        <v>-0.9120861887931824</v>
+        <v>-2.773441314697266</v>
       </c>
       <c r="D164" t="n">
-        <v>8.502291679382324</v>
+        <v>3.607247352600098</v>
       </c>
       <c r="E164" t="n">
-        <v>-1.947004795074463</v>
+        <v>3.144430160522461</v>
       </c>
       <c r="F164" t="n">
-        <v>1.830237150192261</v>
+        <v>4.826447486877441</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>12.3101978302002</v>
+        <v>10.03305244445801</v>
       </c>
       <c r="B165" t="n">
-        <v>15.83318901062012</v>
+        <v>20.43834495544434</v>
       </c>
       <c r="C165" t="n">
-        <v>-0.9120861887931824</v>
+        <v>-2.773441314697266</v>
       </c>
       <c r="D165" t="n">
-        <v>7.670262336730957</v>
+        <v>3.607247352600098</v>
       </c>
       <c r="E165" t="n">
-        <v>-1.405062198638916</v>
+        <v>2.870455741882324</v>
       </c>
       <c r="F165" t="n">
-        <v>2.505504369735718</v>
+        <v>4.776036262512207</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>10.7165060043335</v>
+        <v>6.890896797180176</v>
       </c>
       <c r="B166" t="n">
-        <v>13.62246322631836</v>
+        <v>16.00663757324219</v>
       </c>
       <c r="C166" t="n">
-        <v>-2.864156007766724</v>
+        <v>-4.226033210754395</v>
       </c>
       <c r="D166" t="n">
-        <v>6.928502082824707</v>
+        <v>5.81636905670166</v>
       </c>
       <c r="E166" t="n">
-        <v>-0.4650240540504456</v>
+        <v>2.778024673461914</v>
       </c>
       <c r="F166" t="n">
-        <v>3.347069501876831</v>
+        <v>3.411381244659424</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>9.18211555480957</v>
+        <v>4.621338844299316</v>
       </c>
       <c r="B167" t="n">
-        <v>11.61481761932373</v>
+        <v>12.0980167388916</v>
       </c>
       <c r="C167" t="n">
-        <v>-2.871459245681763</v>
+        <v>-2.776234865188599</v>
       </c>
       <c r="D167" t="n">
-        <v>6.333453178405762</v>
+        <v>6.858685493469238</v>
       </c>
       <c r="E167" t="n">
-        <v>0.7416109442710876</v>
+        <v>2.859837532043457</v>
       </c>
       <c r="F167" t="n">
-        <v>4.290763378143311</v>
+        <v>3.411381244659424</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>7.652042388916016</v>
+        <v>3.118841886520386</v>
       </c>
       <c r="B168" t="n">
-        <v>9.841945648193359</v>
+        <v>9.082542419433594</v>
       </c>
       <c r="C168" t="n">
-        <v>-2.579533815383911</v>
+        <v>-1.701346516609192</v>
       </c>
       <c r="D168" t="n">
-        <v>6.019478797912598</v>
+        <v>6.858685493469238</v>
       </c>
       <c r="E168" t="n">
-        <v>2.088242053985596</v>
+        <v>2.873612403869629</v>
       </c>
       <c r="F168" t="n">
-        <v>5.368780612945557</v>
+        <v>2.21906852722168</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>6.109641075134277</v>
+        <v>1.947626709938049</v>
       </c>
       <c r="B169" t="n">
-        <v>8.28473949432373</v>
+        <v>6.989468097686768</v>
       </c>
       <c r="C169" t="n">
-        <v>-2.035535097122192</v>
+        <v>-2.085095643997192</v>
       </c>
       <c r="D169" t="n">
-        <v>6.04942798614502</v>
+        <v>5.112424850463867</v>
       </c>
       <c r="E169" t="n">
-        <v>3.487993717193604</v>
+        <v>2.93865966796875</v>
       </c>
       <c r="F169" t="n">
-        <v>6.59927225112915</v>
+        <v>3.174415588378906</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>4.550538063049316</v>
+        <v>0.8476768732070923</v>
       </c>
       <c r="B170" t="n">
-        <v>6.883925437927246</v>
+        <v>5.564800262451172</v>
       </c>
       <c r="C170" t="n">
-        <v>-1.337722063064575</v>
+        <v>-4.985411643981934</v>
       </c>
       <c r="D170" t="n">
-        <v>6.377776145935059</v>
+        <v>3.319767475128174</v>
       </c>
       <c r="E170" t="n">
-        <v>4.886668682098389</v>
+        <v>3.196072578430176</v>
       </c>
       <c r="F170" t="n">
-        <v>7.939730167388916</v>
+        <v>3.607839584350586</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>2.979022979736328</v>
+        <v>-0.1552085280418396</v>
       </c>
       <c r="B171" t="n">
-        <v>5.566678047180176</v>
+        <v>4.430703639984131</v>
       </c>
       <c r="C171" t="n">
-        <v>-0.6278297305107117</v>
+        <v>-6.379963874816895</v>
       </c>
       <c r="D171" t="n">
-        <v>6.882737159729004</v>
+        <v>1.875954389572144</v>
       </c>
       <c r="E171" t="n">
-        <v>6.230485439300537</v>
+        <v>3.476709365844727</v>
       </c>
       <c r="F171" t="n">
-        <v>9.307366371154785</v>
+        <v>3.209285736083984</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>1.410075545310974</v>
+        <v>-0.1552085280418396</v>
       </c>
       <c r="B172" t="n">
-        <v>4.274459838867188</v>
+        <v>3.296181678771973</v>
       </c>
       <c r="C172" t="n">
-        <v>-0.02509230375289917</v>
+        <v>-6.379963874816895</v>
       </c>
       <c r="D172" t="n">
-        <v>7.429572105407715</v>
+        <v>1.875954389572144</v>
       </c>
       <c r="E172" t="n">
-        <v>7.478816509246826</v>
+        <v>3.450227737426758</v>
       </c>
       <c r="F172" t="n">
-        <v>10.6496114730835</v>
+        <v>2.384516716003418</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>-0.125271737575531</v>
+        <v>-1.692464351654053</v>
       </c>
       <c r="B173" t="n">
-        <v>2.983096837997437</v>
+        <v>2.071659088134766</v>
       </c>
       <c r="C173" t="n">
-        <v>0.4345539212226868</v>
+        <v>-8.194693565368652</v>
       </c>
       <c r="D173" t="n">
-        <v>7.93941593170166</v>
+        <v>0.4607058763504028</v>
       </c>
       <c r="E173" t="n">
-        <v>8.630739212036133</v>
+        <v>3.086796760559082</v>
       </c>
       <c r="F173" t="n">
-        <v>11.92396640777588</v>
+        <v>1.62658154964447</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>-1.576520085334778</v>
+        <v>-1.8406081199646</v>
       </c>
       <c r="B174" t="n">
-        <v>1.709099411964417</v>
+        <v>0.8382514715194702</v>
       </c>
       <c r="C174" t="n">
-        <v>0.8282497525215149</v>
+        <v>-6.11726188659668</v>
       </c>
       <c r="D174" t="n">
-        <v>8.432486534118652</v>
+        <v>1.127617955207825</v>
       </c>
       <c r="E174" t="n">
-        <v>9.659326553344727</v>
+        <v>2.572429656982422</v>
       </c>
       <c r="F174" t="n">
-        <v>13.06979656219482</v>
+        <v>1.149452090263367</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>-2.882210969924927</v>
+        <v>-1.778489589691162</v>
       </c>
       <c r="B175" t="n">
-        <v>0.5009050965309143</v>
+        <v>-0.2457765936851501</v>
       </c>
       <c r="C175" t="n">
-        <v>1.330933332443237</v>
+        <v>-4.222339153289795</v>
       </c>
       <c r="D175" t="n">
-        <v>9.021655082702637</v>
+        <v>1.980862736701965</v>
       </c>
       <c r="E175" t="n">
-        <v>10.49873924255371</v>
+        <v>2.117764472961426</v>
       </c>
       <c r="F175" t="n">
-        <v>14.01452922821045</v>
+        <v>0.9518575072288513</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>-3.986790180206299</v>
+        <v>-1.71693754196167</v>
       </c>
       <c r="B176" t="n">
-        <v>-0.5826041698455811</v>
+        <v>-0.2457765936851501</v>
       </c>
       <c r="C176" t="n">
-        <v>2.140347242355347</v>
+        <v>-1.838540434837341</v>
       </c>
       <c r="D176" t="n">
-        <v>9.858769416809082</v>
+        <v>2.836486101150513</v>
       </c>
       <c r="E176" t="n">
-        <v>11.0928840637207</v>
+        <v>1.838939666748047</v>
       </c>
       <c r="F176" t="n">
-        <v>14.6946496963501</v>
+        <v>0.9648403525352478</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>-3.986790180206299</v>
+        <v>-1.756152629852295</v>
       </c>
       <c r="B177" t="n">
-        <v>-0.5826041698455811</v>
+        <v>-1.897830247879028</v>
       </c>
       <c r="C177" t="n">
-        <v>3.388773679733276</v>
+        <v>0.8077008128166199</v>
       </c>
       <c r="D177" t="n">
-        <v>11.06692886352539</v>
+        <v>3.69714093208313</v>
       </c>
       <c r="E177" t="n">
-        <v>11.40011787414551</v>
+        <v>1.635186195373535</v>
       </c>
       <c r="F177" t="n">
-        <v>15.08646678924561</v>
+        <v>1.119377017021179</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>-5.729613780975342</v>
+        <v>-1.865941524505615</v>
       </c>
       <c r="B178" t="n">
-        <v>-2.410356998443604</v>
+        <v>-2.182574510574341</v>
       </c>
       <c r="C178" t="n">
-        <v>6.138648986816406</v>
+        <v>3.69288182258606</v>
       </c>
       <c r="D178" t="n">
-        <v>13.72807025909424</v>
+        <v>4.610323905944824</v>
       </c>
       <c r="E178" t="n">
-        <v>11.36082077026367</v>
+        <v>1.313787460327148</v>
       </c>
       <c r="F178" t="n">
-        <v>15.17391681671143</v>
+        <v>1.310769438743591</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>-6.138513088226318</v>
+        <v>-1.934056758880615</v>
       </c>
       <c r="B179" t="n">
-        <v>-2.941524982452393</v>
+        <v>-2.313014268875122</v>
       </c>
       <c r="C179" t="n">
-        <v>7.856886863708496</v>
+        <v>6.986342906951904</v>
       </c>
       <c r="D179" t="n">
-        <v>15.48278045654297</v>
+        <v>5.619553565979004</v>
       </c>
       <c r="E179" t="n">
-        <v>10.89291763305664</v>
+        <v>0.6643857955932617</v>
       </c>
       <c r="F179" t="n">
-        <v>14.83742618560791</v>
+        <v>1.402161002159119</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>-6.35226583480835</v>
+        <v>-1.818850994110107</v>
       </c>
       <c r="B180" t="n">
-        <v>-3.258593082427979</v>
+        <v>-2.367640733718872</v>
       </c>
       <c r="C180" t="n">
-        <v>10.08941841125488</v>
+        <v>10.98696422576904</v>
       </c>
       <c r="D180" t="n">
-        <v>17.85627746582031</v>
+        <v>6.758715629577637</v>
       </c>
       <c r="E180" t="n">
-        <v>8.696484565734863</v>
+        <v>-0.452000617980957</v>
       </c>
       <c r="F180" t="n">
-        <v>12.67873668670654</v>
+        <v>1.170507788658142</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>-6.322875499725342</v>
+        <v>-1.378446102142334</v>
       </c>
       <c r="B181" t="n">
-        <v>-3.307344913482666</v>
+        <v>-2.314950227737427</v>
       </c>
       <c r="C181" t="n">
-        <v>12.87373542785645</v>
+        <v>16.00456619262695</v>
       </c>
       <c r="D181" t="n">
-        <v>20.89896011352539</v>
+        <v>8.059706687927246</v>
       </c>
       <c r="E181" t="n">
-        <v>6.379840850830078</v>
+        <v>-1.988396167755127</v>
       </c>
       <c r="F181" t="n">
-        <v>10.24164390563965</v>
+        <v>-0.9244827032089233</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>-5.909923076629639</v>
+        <v>-0.4940676093101501</v>
       </c>
       <c r="B182" t="n">
-        <v>-2.919191837310791</v>
+        <v>-1.992902040481567</v>
       </c>
       <c r="C182" t="n">
-        <v>16.44342041015625</v>
+        <v>22.13760757446289</v>
       </c>
       <c r="D182" t="n">
-        <v>24.71342468261719</v>
+        <v>9.586607933044434</v>
       </c>
       <c r="E182" t="n">
-        <v>2.699268579483032</v>
+        <v>-3.579489231109619</v>
       </c>
       <c r="F182" t="n">
-        <v>6.458126068115234</v>
+        <v>-3.601106643676758</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>-4.801360607147217</v>
+        <v>0.9224629998207092</v>
       </c>
       <c r="B183" t="n">
-        <v>-1.945501804351807</v>
+        <v>-1.252991914749146</v>
       </c>
       <c r="C183" t="n">
-        <v>21.01211738586426</v>
+        <v>29.09015655517578</v>
       </c>
       <c r="D183" t="n">
-        <v>29.39908218383789</v>
+        <v>12.84498405456543</v>
       </c>
       <c r="E183" t="n">
-        <v>-2.105328559875488</v>
+        <v>-4.709074974060059</v>
       </c>
       <c r="F183" t="n">
-        <v>1.539533495903015</v>
+        <v>-7.977678298950195</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>-1.370087862014771</v>
+        <v>4.135555744171143</v>
       </c>
       <c r="B184" t="n">
-        <v>1.160117626190186</v>
+        <v>1.282304525375366</v>
       </c>
       <c r="C184" t="n">
-        <v>26.65425872802734</v>
+        <v>36.2213134765625</v>
       </c>
       <c r="D184" t="n">
-        <v>34.89901733398438</v>
+        <v>15.76739692687988</v>
       </c>
       <c r="E184" t="n">
-        <v>-7.349626064300537</v>
+        <v>-5.206559181213379</v>
       </c>
       <c r="F184" t="n">
-        <v>-3.756181240081787</v>
+        <v>-13.21026229858398</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>1.26028037071228</v>
+        <v>6.13645076751709</v>
       </c>
       <c r="B185" t="n">
-        <v>3.464562892913818</v>
+        <v>3.67267370223999</v>
       </c>
       <c r="C185" t="n">
-        <v>33.16247177124023</v>
+        <v>43.06969451904297</v>
       </c>
       <c r="D185" t="n">
-        <v>40.89424896240234</v>
+        <v>20.5266284942627</v>
       </c>
       <c r="E185" t="n">
-        <v>-12.08345699310303</v>
+        <v>-5.421093940734863</v>
       </c>
       <c r="F185" t="n">
-        <v>-8.329388618469238</v>
+        <v>-17.43244171142578</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>4.723513126373291</v>
+        <v>8.82298469543457</v>
       </c>
       <c r="B186" t="n">
-        <v>6.410548210144043</v>
+        <v>6.802417755126953</v>
       </c>
       <c r="C186" t="n">
-        <v>40.01536178588867</v>
+        <v>49.54926300048828</v>
       </c>
       <c r="D186" t="n">
-        <v>46.83988952636719</v>
+        <v>26.76620864868164</v>
       </c>
       <c r="E186" t="n">
-        <v>-15.27140998840332</v>
+        <v>-5.723567008972168</v>
       </c>
       <c r="F186" t="n">
-        <v>-11.27234935760498</v>
+        <v>-19.30491638183594</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>8.657150268554688</v>
+        <v>12.14947319030762</v>
       </c>
       <c r="B187" t="n">
-        <v>9.713069915771484</v>
+        <v>10.03928089141846</v>
       </c>
       <c r="C187" t="n">
-        <v>46.54578399658203</v>
+        <v>55.51313781738281</v>
       </c>
       <c r="D187" t="n">
-        <v>52.15595245361328</v>
+        <v>33.56512451171875</v>
       </c>
       <c r="E187" t="n">
-        <v>-16.31082916259766</v>
+        <v>-6.361711025238037</v>
       </c>
       <c r="F187" t="n">
-        <v>-11.27234935760498</v>
+        <v>-19.30491638183594</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>12.74854278564453</v>
+        <v>15.75506210327148</v>
       </c>
       <c r="B188" t="n">
-        <v>13.17278099060059</v>
+        <v>13.00555610656738</v>
       </c>
       <c r="C188" t="n">
-        <v>52.18689727783203</v>
+        <v>60.40575408935547</v>
       </c>
       <c r="D188" t="n">
-        <v>56.40205383300781</v>
+        <v>39.96893692016602</v>
       </c>
       <c r="E188" t="n">
-        <v>-15.25511360168457</v>
+        <v>-7.117360591888428</v>
       </c>
       <c r="F188" t="n">
-        <v>-11.49060440063477</v>
+        <v>-16.02328872680664</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>16.77900505065918</v>
+        <v>19.06488037109375</v>
       </c>
       <c r="B189" t="n">
-        <v>16.66646194458008</v>
+        <v>15.6757926940918</v>
       </c>
       <c r="C189" t="n">
-        <v>56.56663513183594</v>
+        <v>63.50680923461914</v>
       </c>
       <c r="D189" t="n">
-        <v>59.32938766479492</v>
+        <v>45.43361282348633</v>
       </c>
       <c r="E189" t="n">
-        <v>-12.65923881530762</v>
+        <v>-7.554378032684326</v>
       </c>
       <c r="F189" t="n">
-        <v>-8.863678932189941</v>
+        <v>-13.31646347045898</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>20.58695602416992</v>
+        <v>21.66336822509766</v>
       </c>
       <c r="B190" t="n">
-        <v>20.07189178466797</v>
+        <v>18.16712379455566</v>
       </c>
       <c r="C190" t="n">
-        <v>59.44029998779297</v>
+        <v>63.50680923461914</v>
       </c>
       <c r="D190" t="n">
-        <v>60.79039764404297</v>
+        <v>49.82346343994141</v>
       </c>
       <c r="E190" t="n">
-        <v>-9.287446975708008</v>
+        <v>-7.339375019073486</v>
       </c>
       <c r="F190" t="n">
-        <v>-5.651575565338135</v>
+        <v>-10.70554161071777</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>24.0330810546875</v>
+        <v>23.49370956420898</v>
       </c>
       <c r="B191" t="n">
-        <v>23.23263931274414</v>
+        <v>20.52486801147461</v>
       </c>
       <c r="C191" t="n">
-        <v>60.62457275390625</v>
+        <v>63.88712310791016</v>
       </c>
       <c r="D191" t="n">
-        <v>60.79039764404297</v>
+        <v>53.10848236083984</v>
       </c>
       <c r="E191" t="n">
-        <v>-5.812819480895996</v>
+        <v>-6.342833042144775</v>
       </c>
       <c r="F191" t="n">
-        <v>-2.369936227798462</v>
+        <v>-8.350593566894531</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>27.00236129760742</v>
+        <v>24.78000640869141</v>
       </c>
       <c r="B192" t="n">
-        <v>25.98190689086914</v>
+        <v>22.6600341796875</v>
       </c>
       <c r="C192" t="n">
-        <v>60.62457275390625</v>
+        <v>61.19475936889648</v>
       </c>
       <c r="D192" t="n">
-        <v>58.77417755126953</v>
+        <v>55.13119888305664</v>
       </c>
       <c r="E192" t="n">
-        <v>-2.690477609634399</v>
+        <v>-4.666378498077393</v>
       </c>
       <c r="F192" t="n">
-        <v>0.6087915897369385</v>
+        <v>-6.07820987701416</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>29.42385864257812</v>
+        <v>25.82705879211426</v>
       </c>
       <c r="B193" t="n">
-        <v>28.1781120300293</v>
+        <v>24.40358924865723</v>
       </c>
       <c r="C193" t="n">
-        <v>57.20308685302734</v>
+        <v>57.61101531982422</v>
       </c>
       <c r="D193" t="n">
-        <v>55.23638153076172</v>
+        <v>55.13119888305664</v>
       </c>
       <c r="E193" t="n">
-        <v>-0.1386197805404663</v>
+        <v>-2.66966724395752</v>
       </c>
       <c r="F193" t="n">
-        <v>3.013259410858154</v>
+        <v>-3.730552673339844</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>31.29020309448242</v>
+        <v>26.85727691650391</v>
       </c>
       <c r="B194" t="n">
-        <v>29.74645233154297</v>
+        <v>25.56338500976562</v>
       </c>
       <c r="C194" t="n">
-        <v>53.13227844238281</v>
+        <v>53.03266143798828</v>
       </c>
       <c r="D194" t="n">
-        <v>49.99571228027344</v>
+        <v>54.18142318725586</v>
       </c>
       <c r="E194" t="n">
-        <v>1.772151947021484</v>
+        <v>-0.8016719818115234</v>
       </c>
       <c r="F194" t="n">
-        <v>4.640560150146484</v>
+        <v>-1.327377796173096</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>32.64145278930664</v>
+        <v>27.91804885864258</v>
       </c>
       <c r="B195" t="n">
-        <v>29.74645233154297</v>
+        <v>25.56338500976562</v>
       </c>
       <c r="C195" t="n">
-        <v>47.500244140625</v>
+        <v>46.78500366210938</v>
       </c>
       <c r="D195" t="n">
-        <v>43.31387329101562</v>
+        <v>49.70321655273438</v>
       </c>
       <c r="E195" t="n">
-        <v>2.985565423965454</v>
+        <v>0.6239356994628906</v>
       </c>
       <c r="F195" t="n">
-        <v>4.640560150146484</v>
+        <v>0.8324034214019775</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>32.64145278930664</v>
+        <v>27.91804885864258</v>
       </c>
       <c r="B196" t="n">
-        <v>31.61848068237305</v>
+        <v>26.34233283996582</v>
       </c>
       <c r="C196" t="n">
-        <v>40.76751708984375</v>
+        <v>38.12555694580078</v>
       </c>
       <c r="D196" t="n">
-        <v>35.70077514648438</v>
+        <v>41.98008346557617</v>
       </c>
       <c r="E196" t="n">
-        <v>2.985565423965454</v>
+        <v>1.57647705078125</v>
       </c>
       <c r="F196" t="n">
-        <v>6.081952571868896</v>
+        <v>2.084200859069824</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>34.39375686645508</v>
+        <v>29.66293716430664</v>
       </c>
       <c r="B197" t="n">
-        <v>31.42362785339355</v>
+        <v>25.31420135498047</v>
       </c>
       <c r="C197" t="n">
-        <v>33.42529296875</v>
+        <v>27.85701751708984</v>
       </c>
       <c r="D197" t="n">
-        <v>27.87252616882324</v>
+        <v>32.14955139160156</v>
       </c>
       <c r="E197" t="n">
-        <v>3.840893268585205</v>
+        <v>2.496590614318848</v>
       </c>
       <c r="F197" t="n">
-        <v>5.107431888580322</v>
+        <v>2.084200859069824</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>34.38294219970703</v>
+        <v>29.49554061889648</v>
       </c>
       <c r="B198" t="n">
-        <v>31.08233261108398</v>
+        <v>25.13652992248535</v>
       </c>
       <c r="C198" t="n">
-        <v>25.92292022705078</v>
+        <v>18.41147041320801</v>
       </c>
       <c r="D198" t="n">
-        <v>20.47278213500977</v>
+        <v>22.92776107788086</v>
       </c>
       <c r="E198" t="n">
-        <v>2.841286182403564</v>
+        <v>3.823692321777344</v>
       </c>
       <c r="F198" t="n">
-        <v>3.94590163230896</v>
+        <v>0.7150861024856567</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>34.01730346679688</v>
+        <v>29.2205982208252</v>
       </c>
       <c r="B199" t="n">
-        <v>30.72384452819824</v>
+        <v>26.56662368774414</v>
       </c>
       <c r="C199" t="n">
-        <v>18.62769508361816</v>
+        <v>11.5919017791748</v>
       </c>
       <c r="D199" t="n">
-        <v>14.01048851013184</v>
+        <v>16.04021835327148</v>
       </c>
       <c r="E199" t="n">
-        <v>1.805812358856201</v>
+        <v>4.43558406829834</v>
       </c>
       <c r="F199" t="n">
-        <v>3.053788900375366</v>
+        <v>-0.5741932392120361</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>33.43080139160156</v>
+        <v>29.88187599182129</v>
       </c>
       <c r="B200" t="n">
-        <v>30.57684516906738</v>
+        <v>28.43019676208496</v>
       </c>
       <c r="C200" t="n">
-        <v>11.96459579467773</v>
+        <v>7.829389095306396</v>
       </c>
       <c r="D200" t="n">
-        <v>8.843487739562988</v>
+        <v>11.6826057434082</v>
       </c>
       <c r="E200" t="n">
-        <v>1.220931529998779</v>
+        <v>1.489431619644165</v>
       </c>
       <c r="F200" t="n">
-        <v>2.702355146408081</v>
+        <v>-0.5741932392120361</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>32.84605407714844</v>
+        <v>31.27848052978516</v>
       </c>
       <c r="B201" t="n">
-        <v>30.68017387390137</v>
+        <v>29.82965660095215</v>
       </c>
       <c r="C201" t="n">
-        <v>6.485777378082275</v>
+        <v>6.624008178710938</v>
       </c>
       <c r="D201" t="n">
-        <v>5.237241744995117</v>
+        <v>9.286718368530273</v>
       </c>
       <c r="E201" t="n">
-        <v>0.9364303946495056</v>
+        <v>-0.3474298715591431</v>
       </c>
       <c r="F201" t="n">
-        <v>2.639433622360229</v>
+        <v>-2.359774589538574</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>32.43146133422852</v>
+        <v>32.48244857788086</v>
       </c>
       <c r="B202" t="n">
-        <v>30.88381958007812</v>
+        <v>30.69919013977051</v>
       </c>
       <c r="C202" t="n">
-        <v>2.714606761932373</v>
+        <v>6.624008178710938</v>
       </c>
       <c r="D202" t="n">
-        <v>3.349802494049072</v>
+        <v>8.128528594970703</v>
       </c>
       <c r="E202" t="n">
-        <v>0.5296787619590759</v>
+        <v>-1.848885059356689</v>
       </c>
       <c r="F202" t="n">
-        <v>2.479103803634644</v>
+        <v>-2.232460260391235</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>32.22950744628906</v>
+        <v>32.95843887329102</v>
       </c>
       <c r="B203" t="n">
-        <v>30.9810733795166</v>
+        <v>31.17373275756836</v>
       </c>
       <c r="C203" t="n">
-        <v>0.8512355089187622</v>
+        <v>7.345824241638184</v>
       </c>
       <c r="D203" t="n">
-        <v>3.349802494049072</v>
+        <v>8.128528594970703</v>
       </c>
       <c r="E203" t="n">
-        <v>-0.462431013584137</v>
+        <v>-3.037696599960327</v>
       </c>
       <c r="F203" t="n">
-        <v>1.688058614730835</v>
+        <v>-2.286291599273682</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>32.24493789672852</v>
+        <v>31.37902641296387</v>
       </c>
       <c r="B204" t="n">
-        <v>32.11719131469727</v>
+        <v>29.06661605834961</v>
       </c>
       <c r="C204" t="n">
-        <v>4.25474214553833</v>
+        <v>11.93314743041992</v>
       </c>
       <c r="D204" t="n">
-        <v>7.126841068267822</v>
+        <v>11.49846839904785</v>
       </c>
       <c r="E204" t="n">
-        <v>-2.294995784759521</v>
+        <v>-4.069603443145752</v>
       </c>
       <c r="F204" t="n">
-        <v>0.07150527834892273</v>
+        <v>-4.045472145080566</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>32.8869743347168</v>
+        <v>31.37902641296387</v>
       </c>
       <c r="B205" t="n">
-        <v>32.11719131469727</v>
+        <v>29.06661605834961</v>
       </c>
       <c r="C205" t="n">
-        <v>4.25474214553833</v>
+        <v>11.93314743041992</v>
       </c>
       <c r="D205" t="n">
-        <v>7.126841068267822</v>
+        <v>11.49846839904785</v>
       </c>
       <c r="E205" t="n">
-        <v>-2.938205718994141</v>
+        <v>-4.069603443145752</v>
       </c>
       <c r="F205" t="n">
-        <v>-0.5918964147567749</v>
+        <v>-4.045472145080566</v>
       </c>
     </row>
   </sheetData>

--- a/Predictions/timestamps_cp_lstm.xlsx
+++ b/Predictions/timestamps_cp_lstm.xlsx
@@ -467,4082 +467,4082 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>29.96891021728516</v>
+        <v>37.13004684448242</v>
       </c>
       <c r="B2" t="n">
-        <v>24.46981239318848</v>
+        <v>2.909033536911011</v>
       </c>
       <c r="C2" t="n">
-        <v>13.49127101898193</v>
+        <v>13.57228183746338</v>
       </c>
       <c r="D2" t="n">
-        <v>15.75383186340332</v>
+        <v>21.72051048278809</v>
       </c>
       <c r="E2" t="n">
-        <v>-6.50937557220459</v>
+        <v>-12.69516563415527</v>
       </c>
       <c r="F2" t="n">
-        <v>-4.548216342926025</v>
+        <v>-1.144478917121887</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>28.13871002197266</v>
+        <v>35.87164306640625</v>
       </c>
       <c r="B3" t="n">
-        <v>24.46981239318848</v>
+        <v>-0.8114539980888367</v>
       </c>
       <c r="C3" t="n">
-        <v>11.57739734649658</v>
+        <v>10.69803142547607</v>
       </c>
       <c r="D3" t="n">
-        <v>14.79709911346436</v>
+        <v>20.99927711486816</v>
       </c>
       <c r="E3" t="n">
-        <v>-5.382920742034912</v>
+        <v>-10.70569705963135</v>
       </c>
       <c r="F3" t="n">
-        <v>-5.803711891174316</v>
+        <v>-7.240194320678711</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>27.3359546661377</v>
+        <v>32.17691421508789</v>
       </c>
       <c r="B4" t="n">
-        <v>26.97010040283203</v>
+        <v>-0.1627189517021179</v>
       </c>
       <c r="C4" t="n">
-        <v>10.30636119842529</v>
+        <v>10.14163875579834</v>
       </c>
       <c r="D4" t="n">
-        <v>14.79709911346436</v>
+        <v>23.46048736572266</v>
       </c>
       <c r="E4" t="n">
-        <v>-4.27722692489624</v>
+        <v>-7.15731954574585</v>
       </c>
       <c r="F4" t="n">
-        <v>-6.942634582519531</v>
+        <v>-16.23305892944336</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>26.35252571105957</v>
+        <v>28.4388484954834</v>
       </c>
       <c r="B5" t="n">
-        <v>28.24241828918457</v>
+        <v>2.202091932296753</v>
       </c>
       <c r="C5" t="n">
-        <v>10.30636119842529</v>
+        <v>10.47447395324707</v>
       </c>
       <c r="D5" t="n">
-        <v>12.9518346786499</v>
+        <v>28.26770210266113</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.978384494781494</v>
+        <v>-3.823403835296631</v>
       </c>
       <c r="F5" t="n">
-        <v>-5.339160919189453</v>
+        <v>-23.81755447387695</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>25.12414360046387</v>
+        <v>25.13043022155762</v>
       </c>
       <c r="B6" t="n">
-        <v>28.24241828918457</v>
+        <v>5.562886238098145</v>
       </c>
       <c r="C6" t="n">
-        <v>8.949084281921387</v>
+        <v>11.06616020202637</v>
       </c>
       <c r="D6" t="n">
-        <v>13.4752779006958</v>
+        <v>34.61002349853516</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.437622547149658</v>
+        <v>-1.180422306060791</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.226704597473145</v>
+        <v>-27.94578742980957</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>22.11521530151367</v>
+        <v>22.32200241088867</v>
       </c>
       <c r="B7" t="n">
-        <v>27.65866661071777</v>
+        <v>9.424306869506836</v>
       </c>
       <c r="C7" t="n">
-        <v>8.584454536437988</v>
+        <v>11.31433200836182</v>
       </c>
       <c r="D7" t="n">
-        <v>14.24782752990723</v>
+        <v>41.42934799194336</v>
       </c>
       <c r="E7" t="n">
-        <v>0.102936752140522</v>
+        <v>0.6810092926025391</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.7342415452003479</v>
+        <v>-27.84376907348633</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>19.97513580322266</v>
+        <v>19.91136360168457</v>
       </c>
       <c r="B8" t="n">
-        <v>25.50239181518555</v>
+        <v>13.35298633575439</v>
       </c>
       <c r="C8" t="n">
-        <v>7.721272468566895</v>
+        <v>10.81897640228271</v>
       </c>
       <c r="D8" t="n">
-        <v>14.6543025970459</v>
+        <v>47.53557586669922</v>
       </c>
       <c r="E8" t="n">
-        <v>1.347878456115723</v>
+        <v>1.866111755371094</v>
       </c>
       <c r="F8" t="n">
-        <v>1.4452805519104</v>
+        <v>-24.42600440979004</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>17.2407112121582</v>
+        <v>17.63888931274414</v>
       </c>
       <c r="B9" t="n">
-        <v>22.69627571105957</v>
+        <v>17.1419734954834</v>
       </c>
       <c r="C9" t="n">
-        <v>6.449618339538574</v>
+        <v>9.505572319030762</v>
       </c>
       <c r="D9" t="n">
-        <v>14.31895351409912</v>
+        <v>52.04158020019531</v>
       </c>
       <c r="E9" t="n">
-        <v>2.170121192932129</v>
+        <v>2.524015426635742</v>
       </c>
       <c r="F9" t="n">
-        <v>2.919824361801147</v>
+        <v>-19.67836570739746</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>14.20668983459473</v>
+        <v>15.21775436401367</v>
       </c>
       <c r="B10" t="n">
-        <v>19.68087959289551</v>
+        <v>20.82416725158691</v>
       </c>
       <c r="C10" t="n">
-        <v>3.770448684692383</v>
+        <v>7.517537117004395</v>
       </c>
       <c r="D10" t="n">
-        <v>13.11747741699219</v>
+        <v>54.6845817565918</v>
       </c>
       <c r="E10" t="n">
-        <v>2.598130226135254</v>
+        <v>2.715146064758301</v>
       </c>
       <c r="F10" t="n">
-        <v>2.919824361801147</v>
+        <v>-15.31282711029053</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>11.1486873626709</v>
+        <v>12.53700351715088</v>
       </c>
       <c r="B11" t="n">
-        <v>16.83489990234375</v>
+        <v>24.48288917541504</v>
       </c>
       <c r="C11" t="n">
-        <v>2.1549973487854</v>
+        <v>5.121146202087402</v>
       </c>
       <c r="D11" t="n">
-        <v>10.17778778076172</v>
+        <v>55.63677215576172</v>
       </c>
       <c r="E11" t="n">
-        <v>2.770937919616699</v>
+        <v>2.517046928405762</v>
       </c>
       <c r="F11" t="n">
-        <v>4.441767692565918</v>
+        <v>-11.96732139587402</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>8.30275821685791</v>
+        <v>9.710081100463867</v>
       </c>
       <c r="B12" t="n">
-        <v>14.35974788665771</v>
+        <v>28.0809383392334</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3709704279899597</v>
+        <v>2.684160947799683</v>
       </c>
       <c r="D12" t="n">
-        <v>8.710700988769531</v>
+        <v>55.12709808349609</v>
       </c>
       <c r="E12" t="n">
-        <v>2.938711166381836</v>
+        <v>2.195954322814941</v>
       </c>
       <c r="F12" t="n">
-        <v>4.249065399169922</v>
+        <v>-9.40688419342041</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5.799022674560547</v>
+        <v>6.992220401763916</v>
       </c>
       <c r="B13" t="n">
-        <v>12.21101379394531</v>
+        <v>31.35818862915039</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.272028207778931</v>
+        <v>0.5812099575996399</v>
       </c>
       <c r="D13" t="n">
-        <v>7.198962688446045</v>
+        <v>53.23544692993164</v>
       </c>
       <c r="E13" t="n">
-        <v>3.25119686126709</v>
+        <v>2.143738746643066</v>
       </c>
       <c r="F13" t="n">
-        <v>4.174678802490234</v>
+        <v>-7.226525783538818</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3.62965989112854</v>
+        <v>4.528757572174072</v>
       </c>
       <c r="B14" t="n">
-        <v>10.18112182617188</v>
+        <v>33.99441146850586</v>
       </c>
       <c r="C14" t="n">
-        <v>-2.764419078826904</v>
+        <v>-1.101252675056458</v>
       </c>
       <c r="D14" t="n">
-        <v>5.712800979614258</v>
+        <v>49.97551345825195</v>
       </c>
       <c r="E14" t="n">
-        <v>3.577866554260254</v>
+        <v>2.410355567932129</v>
       </c>
       <c r="F14" t="n">
-        <v>4.302375793457031</v>
+        <v>-5.197773933410645</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.655615210533142</v>
+        <v>2.260694980621338</v>
       </c>
       <c r="B15" t="n">
-        <v>8.067159652709961</v>
+        <v>35.84914016723633</v>
       </c>
       <c r="C15" t="n">
-        <v>-4.215511322021484</v>
+        <v>-2.541877031326294</v>
       </c>
       <c r="D15" t="n">
-        <v>4.12892484664917</v>
+        <v>45.40941619873047</v>
       </c>
       <c r="E15" t="n">
-        <v>3.573291778564453</v>
+        <v>2.727742195129395</v>
       </c>
       <c r="F15" t="n">
-        <v>4.453740119934082</v>
+        <v>-3.381274700164795</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.2277055382728577</v>
+        <v>0.05003601312637329</v>
       </c>
       <c r="B16" t="n">
-        <v>5.832608699798584</v>
+        <v>36.98625564575195</v>
       </c>
       <c r="C16" t="n">
-        <v>-5.657191753387451</v>
+        <v>-3.941569566726685</v>
       </c>
       <c r="D16" t="n">
-        <v>2.430446863174438</v>
+        <v>39.73096084594727</v>
       </c>
       <c r="E16" t="n">
-        <v>3.299590110778809</v>
+        <v>2.873828887939453</v>
       </c>
       <c r="F16" t="n">
-        <v>4.460762023925781</v>
+        <v>-2.005412101745605</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-2.006708145141602</v>
+        <v>-2.165719509124756</v>
       </c>
       <c r="B17" t="n">
-        <v>3.563314437866211</v>
+        <v>37.56488800048828</v>
       </c>
       <c r="C17" t="n">
-        <v>-6.96054744720459</v>
+        <v>-5.257769584655762</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7822157740592957</v>
+        <v>33.20536422729492</v>
       </c>
       <c r="E17" t="n">
-        <v>3.016837120056152</v>
+        <v>3.051945686340332</v>
       </c>
       <c r="F17" t="n">
-        <v>4.141493797302246</v>
+        <v>-1.270678162574768</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-3.613519430160522</v>
+        <v>-4.313579082489014</v>
       </c>
       <c r="B18" t="n">
-        <v>1.365068793296814</v>
+        <v>37.63639068603516</v>
       </c>
       <c r="C18" t="n">
-        <v>-6.96054744720459</v>
+        <v>-6.355450630187988</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.5983420610427856</v>
+        <v>26.26720237731934</v>
       </c>
       <c r="E18" t="n">
-        <v>2.923625946044922</v>
+        <v>3.353939056396484</v>
       </c>
       <c r="F18" t="n">
-        <v>3.55866813659668</v>
+        <v>-1.130262494087219</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-5.012336254119873</v>
+        <v>-6.270802974700928</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.694579541683197</v>
+        <v>37.33547973632812</v>
       </c>
       <c r="C19" t="n">
-        <v>-8.83621883392334</v>
+        <v>-6.979647636413574</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.5983420610427856</v>
+        <v>19.37547492980957</v>
       </c>
       <c r="E19" t="n">
-        <v>3.036533355712891</v>
+        <v>3.809245109558105</v>
       </c>
       <c r="F19" t="n">
-        <v>2.911378860473633</v>
+        <v>-1.417779564857483</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-6.226624965667725</v>
+        <v>-7.942586421966553</v>
       </c>
       <c r="B20" t="n">
-        <v>-2.562227487564087</v>
+        <v>36.86416625976562</v>
       </c>
       <c r="C20" t="n">
-        <v>-8.664607048034668</v>
+        <v>-6.980700492858887</v>
       </c>
       <c r="D20" t="n">
-        <v>-2.575657606124878</v>
+        <v>12.97991275787354</v>
       </c>
       <c r="E20" t="n">
-        <v>3.244711875915527</v>
+        <v>4.297811508178711</v>
       </c>
       <c r="F20" t="n">
-        <v>2.367609977722168</v>
+        <v>-1.952740788459778</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-7.301995277404785</v>
+        <v>-9.304974555969238</v>
       </c>
       <c r="B21" t="n">
-        <v>-4.201381206512451</v>
+        <v>36.45507431030273</v>
       </c>
       <c r="C21" t="n">
-        <v>-7.817194938659668</v>
+        <v>-6.356991767883301</v>
       </c>
       <c r="D21" t="n">
-        <v>-2.711817502975464</v>
+        <v>7.558785438537598</v>
       </c>
       <c r="E21" t="n">
-        <v>3.431012153625488</v>
+        <v>4.677224159240723</v>
       </c>
       <c r="F21" t="n">
-        <v>1.979681849479675</v>
+        <v>-2.607640743255615</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-7.301995277404785</v>
+        <v>-10.39749240875244</v>
       </c>
       <c r="B22" t="n">
-        <v>-5.578903198242188</v>
+        <v>36.31159210205078</v>
       </c>
       <c r="C22" t="n">
-        <v>-6.450234413146973</v>
+        <v>-5.19530200958252</v>
       </c>
       <c r="D22" t="n">
-        <v>-2.425698041915894</v>
+        <v>3.590520143508911</v>
       </c>
       <c r="E22" t="n">
-        <v>3.601509094238281</v>
+        <v>4.884613037109375</v>
       </c>
       <c r="F22" t="n">
-        <v>1.774094939231873</v>
+        <v>-3.321243762969971</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-9.261460304260254</v>
+        <v>-11.28660678863525</v>
       </c>
       <c r="B23" t="n">
-        <v>-6.702632427215576</v>
+        <v>36.49743270874023</v>
       </c>
       <c r="C23" t="n">
-        <v>-3.603439331054688</v>
+        <v>-3.610862016677856</v>
       </c>
       <c r="D23" t="n">
-        <v>-1.734080195426941</v>
+        <v>1.396479725837708</v>
       </c>
       <c r="E23" t="n">
-        <v>3.750311851501465</v>
+        <v>4.933567047119141</v>
       </c>
       <c r="F23" t="n">
-        <v>1.756071925163269</v>
+        <v>-4.110896110534668</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-10.09585285186768</v>
+        <v>-12.03194522857666</v>
       </c>
       <c r="B24" t="n">
-        <v>-6.702632427215576</v>
+        <v>36.90473937988281</v>
       </c>
       <c r="C24" t="n">
-        <v>-1.806013703346252</v>
+        <v>-1.690472722053528</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.6645363569259644</v>
+        <v>1.042672276496887</v>
       </c>
       <c r="E24" t="n">
-        <v>3.775700569152832</v>
+        <v>4.793828010559082</v>
       </c>
       <c r="F24" t="n">
-        <v>1.880037665367126</v>
+        <v>-5.026744842529297</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-10.84712696075439</v>
+        <v>-12.68426609039307</v>
       </c>
       <c r="B25" t="n">
-        <v>-8.534804344177246</v>
+        <v>37.338623046875</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6251488327980042</v>
+        <v>0.5256603360176086</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7606974840164185</v>
+        <v>2.366793870925903</v>
       </c>
       <c r="E25" t="n">
-        <v>3.497539520263672</v>
+        <v>4.241676330566406</v>
       </c>
       <c r="F25" t="n">
-        <v>2.016217231750488</v>
+        <v>-6.010787487030029</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-11.42639255523682</v>
+        <v>-13.20469379425049</v>
       </c>
       <c r="B26" t="n">
-        <v>-9.127589225769043</v>
+        <v>37.53234481811523</v>
       </c>
       <c r="C26" t="n">
-        <v>3.751816272735596</v>
+        <v>3.122151136398315</v>
       </c>
       <c r="D26" t="n">
-        <v>3.679421424865723</v>
+        <v>4.949131965637207</v>
       </c>
       <c r="E26" t="n">
-        <v>2.663588523864746</v>
+        <v>2.980616569519043</v>
       </c>
       <c r="F26" t="n">
-        <v>1.940480589866638</v>
+        <v>-6.807857513427734</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-11.68471240997314</v>
+        <v>-13.26631641387939</v>
       </c>
       <c r="B27" t="n">
-        <v>-9.60428524017334</v>
+        <v>34.16129684448242</v>
       </c>
       <c r="C27" t="n">
-        <v>7.718606948852539</v>
+        <v>5.476000785827637</v>
       </c>
       <c r="D27" t="n">
-        <v>5.559324264526367</v>
+        <v>5.864764213562012</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.1214489936828613</v>
+        <v>0.3886561393737793</v>
       </c>
       <c r="F27" t="n">
-        <v>1.304742693901062</v>
+        <v>-7.962020397186279</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-11.44398212432861</v>
+        <v>-13.10954761505127</v>
       </c>
       <c r="B28" t="n">
-        <v>-9.875781059265137</v>
+        <v>31.92858123779297</v>
       </c>
       <c r="C28" t="n">
-        <v>12.6431713104248</v>
+        <v>9.864597320556641</v>
       </c>
       <c r="D28" t="n">
-        <v>8.075015068054199</v>
+        <v>8.571530342102051</v>
       </c>
       <c r="E28" t="n">
-        <v>-2.110072612762451</v>
+        <v>-2.780135154724121</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.257200717926025</v>
+        <v>-9.199539184570312</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-10.54584217071533</v>
+        <v>-12.42700672149658</v>
       </c>
       <c r="B29" t="n">
-        <v>-9.752264976501465</v>
+        <v>30.65778732299805</v>
       </c>
       <c r="C29" t="n">
-        <v>18.50729560852051</v>
+        <v>15.59113216400146</v>
       </c>
       <c r="D29" t="n">
-        <v>11.24915218353271</v>
+        <v>12.16059875488281</v>
       </c>
       <c r="E29" t="n">
-        <v>-4.426290035247803</v>
+        <v>-6.590682029724121</v>
       </c>
       <c r="F29" t="n">
-        <v>-6.17597484588623</v>
+        <v>-8.852368354797363</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-7.510860443115234</v>
+        <v>-10.79471683502197</v>
       </c>
       <c r="B30" t="n">
-        <v>-9.007731437683105</v>
+        <v>29.53134918212891</v>
       </c>
       <c r="C30" t="n">
-        <v>25.12320709228516</v>
+        <v>22.04071617126465</v>
       </c>
       <c r="D30" t="n">
-        <v>15.27725791931152</v>
+        <v>15.47744083404541</v>
       </c>
       <c r="E30" t="n">
-        <v>-6.683369636535645</v>
+        <v>-10.24198532104492</v>
       </c>
       <c r="F30" t="n">
-        <v>-12.0238094329834</v>
+        <v>-6.698020935058594</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-5.122106552124023</v>
+        <v>-8.180317878723145</v>
       </c>
       <c r="B31" t="n">
-        <v>-5.944388389587402</v>
+        <v>28.0684642791748</v>
       </c>
       <c r="C31" t="n">
-        <v>32.25350189208984</v>
+        <v>28.93907737731934</v>
       </c>
       <c r="D31" t="n">
-        <v>20.45157051086426</v>
+        <v>17.66681480407715</v>
       </c>
       <c r="E31" t="n">
-        <v>-8.718819618225098</v>
+        <v>-13.20938301086426</v>
       </c>
       <c r="F31" t="n">
-        <v>-18.30978393554688</v>
+        <v>-3.635313272476196</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-1.881449460983276</v>
+        <v>-4.705922603607178</v>
       </c>
       <c r="B32" t="n">
-        <v>-3.233471870422363</v>
+        <v>26.17623519897461</v>
       </c>
       <c r="C32" t="n">
-        <v>39.65170669555664</v>
+        <v>36.28881454467773</v>
       </c>
       <c r="D32" t="n">
-        <v>26.8826904296875</v>
+        <v>18.42987632751465</v>
       </c>
       <c r="E32" t="n">
-        <v>-10.48493194580078</v>
+        <v>-15.50880432128906</v>
       </c>
       <c r="F32" t="n">
-        <v>-22.8691349029541</v>
+        <v>-0.7453113198280334</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2.066547393798828</v>
+        <v>-0.4789156317710876</v>
       </c>
       <c r="B33" t="n">
-        <v>0.36980140209198</v>
+        <v>23.93562698364258</v>
       </c>
       <c r="C33" t="n">
-        <v>46.86121368408203</v>
+        <v>44.017578125</v>
       </c>
       <c r="D33" t="n">
-        <v>34.18709564208984</v>
+        <v>17.94175720214844</v>
       </c>
       <c r="E33" t="n">
-        <v>-11.9200439453125</v>
+        <v>-17.14809608459473</v>
       </c>
       <c r="F33" t="n">
-        <v>-24.62974548339844</v>
+        <v>1.388734698295593</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>6.442668914794922</v>
+        <v>4.309914112091064</v>
       </c>
       <c r="B34" t="n">
-        <v>4.408923625946045</v>
+        <v>21.43483734130859</v>
       </c>
       <c r="C34" t="n">
-        <v>53.19766235351562</v>
+        <v>51.54368591308594</v>
       </c>
       <c r="D34" t="n">
-        <v>41.56214904785156</v>
+        <v>16.55220794677734</v>
       </c>
       <c r="E34" t="n">
-        <v>-11.9200439453125</v>
+        <v>-17.89285278320312</v>
       </c>
       <c r="F34" t="n">
-        <v>-24.62974548339844</v>
+        <v>2.737981796264648</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>10.84746837615967</v>
+        <v>9.309026718139648</v>
       </c>
       <c r="B35" t="n">
-        <v>8.577325820922852</v>
+        <v>18.74826240539551</v>
       </c>
       <c r="C35" t="n">
-        <v>57.97917938232422</v>
+        <v>57.83320236206055</v>
       </c>
       <c r="D35" t="n">
-        <v>48.19155502319336</v>
+        <v>14.56227016448975</v>
       </c>
       <c r="E35" t="n">
-        <v>-13.75139045715332</v>
+        <v>-17.59669303894043</v>
       </c>
       <c r="F35" t="n">
-        <v>-21.16018676757812</v>
+        <v>3.516542434692383</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>14.94927406311035</v>
+        <v>14.07997512817383</v>
       </c>
       <c r="B36" t="n">
-        <v>12.69236469268799</v>
+        <v>16.01916313171387</v>
       </c>
       <c r="C36" t="n">
-        <v>60.89289855957031</v>
+        <v>61.89970016479492</v>
       </c>
       <c r="D36" t="n">
-        <v>53.48200225830078</v>
+        <v>12.20988941192627</v>
       </c>
       <c r="E36" t="n">
-        <v>-13.41290473937988</v>
+        <v>-16.41669654846191</v>
       </c>
       <c r="F36" t="n">
-        <v>-18.36725425720215</v>
+        <v>3.918822288513184</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>18.60684585571289</v>
+        <v>18.29311943054199</v>
       </c>
       <c r="B37" t="n">
-        <v>16.61112403869629</v>
+        <v>13.50607585906982</v>
       </c>
       <c r="C37" t="n">
-        <v>62.01609039306641</v>
+        <v>63.3332633972168</v>
       </c>
       <c r="D37" t="n">
-        <v>57.11627960205078</v>
+        <v>9.79062557220459</v>
       </c>
       <c r="E37" t="n">
-        <v>-11.24274063110352</v>
+        <v>-14.54204368591309</v>
       </c>
       <c r="F37" t="n">
-        <v>-15.24462509155273</v>
+        <v>4.085320472717285</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>21.82148742675781</v>
+        <v>21.86174964904785</v>
       </c>
       <c r="B38" t="n">
-        <v>20.20121383666992</v>
+        <v>11.41435241699219</v>
       </c>
       <c r="C38" t="n">
-        <v>62.01609039306641</v>
+        <v>62.38473510742188</v>
       </c>
       <c r="D38" t="n">
-        <v>58.98409271240234</v>
+        <v>7.633219718933105</v>
       </c>
       <c r="E38" t="n">
-        <v>-9.332725524902344</v>
+        <v>-12.03197002410889</v>
       </c>
       <c r="F38" t="n">
-        <v>-11.99103546142578</v>
+        <v>4.173048973083496</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>24.6346607208252</v>
+        <v>24.89852142333984</v>
       </c>
       <c r="B39" t="n">
-        <v>23.34504318237305</v>
+        <v>9.671283721923828</v>
       </c>
       <c r="C39" t="n">
-        <v>59.35527420043945</v>
+        <v>59.59369277954102</v>
       </c>
       <c r="D39" t="n">
-        <v>58.98409271240234</v>
+        <v>5.868470191955566</v>
       </c>
       <c r="E39" t="n">
-        <v>-6.856422424316406</v>
+        <v>-9.013116836547852</v>
       </c>
       <c r="F39" t="n">
-        <v>-8.740554809570312</v>
+        <v>4.27336597442627</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>27.05625915527344</v>
+        <v>27.53517723083496</v>
       </c>
       <c r="B40" t="n">
-        <v>25.94755172729492</v>
+        <v>7.96623706817627</v>
       </c>
       <c r="C40" t="n">
-        <v>55.91036224365234</v>
+        <v>55.35478210449219</v>
       </c>
       <c r="D40" t="n">
-        <v>57.33023071289062</v>
+        <v>4.329836845397949</v>
       </c>
       <c r="E40" t="n">
-        <v>-4.228760719299316</v>
+        <v>-5.848568916320801</v>
       </c>
       <c r="F40" t="n">
-        <v>-5.685586929321289</v>
+        <v>4.310988426208496</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>29.0423469543457</v>
+        <v>29.7669563293457</v>
       </c>
       <c r="B41" t="n">
-        <v>27.93780517578125</v>
+        <v>6.018799781799316</v>
       </c>
       <c r="C41" t="n">
-        <v>50.61656188964844</v>
+        <v>49.78329086303711</v>
       </c>
       <c r="D41" t="n">
-        <v>53.54237365722656</v>
+        <v>2.740403413772583</v>
       </c>
       <c r="E41" t="n">
-        <v>-1.812413930892944</v>
+        <v>-2.978637218475342</v>
       </c>
       <c r="F41" t="n">
-        <v>-3.049898147583008</v>
+        <v>4.11351490020752</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>30.51678466796875</v>
+        <v>31.44526100158691</v>
       </c>
       <c r="B42" t="n">
-        <v>29.28793907165527</v>
+        <v>3.781224012374878</v>
       </c>
       <c r="C42" t="n">
-        <v>43.46713256835938</v>
+        <v>42.88908004760742</v>
       </c>
       <c r="D42" t="n">
-        <v>47.67151641845703</v>
+        <v>0.9831172227859497</v>
       </c>
       <c r="E42" t="n">
-        <v>0.1295081377029419</v>
+        <v>-0.7183117866516113</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.061436653137207</v>
+        <v>3.593622207641602</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>30.51678466796875</v>
+        <v>32.41421127319336</v>
       </c>
       <c r="B43" t="n">
-        <v>29.28793907165527</v>
+        <v>1.41668963432312</v>
       </c>
       <c r="C43" t="n">
-        <v>34.97381973266602</v>
+        <v>34.87277603149414</v>
       </c>
       <c r="D43" t="n">
-        <v>40.09654998779297</v>
+        <v>-0.803547739982605</v>
       </c>
       <c r="E43" t="n">
-        <v>1.442224502563477</v>
+        <v>0.7675409317016602</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1093875765800476</v>
+        <v>2.848569869995117</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>32.34519195556641</v>
+        <v>32.65293121337891</v>
       </c>
       <c r="B44" t="n">
-        <v>30.88817596435547</v>
+        <v>-0.8592864871025085</v>
       </c>
       <c r="C44" t="n">
-        <v>26.2294807434082</v>
+        <v>26.34372901916504</v>
       </c>
       <c r="D44" t="n">
-        <v>31.84376525878906</v>
+        <v>-2.343268156051636</v>
       </c>
       <c r="E44" t="n">
-        <v>1.442224502563477</v>
+        <v>1.460475921630859</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1093875765800476</v>
+        <v>2.073948860168457</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>32.29974746704102</v>
+        <v>32.36667633056641</v>
       </c>
       <c r="B45" t="n">
-        <v>30.98534965515137</v>
+        <v>-2.914296388626099</v>
       </c>
       <c r="C45" t="n">
-        <v>18.36014366149902</v>
+        <v>18.2479362487793</v>
       </c>
       <c r="D45" t="n">
-        <v>24.09542846679688</v>
+        <v>-3.392245054244995</v>
       </c>
       <c r="E45" t="n">
-        <v>2.734204292297363</v>
+        <v>1.501105308532715</v>
       </c>
       <c r="F45" t="n">
-        <v>0.842610776424408</v>
+        <v>1.416351199150085</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>32.2196159362793</v>
+        <v>31.92075729370117</v>
       </c>
       <c r="B46" t="n">
-        <v>31.07551574707031</v>
+        <v>-4.75969409942627</v>
       </c>
       <c r="C46" t="n">
-        <v>12.09096527099609</v>
+        <v>11.45369529724121</v>
       </c>
       <c r="D46" t="n">
-        <v>17.63297271728516</v>
+        <v>-3.842900037765503</v>
       </c>
       <c r="E46" t="n">
-        <v>2.141554832458496</v>
+        <v>1.11495304107666</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1293782591819763</v>
+        <v>0.941955029964447</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>32.28364181518555</v>
+        <v>31.60012245178223</v>
       </c>
       <c r="B47" t="n">
-        <v>31.17549896240234</v>
+        <v>-6.387728691101074</v>
       </c>
       <c r="C47" t="n">
-        <v>7.748569011688232</v>
+        <v>6.54381275177002</v>
       </c>
       <c r="D47" t="n">
-        <v>12.78236770629883</v>
+        <v>-3.67322039604187</v>
       </c>
       <c r="E47" t="n">
-        <v>1.21561336517334</v>
+        <v>0.519740104675293</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.4735026955604553</v>
+        <v>0.6907176375389099</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>32.36653137207031</v>
+        <v>31.47055816650391</v>
       </c>
       <c r="B48" t="n">
-        <v>31.31213569641113</v>
+        <v>-7.706055641174316</v>
       </c>
       <c r="C48" t="n">
-        <v>5.321897506713867</v>
+        <v>3.776175260543823</v>
       </c>
       <c r="D48" t="n">
-        <v>9.60369873046875</v>
+        <v>-2.917780637741089</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2803406715393066</v>
+        <v>-0.1420211791992188</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.017341256141663</v>
+        <v>0.7184728980064392</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>32.28041458129883</v>
+        <v>31.47358703613281</v>
       </c>
       <c r="B49" t="n">
-        <v>31.4342155456543</v>
+        <v>-8.768115043640137</v>
       </c>
       <c r="C49" t="n">
-        <v>5.321897506713867</v>
+        <v>2.987545728683472</v>
       </c>
       <c r="D49" t="n">
-        <v>8.01402473449707</v>
+        <v>-1.706784129142761</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.5754480361938477</v>
+        <v>-0.8518919944763184</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.808257222175598</v>
+        <v>1.023772597312927</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>31.9727954864502</v>
+        <v>31.50559234619141</v>
       </c>
       <c r="B50" t="n">
-        <v>31.38314628601074</v>
+        <v>-9.754961967468262</v>
       </c>
       <c r="C50" t="n">
-        <v>3.773237943649292</v>
+        <v>3.713543653488159</v>
       </c>
       <c r="D50" t="n">
-        <v>8.01402473449707</v>
+        <v>-0.1658562421798706</v>
       </c>
       <c r="E50" t="n">
-        <v>-1.669657230377197</v>
+        <v>-1.808889389038086</v>
       </c>
       <c r="F50" t="n">
-        <v>-3.110746145248413</v>
+        <v>1.416654944419861</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>31.50805854797363</v>
+        <v>31.43378829956055</v>
       </c>
       <c r="B51" t="n">
-        <v>32.92352294921875</v>
+        <v>-10.69384288787842</v>
       </c>
       <c r="C51" t="n">
-        <v>9.202476501464844</v>
+        <v>5.504378318786621</v>
       </c>
       <c r="D51" t="n">
-        <v>9.900667190551758</v>
+        <v>1.72286331653595</v>
       </c>
       <c r="E51" t="n">
-        <v>-3.30048131942749</v>
+        <v>-3.266959667205811</v>
       </c>
       <c r="F51" t="n">
-        <v>-4.892000198364258</v>
+        <v>1.513007521629333</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>30.59346008300781</v>
+        <v>32.82264709472656</v>
       </c>
       <c r="B52" t="n">
-        <v>25.4338264465332</v>
+        <v>-11.48871517181396</v>
       </c>
       <c r="C52" t="n">
-        <v>14.47187614440918</v>
+        <v>10.94532108306885</v>
       </c>
       <c r="D52" t="n">
-        <v>17.53749847412109</v>
+        <v>4.145482063293457</v>
       </c>
       <c r="E52" t="n">
-        <v>-6.268295288085938</v>
+        <v>-5.146585464477539</v>
       </c>
       <c r="F52" t="n">
-        <v>-5.374231338500977</v>
+        <v>0.5462583899497986</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>29.55250930786133</v>
+        <v>37.59269332885742</v>
       </c>
       <c r="B53" t="n">
-        <v>21.31001281738281</v>
+        <v>5.297551155090332</v>
       </c>
       <c r="C53" t="n">
-        <v>14.47187614440918</v>
+        <v>15.75026988983154</v>
       </c>
       <c r="D53" t="n">
-        <v>19.88972091674805</v>
+        <v>24.26769638061523</v>
       </c>
       <c r="E53" t="n">
-        <v>-6.268295288085938</v>
+        <v>-14.55336761474609</v>
       </c>
       <c r="F53" t="n">
-        <v>-5.374231338500977</v>
+        <v>-1.447703957557678</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>28.10497283935547</v>
+        <v>39.41581344604492</v>
       </c>
       <c r="B54" t="n">
-        <v>21.31001281738281</v>
+        <v>0.2542694211006165</v>
       </c>
       <c r="C54" t="n">
-        <v>12.97610664367676</v>
+        <v>12.81189918518066</v>
       </c>
       <c r="D54" t="n">
-        <v>19.88972091674805</v>
+        <v>24.52056694030762</v>
       </c>
       <c r="E54" t="n">
-        <v>-4.930237770080566</v>
+        <v>-14.78632068634033</v>
       </c>
       <c r="F54" t="n">
-        <v>-4.231680870056152</v>
+        <v>-6.671278476715088</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>26.43113327026367</v>
+        <v>36.08246231079102</v>
       </c>
       <c r="B55" t="n">
-        <v>21.92754745483398</v>
+        <v>1.521237134933472</v>
       </c>
       <c r="C55" t="n">
-        <v>10.79815483093262</v>
+        <v>12.09803199768066</v>
       </c>
       <c r="D55" t="n">
-        <v>17.02688980102539</v>
+        <v>26.48244667053223</v>
       </c>
       <c r="E55" t="n">
-        <v>-3.371591091156006</v>
+        <v>-10.73208045959473</v>
       </c>
       <c r="F55" t="n">
-        <v>-5.398173809051514</v>
+        <v>-15.4933910369873</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>24.93402862548828</v>
+        <v>32.00602340698242</v>
       </c>
       <c r="B56" t="n">
-        <v>24.65494918823242</v>
+        <v>3.559965848922729</v>
       </c>
       <c r="C56" t="n">
-        <v>9.017532348632812</v>
+        <v>10.88605403900146</v>
       </c>
       <c r="D56" t="n">
-        <v>15.12021446228027</v>
+        <v>29.30649185180664</v>
       </c>
       <c r="E56" t="n">
-        <v>-1.837618112564087</v>
+        <v>-6.014952182769775</v>
       </c>
       <c r="F56" t="n">
-        <v>-5.886919021606445</v>
+        <v>-22.76680564880371</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>23.72859573364258</v>
+        <v>27.67909622192383</v>
       </c>
       <c r="B57" t="n">
-        <v>26.99827194213867</v>
+        <v>6.472765922546387</v>
       </c>
       <c r="C57" t="n">
-        <v>7.640530109405518</v>
+        <v>9.931737899780273</v>
       </c>
       <c r="D57" t="n">
-        <v>13.50557613372803</v>
+        <v>33.32620620727539</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.5073586702346802</v>
+        <v>-1.803146839141846</v>
       </c>
       <c r="F57" t="n">
-        <v>-3.650012969970703</v>
+        <v>-27.59355354309082</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>22.55100440979004</v>
+        <v>23.76081657409668</v>
       </c>
       <c r="B58" t="n">
-        <v>28.13056182861328</v>
+        <v>10.08806896209717</v>
       </c>
       <c r="C58" t="n">
-        <v>6.405405044555664</v>
+        <v>9.515522003173828</v>
       </c>
       <c r="D58" t="n">
-        <v>12.35430908203125</v>
+        <v>38.62526702880859</v>
       </c>
       <c r="E58" t="n">
-        <v>0.5930208563804626</v>
+        <v>1.092680931091309</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.365595102310181</v>
+        <v>-28.93619537353516</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>20.92707824707031</v>
+        <v>20.63611221313477</v>
       </c>
       <c r="B59" t="n">
-        <v>28.13056182861328</v>
+        <v>14.02184391021729</v>
       </c>
       <c r="C59" t="n">
-        <v>5.124736309051514</v>
+        <v>9.435687065124512</v>
       </c>
       <c r="D59" t="n">
-        <v>12.35430908203125</v>
+        <v>44.53730773925781</v>
       </c>
       <c r="E59" t="n">
-        <v>0.5930208563804626</v>
+        <v>2.511333465576172</v>
       </c>
       <c r="F59" t="n">
-        <v>1.216915488243103</v>
+        <v>-26.4781665802002</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>18.51641082763672</v>
+        <v>18.27438735961914</v>
       </c>
       <c r="B60" t="n">
-        <v>25.25125503540039</v>
+        <v>17.84428215026855</v>
       </c>
       <c r="C60" t="n">
-        <v>3.793837547302246</v>
+        <v>9.217660903930664</v>
       </c>
       <c r="D60" t="n">
-        <v>10.83372497558594</v>
+        <v>49.89441299438477</v>
       </c>
       <c r="E60" t="n">
-        <v>2.305535316467285</v>
+        <v>2.872500419616699</v>
       </c>
       <c r="F60" t="n">
-        <v>3.228883028030396</v>
+        <v>-21.51327705383301</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>15.37977123260498</v>
+        <v>16.21760368347168</v>
       </c>
       <c r="B61" t="n">
-        <v>22.09763145446777</v>
+        <v>21.43523406982422</v>
       </c>
       <c r="C61" t="n">
-        <v>2.470676422119141</v>
+        <v>8.426703453063965</v>
       </c>
       <c r="D61" t="n">
-        <v>10.45694351196289</v>
+        <v>53.65147399902344</v>
       </c>
       <c r="E61" t="n">
-        <v>2.62491512298584</v>
+        <v>2.72688102722168</v>
       </c>
       <c r="F61" t="n">
-        <v>3.228883028030396</v>
+        <v>-16.19814109802246</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>11.94617652893066</v>
+        <v>13.95536231994629</v>
       </c>
       <c r="B62" t="n">
-        <v>18.52364349365234</v>
+        <v>24.90423774719238</v>
       </c>
       <c r="C62" t="n">
-        <v>1.185635924339294</v>
+        <v>6.87246036529541</v>
       </c>
       <c r="D62" t="n">
-        <v>9.81734561920166</v>
+        <v>55.26791000366211</v>
       </c>
       <c r="E62" t="n">
-        <v>2.728870391845703</v>
+        <v>2.378661155700684</v>
       </c>
       <c r="F62" t="n">
-        <v>5.192348480224609</v>
+        <v>-12.07052993774414</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>8.73100471496582</v>
+        <v>11.30111885070801</v>
       </c>
       <c r="B63" t="n">
-        <v>15.2983980178833</v>
+        <v>28.32473182678223</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.03845489025115967</v>
+        <v>4.748732566833496</v>
       </c>
       <c r="D63" t="n">
-        <v>8.85273265838623</v>
+        <v>54.6866569519043</v>
       </c>
       <c r="E63" t="n">
-        <v>2.867001533508301</v>
+        <v>1.975695610046387</v>
       </c>
       <c r="F63" t="n">
-        <v>4.450056076049805</v>
+        <v>-9.34572696685791</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>6.051750183105469</v>
+        <v>8.439488410949707</v>
       </c>
       <c r="B64" t="n">
-        <v>12.72170448303223</v>
+        <v>31.56520843505859</v>
       </c>
       <c r="C64" t="n">
-        <v>-1.192888259887695</v>
+        <v>2.519675016403198</v>
       </c>
       <c r="D64" t="n">
-        <v>7.679806709289551</v>
+        <v>52.18751525878906</v>
       </c>
       <c r="E64" t="n">
-        <v>3.225532531738281</v>
+        <v>1.750293731689453</v>
       </c>
       <c r="F64" t="n">
-        <v>3.859599113464355</v>
+        <v>-7.423489570617676</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>3.940943956375122</v>
+        <v>5.728752613067627</v>
       </c>
       <c r="B65" t="n">
-        <v>10.61561393737793</v>
+        <v>34.28711700439453</v>
       </c>
       <c r="C65" t="n">
-        <v>-2.395307064056396</v>
+        <v>0.6002243161201477</v>
       </c>
       <c r="D65" t="n">
-        <v>6.387553215026855</v>
+        <v>48.24419784545898</v>
       </c>
       <c r="E65" t="n">
-        <v>3.657532691955566</v>
+        <v>1.912250518798828</v>
       </c>
       <c r="F65" t="n">
-        <v>3.728010177612305</v>
+        <v>-5.747007846832275</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>2.19542407989502</v>
+        <v>3.32183313369751</v>
       </c>
       <c r="B66" t="n">
-        <v>8.64152717590332</v>
+        <v>36.21499633789062</v>
       </c>
       <c r="C66" t="n">
-        <v>-3.718918085098267</v>
+        <v>-0.987506091594696</v>
       </c>
       <c r="D66" t="n">
-        <v>4.953768730163574</v>
+        <v>43.31580352783203</v>
       </c>
       <c r="E66" t="n">
-        <v>3.686308860778809</v>
+        <v>2.250178337097168</v>
       </c>
       <c r="F66" t="n">
-        <v>3.878588676452637</v>
+        <v>-4.087125301361084</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.6049354076385498</v>
+        <v>1.146137714385986</v>
       </c>
       <c r="B67" t="n">
-        <v>6.633434772491455</v>
+        <v>37.31979370117188</v>
       </c>
       <c r="C67" t="n">
-        <v>-5.113173007965088</v>
+        <v>-2.3491051197052</v>
       </c>
       <c r="D67" t="n">
-        <v>3.274266481399536</v>
+        <v>37.7100715637207</v>
       </c>
       <c r="E67" t="n">
-        <v>3.375683784484863</v>
+        <v>2.519412040710449</v>
       </c>
       <c r="F67" t="n">
-        <v>4.045577049255371</v>
+        <v>-2.640217065811157</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-0.8873847723007202</v>
+        <v>-0.9602140784263611</v>
       </c>
       <c r="B68" t="n">
-        <v>4.607469081878662</v>
+        <v>37.77532577514648</v>
       </c>
       <c r="C68" t="n">
-        <v>-6.411042213439941</v>
+        <v>-3.486462831497192</v>
       </c>
       <c r="D68" t="n">
-        <v>1.559050679206848</v>
+        <v>31.60472679138184</v>
       </c>
       <c r="E68" t="n">
-        <v>3.039966583251953</v>
+        <v>2.850958824157715</v>
       </c>
       <c r="F68" t="n">
-        <v>3.866631507873535</v>
+        <v>-1.735653519630432</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-2.219413757324219</v>
+        <v>-3.042148113250732</v>
       </c>
       <c r="B69" t="n">
-        <v>2.652550935745239</v>
+        <v>37.7021484375</v>
       </c>
       <c r="C69" t="n">
-        <v>-6.411042213439941</v>
+        <v>-4.390625953674316</v>
       </c>
       <c r="D69" t="n">
-        <v>0.1825610399246216</v>
+        <v>25.22986030578613</v>
       </c>
       <c r="E69" t="n">
-        <v>2.875898361206055</v>
+        <v>3.357215881347656</v>
       </c>
       <c r="F69" t="n">
-        <v>3.322328567504883</v>
+        <v>-1.475646615028381</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>-3.329633474349976</v>
+        <v>-5.029202938079834</v>
       </c>
       <c r="B70" t="n">
-        <v>0.8241376876831055</v>
+        <v>37.24456787109375</v>
       </c>
       <c r="C70" t="n">
-        <v>-8.340876579284668</v>
+        <v>-4.941256523132324</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.6084049940109253</v>
+        <v>19.00730323791504</v>
       </c>
       <c r="E70" t="n">
-        <v>2.861193656921387</v>
+        <v>3.974136352539062</v>
       </c>
       <c r="F70" t="n">
-        <v>2.63868522644043</v>
+        <v>-1.756235718727112</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-3.329633474349976</v>
+        <v>-6.794488430023193</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.8292361497879028</v>
+        <v>36.64504241943359</v>
       </c>
       <c r="C71" t="n">
-        <v>-8.184859275817871</v>
+        <v>-4.97982120513916</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.866942286491394</v>
+        <v>13.38850879669189</v>
       </c>
       <c r="E71" t="n">
-        <v>2.90339183807373</v>
+        <v>4.508560180664062</v>
       </c>
       <c r="F71" t="n">
-        <v>2.055220603942871</v>
+        <v>-2.376687526702881</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-5.122994899749756</v>
+        <v>-8.236023902893066</v>
       </c>
       <c r="B72" t="n">
-        <v>-2.268046617507935</v>
+        <v>36.15170669555664</v>
       </c>
       <c r="C72" t="n">
-        <v>-7.23117733001709</v>
+        <v>-4.396409034729004</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.7372082471847534</v>
+        <v>8.762066841125488</v>
       </c>
       <c r="E72" t="n">
-        <v>2.899615287780762</v>
+        <v>4.803193092346191</v>
       </c>
       <c r="F72" t="n">
-        <v>1.645318865776062</v>
+        <v>-3.171116828918457</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-5.706706523895264</v>
+        <v>-9.321518898010254</v>
       </c>
       <c r="B73" t="n">
-        <v>-3.454524040222168</v>
+        <v>35.95185089111328</v>
       </c>
       <c r="C73" t="n">
-        <v>-4.647366523742676</v>
+        <v>-3.198487520217896</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.313200831413269</v>
+        <v>5.414177894592285</v>
       </c>
       <c r="E73" t="n">
-        <v>2.879420280456543</v>
+        <v>4.808756828308105</v>
       </c>
       <c r="F73" t="n">
-        <v>1.417843222618103</v>
+        <v>-4.033658504486084</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-6.257007122039795</v>
+        <v>-10.07435321807861</v>
       </c>
       <c r="B74" t="n">
-        <v>-3.454524040222168</v>
+        <v>36.10723495483398</v>
       </c>
       <c r="C74" t="n">
-        <v>-2.986423492431641</v>
+        <v>-1.491400837898254</v>
       </c>
       <c r="D74" t="n">
-        <v>0.3888083696365356</v>
+        <v>3.49200177192688</v>
       </c>
       <c r="E74" t="n">
-        <v>2.876465797424316</v>
+        <v>4.608181953430176</v>
       </c>
       <c r="F74" t="n">
-        <v>1.36836564540863</v>
+        <v>-4.935555934906006</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-6.785590648651123</v>
+        <v>-10.56732273101807</v>
       </c>
       <c r="B75" t="n">
-        <v>-5.321322441101074</v>
+        <v>36.54009246826172</v>
       </c>
       <c r="C75" t="n">
-        <v>-0.8372007012367249</v>
+        <v>0.5500648617744446</v>
       </c>
       <c r="D75" t="n">
-        <v>1.345973134040833</v>
+        <v>2.994574785232544</v>
       </c>
       <c r="E75" t="n">
-        <v>2.795207023620605</v>
+        <v>4.229830741882324</v>
       </c>
       <c r="F75" t="n">
-        <v>1.464184165000916</v>
+        <v>-5.870232582092285</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-7.264138698577881</v>
+        <v>-10.88787937164307</v>
       </c>
       <c r="B76" t="n">
-        <v>-5.823962211608887</v>
+        <v>37.08293533325195</v>
       </c>
       <c r="C76" t="n">
-        <v>1.790488481521606</v>
+        <v>2.774054288864136</v>
       </c>
       <c r="D76" t="n">
-        <v>2.544198274612427</v>
+        <v>3.805907487869263</v>
       </c>
       <c r="E76" t="n">
-        <v>2.466073036193848</v>
+        <v>3.510025024414062</v>
       </c>
       <c r="F76" t="n">
-        <v>1.592138648033142</v>
+        <v>-6.790404796600342</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-7.615098476409912</v>
+        <v>-11.06967639923096</v>
       </c>
       <c r="B77" t="n">
-        <v>-6.220305442810059</v>
+        <v>37.49913024902344</v>
       </c>
       <c r="C77" t="n">
-        <v>5.01661491394043</v>
+        <v>5.167941093444824</v>
       </c>
       <c r="D77" t="n">
-        <v>3.988906145095825</v>
+        <v>5.701956748962402</v>
       </c>
       <c r="E77" t="n">
-        <v>1.682265281677246</v>
+        <v>2.151429176330566</v>
       </c>
       <c r="F77" t="n">
-        <v>1.578269839286804</v>
+        <v>-7.546231746673584</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-7.719098567962646</v>
+        <v>-10.95131397247314</v>
       </c>
       <c r="B78" t="n">
-        <v>-6.540146827697754</v>
+        <v>35.74288177490234</v>
       </c>
       <c r="C78" t="n">
-        <v>9.044895172119141</v>
+        <v>7.051478385925293</v>
       </c>
       <c r="D78" t="n">
-        <v>5.69564151763916</v>
+        <v>6.73292064666748</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.7208540439605713</v>
+        <v>-0.5732359886169434</v>
       </c>
       <c r="F78" t="n">
-        <v>1.131737112998962</v>
+        <v>-8.332845687866211</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-7.433219432830811</v>
+        <v>-10.60538578033447</v>
       </c>
       <c r="B79" t="n">
-        <v>-6.724345207214355</v>
+        <v>33.59894561767578</v>
       </c>
       <c r="C79" t="n">
-        <v>14.062087059021</v>
+        <v>10.183913230896</v>
       </c>
       <c r="D79" t="n">
-        <v>8.873166084289551</v>
+        <v>8.400942802429199</v>
       </c>
       <c r="E79" t="n">
-        <v>-2.349745750427246</v>
+        <v>-3.986945867538452</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.7418532371521</v>
+        <v>-9.446428298950195</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-6.620112895965576</v>
+        <v>-9.889565467834473</v>
       </c>
       <c r="B80" t="n">
-        <v>-6.60472583770752</v>
+        <v>31.99177551269531</v>
       </c>
       <c r="C80" t="n">
-        <v>20.08208656311035</v>
+        <v>15.1744499206543</v>
       </c>
       <c r="D80" t="n">
-        <v>10.93337726593018</v>
+        <v>11.18458557128906</v>
       </c>
       <c r="E80" t="n">
-        <v>-4.148588180541992</v>
+        <v>-7.992842197418213</v>
       </c>
       <c r="F80" t="n">
-        <v>-5.127488136291504</v>
+        <v>-9.581378936767578</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-3.9941725730896</v>
+        <v>-8.434063911437988</v>
       </c>
       <c r="B81" t="n">
-        <v>-5.985165596008301</v>
+        <v>30.6723461151123</v>
       </c>
       <c r="C81" t="n">
-        <v>26.86029434204102</v>
+        <v>21.50747299194336</v>
       </c>
       <c r="D81" t="n">
-        <v>13.96819496154785</v>
+        <v>14.40151977539062</v>
       </c>
       <c r="E81" t="n">
-        <v>-5.769570350646973</v>
+        <v>-11.92063140869141</v>
       </c>
       <c r="F81" t="n">
-        <v>-10.41129684448242</v>
+        <v>-7.837131023406982</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-1.914407253265381</v>
+        <v>-6.106976985931396</v>
       </c>
       <c r="B82" t="n">
-        <v>-3.230257987976074</v>
+        <v>29.1620922088623</v>
       </c>
       <c r="C82" t="n">
-        <v>34.01252365112305</v>
+        <v>28.40059852600098</v>
       </c>
       <c r="D82" t="n">
-        <v>18.36788368225098</v>
+        <v>17.05980682373047</v>
       </c>
       <c r="E82" t="n">
-        <v>-7.105748176574707</v>
+        <v>-14.96846961975098</v>
       </c>
       <c r="F82" t="n">
-        <v>-16.34790420532227</v>
+        <v>-4.698468685150146</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.9343724250793457</v>
+        <v>-3.012427806854248</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.5958167314529419</v>
+        <v>27.24245071411133</v>
       </c>
       <c r="C83" t="n">
-        <v>41.22576522827148</v>
+        <v>35.44737243652344</v>
       </c>
       <c r="D83" t="n">
-        <v>24.34521865844727</v>
+        <v>18.47356796264648</v>
       </c>
       <c r="E83" t="n">
-        <v>-8.290439605712891</v>
+        <v>-16.98903846740723</v>
       </c>
       <c r="F83" t="n">
-        <v>-20.82723236083984</v>
+        <v>-1.394696831703186</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>4.482131958007812</v>
+        <v>0.7577996850013733</v>
       </c>
       <c r="B84" t="n">
-        <v>2.857989311218262</v>
+        <v>24.92848968505859</v>
       </c>
       <c r="C84" t="n">
-        <v>48.23754119873047</v>
+        <v>42.67880630493164</v>
       </c>
       <c r="D84" t="n">
-        <v>31.41080474853516</v>
+        <v>18.4799633026123</v>
       </c>
       <c r="E84" t="n">
-        <v>-9.405094146728516</v>
+        <v>-18.22044372558594</v>
       </c>
       <c r="F84" t="n">
-        <v>-22.59907913208008</v>
+        <v>1.112434267997742</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>8.529473304748535</v>
+        <v>5.150011539459229</v>
       </c>
       <c r="B85" t="n">
-        <v>6.573038101196289</v>
+        <v>22.29357719421387</v>
       </c>
       <c r="C85" t="n">
-        <v>54.52177810668945</v>
+        <v>50.01525497436523</v>
       </c>
       <c r="D85" t="n">
-        <v>38.65372467041016</v>
+        <v>17.31670570373535</v>
       </c>
       <c r="E85" t="n">
-        <v>-9.405094146728516</v>
+        <v>-18.73244667053223</v>
       </c>
       <c r="F85" t="n">
-        <v>-22.59907913208008</v>
+        <v>2.595843315124512</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>12.64261245727539</v>
+        <v>9.971043586730957</v>
       </c>
       <c r="B86" t="n">
-        <v>10.23927688598633</v>
+        <v>19.40989112854004</v>
       </c>
       <c r="C86" t="n">
-        <v>59.34266662597656</v>
+        <v>56.78008270263672</v>
       </c>
       <c r="D86" t="n">
-        <v>45.24556732177734</v>
+        <v>15.37324333190918</v>
       </c>
       <c r="E86" t="n">
-        <v>-11.17437076568604</v>
+        <v>-18.38057136535645</v>
       </c>
       <c r="F86" t="n">
-        <v>-19.14238739013672</v>
+        <v>3.361869812011719</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>16.38854598999023</v>
+        <v>14.77871036529541</v>
       </c>
       <c r="B87" t="n">
-        <v>13.76802349090576</v>
+        <v>16.41082763671875</v>
       </c>
       <c r="C87" t="n">
-        <v>62.21126556396484</v>
+        <v>61.81267166137695</v>
       </c>
       <c r="D87" t="n">
-        <v>50.66968536376953</v>
+        <v>12.9984769821167</v>
       </c>
       <c r="E87" t="n">
-        <v>-11.20838451385498</v>
+        <v>-17.14409065246582</v>
       </c>
       <c r="F87" t="n">
-        <v>-16.48508071899414</v>
+        <v>3.779719352722168</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>19.57157516479492</v>
+        <v>19.03837966918945</v>
       </c>
       <c r="B88" t="n">
-        <v>17.11936378479004</v>
+        <v>13.59117412567139</v>
       </c>
       <c r="C88" t="n">
-        <v>62.21126556396484</v>
+        <v>64.10830688476562</v>
       </c>
       <c r="D88" t="n">
-        <v>54.65911102294922</v>
+        <v>10.50448036193848</v>
       </c>
       <c r="E88" t="n">
-        <v>-10.46653175354004</v>
+        <v>-15.16593742370605</v>
       </c>
       <c r="F88" t="n">
-        <v>-13.64370059967041</v>
+        <v>3.998048782348633</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>22.2288932800293</v>
+        <v>22.41765785217285</v>
       </c>
       <c r="B89" t="n">
-        <v>20.21709632873535</v>
+        <v>11.29522228240967</v>
       </c>
       <c r="C89" t="n">
-        <v>62.88554382324219</v>
+        <v>63.37767028808594</v>
       </c>
       <c r="D89" t="n">
-        <v>57.06881713867188</v>
+        <v>8.210370063781738</v>
       </c>
       <c r="E89" t="n">
-        <v>-7.673730850219727</v>
+        <v>-12.61346912384033</v>
       </c>
       <c r="F89" t="n">
-        <v>-10.75310802459717</v>
+        <v>4.039595603942871</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>24.49640655517578</v>
+        <v>24.96031951904297</v>
       </c>
       <c r="B90" t="n">
-        <v>22.95552825927734</v>
+        <v>9.606912612915039</v>
       </c>
       <c r="C90" t="n">
-        <v>60.57021713256836</v>
+        <v>60.08637237548828</v>
       </c>
       <c r="D90" t="n">
-        <v>57.06881713867188</v>
+        <v>6.326973915100098</v>
       </c>
       <c r="E90" t="n">
-        <v>-5.770839691162109</v>
+        <v>-9.687129020690918</v>
       </c>
       <c r="F90" t="n">
-        <v>-7.837695121765137</v>
+        <v>3.944717407226562</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>26.48577499389648</v>
+        <v>26.97670745849609</v>
       </c>
       <c r="B91" t="n">
-        <v>25.22990608215332</v>
+        <v>8.227314949035645</v>
       </c>
       <c r="C91" t="n">
-        <v>56.99657821655273</v>
+        <v>55.00992965698242</v>
       </c>
       <c r="D91" t="n">
-        <v>57.08153915405273</v>
+        <v>4.816054344177246</v>
       </c>
       <c r="E91" t="n">
-        <v>-3.59888768196106</v>
+        <v>-6.693421363830566</v>
       </c>
       <c r="F91" t="n">
-        <v>-4.998026371002197</v>
+        <v>3.736413955688477</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>28.22191619873047</v>
+        <v>28.74600791931152</v>
       </c>
       <c r="B92" t="n">
-        <v>26.94546318054199</v>
+        <v>6.722338676452637</v>
       </c>
       <c r="C92" t="n">
-        <v>51.83314514160156</v>
+        <v>48.76179885864258</v>
       </c>
       <c r="D92" t="n">
-        <v>53.76528930664062</v>
+        <v>3.452208757400513</v>
       </c>
       <c r="E92" t="n">
-        <v>-1.529210925102234</v>
+        <v>-3.978895902633667</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.430358171463013</v>
+        <v>3.349649429321289</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>29.63032150268555</v>
+        <v>30.3033275604248</v>
       </c>
       <c r="B93" t="n">
-        <v>28.04108619689941</v>
+        <v>4.861992835998535</v>
       </c>
       <c r="C93" t="n">
-        <v>44.73185729980469</v>
+        <v>41.67195510864258</v>
       </c>
       <c r="D93" t="n">
-        <v>48.19319915771484</v>
+        <v>2.044852495193481</v>
       </c>
       <c r="E93" t="n">
-        <v>0.2052226662635803</v>
+        <v>-1.805053234100342</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.422167956829071</v>
+        <v>2.702056884765625</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>29.63032150268555</v>
+        <v>31.45211029052734</v>
       </c>
       <c r="B94" t="n">
-        <v>28.04108619689941</v>
+        <v>2.738157987594604</v>
       </c>
       <c r="C94" t="n">
-        <v>35.90084075927734</v>
+        <v>33.96772003173828</v>
       </c>
       <c r="D94" t="n">
-        <v>40.49055480957031</v>
+        <v>0.5973368883132935</v>
       </c>
       <c r="E94" t="n">
-        <v>1.509831190109253</v>
+        <v>-0.3057255744934082</v>
       </c>
       <c r="F94" t="n">
-        <v>0.7178457975387573</v>
+        <v>1.839722990989685</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>31.51780891418457</v>
+        <v>31.95915031433105</v>
       </c>
       <c r="B95" t="n">
-        <v>29.19923782348633</v>
+        <v>0.633780300617218</v>
       </c>
       <c r="C95" t="n">
-        <v>26.55483245849609</v>
+        <v>26.02588653564453</v>
       </c>
       <c r="D95" t="n">
-        <v>31.79161643981934</v>
+        <v>-0.7049130201339722</v>
       </c>
       <c r="E95" t="n">
-        <v>1.509831190109253</v>
+        <v>0.5231199264526367</v>
       </c>
       <c r="F95" t="n">
-        <v>0.7178457975387573</v>
+        <v>0.9524144530296326</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>31.48556327819824</v>
+        <v>31.81012916564941</v>
       </c>
       <c r="B96" t="n">
-        <v>29.37697410583496</v>
+        <v>-1.230313539505005</v>
       </c>
       <c r="C96" t="n">
-        <v>18.2556209564209</v>
+        <v>18.47161102294922</v>
       </c>
       <c r="D96" t="n">
-        <v>23.66492080688477</v>
+        <v>-1.635720133781433</v>
       </c>
       <c r="E96" t="n">
-        <v>3.169400215148926</v>
+        <v>0.7949495315551758</v>
       </c>
       <c r="F96" t="n">
-        <v>1.105700850486755</v>
+        <v>0.2196254134178162</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>31.44159698486328</v>
+        <v>31.30482482910156</v>
       </c>
       <c r="B97" t="n">
-        <v>29.82037353515625</v>
+        <v>-2.882375001907349</v>
       </c>
       <c r="C97" t="n">
-        <v>11.96276473999023</v>
+        <v>12.00100040435791</v>
       </c>
       <c r="D97" t="n">
-        <v>17.12501335144043</v>
+        <v>-2.071743726730347</v>
       </c>
       <c r="E97" t="n">
-        <v>2.767130851745605</v>
+        <v>0.643132209777832</v>
       </c>
       <c r="F97" t="n">
-        <v>0.04193680733442307</v>
+        <v>-0.3007312417030334</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>31.71603965759277</v>
+        <v>30.81929779052734</v>
       </c>
       <c r="B98" t="n">
-        <v>30.28831672668457</v>
+        <v>-4.38924503326416</v>
       </c>
       <c r="C98" t="n">
-        <v>7.910152912139893</v>
+        <v>7.217442512512207</v>
       </c>
       <c r="D98" t="n">
-        <v>12.45097351074219</v>
+        <v>-1.948677897453308</v>
       </c>
       <c r="E98" t="n">
-        <v>1.60118293762207</v>
+        <v>0.1955137252807617</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.7498069405555725</v>
+        <v>-0.6187081933021545</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>32.12305068969727</v>
+        <v>30.57698249816895</v>
       </c>
       <c r="B99" t="n">
-        <v>30.68688774108887</v>
+        <v>-5.684792518615723</v>
       </c>
       <c r="C99" t="n">
-        <v>5.858640193939209</v>
+        <v>4.480950355529785</v>
       </c>
       <c r="D99" t="n">
-        <v>9.492816925048828</v>
+        <v>-1.224446177482605</v>
       </c>
       <c r="E99" t="n">
-        <v>0.2245311737060547</v>
+        <v>-0.4386076927185059</v>
       </c>
       <c r="F99" t="n">
-        <v>-1.251162648200989</v>
+        <v>-0.6680265069007874</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>32.33405685424805</v>
+        <v>30.66968536376953</v>
       </c>
       <c r="B100" t="n">
-        <v>31.04290390014648</v>
+        <v>-6.774081230163574</v>
       </c>
       <c r="C100" t="n">
-        <v>5.858640193939209</v>
+        <v>3.714796781539917</v>
       </c>
       <c r="D100" t="n">
-        <v>7.967223644256592</v>
+        <v>0.002682806458324194</v>
       </c>
       <c r="E100" t="n">
-        <v>-0.9196953773498535</v>
+        <v>-1.235488891601562</v>
       </c>
       <c r="F100" t="n">
-        <v>-1.828510880470276</v>
+        <v>-0.3439708352088928</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>32.23968887329102</v>
+        <v>31.05334091186523</v>
       </c>
       <c r="B101" t="n">
-        <v>31.28143119812012</v>
+        <v>-7.80301570892334</v>
       </c>
       <c r="C101" t="n">
-        <v>4.83054256439209</v>
+        <v>4.473450660705566</v>
       </c>
       <c r="D101" t="n">
-        <v>7.967223644256592</v>
+        <v>1.51258385181427</v>
       </c>
       <c r="E101" t="n">
-        <v>-2.039943218231201</v>
+        <v>-2.261482238769531</v>
       </c>
       <c r="F101" t="n">
-        <v>-2.850932836532593</v>
+        <v>0.2498692870140076</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>31.92116355895996</v>
+        <v>31.49188041687012</v>
       </c>
       <c r="B102" t="n">
-        <v>32.64442443847656</v>
+        <v>-8.777400016784668</v>
       </c>
       <c r="C102" t="n">
-        <v>9.384796142578125</v>
+        <v>6.269425392150879</v>
       </c>
       <c r="D102" t="n">
-        <v>9.623615264892578</v>
+        <v>3.182700395584106</v>
       </c>
       <c r="E102" t="n">
-        <v>-3.541479825973511</v>
+        <v>-3.606763124465942</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.388533592224121</v>
+        <v>0.6600150465965271</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>30.60980606079102</v>
+        <v>32.41804504394531</v>
       </c>
       <c r="B103" t="n">
-        <v>24.9420337677002</v>
+        <v>-9.548544883728027</v>
       </c>
       <c r="C103" t="n">
-        <v>14.92375087738037</v>
+        <v>10.11745071411133</v>
       </c>
       <c r="D103" t="n">
-        <v>18.11500358581543</v>
+        <v>5.112792015075684</v>
       </c>
       <c r="E103" t="n">
-        <v>-6.619313716888428</v>
+        <v>-5.286269664764404</v>
       </c>
       <c r="F103" t="n">
-        <v>-5.182543754577637</v>
+        <v>-0.1153431609272957</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>30.60980606079102</v>
+        <v>37.16479873657227</v>
       </c>
       <c r="B104" t="n">
-        <v>19.89105033874512</v>
+        <v>6.596901893615723</v>
       </c>
       <c r="C104" t="n">
-        <v>14.92375087738037</v>
+        <v>16.6662540435791</v>
       </c>
       <c r="D104" t="n">
-        <v>21.95983123779297</v>
+        <v>25.13431167602539</v>
       </c>
       <c r="E104" t="n">
-        <v>-6.619313716888428</v>
+        <v>-14.83081245422363</v>
       </c>
       <c r="F104" t="n">
-        <v>-5.182543754577637</v>
+        <v>-1.629256367683411</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>28.57757186889648</v>
+        <v>41.15459442138672</v>
       </c>
       <c r="B105" t="n">
-        <v>18.12786865234375</v>
+        <v>0.1266468167304993</v>
       </c>
       <c r="C105" t="n">
-        <v>14.49262237548828</v>
+        <v>13.64580154418945</v>
       </c>
       <c r="D105" t="n">
-        <v>21.95983123779297</v>
+        <v>26.45344734191895</v>
       </c>
       <c r="E105" t="n">
-        <v>-5.775335311889648</v>
+        <v>-17.29610824584961</v>
       </c>
       <c r="F105" t="n">
-        <v>-3.650473594665527</v>
+        <v>-6.177815914154053</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>26.43282318115234</v>
+        <v>38.26300811767578</v>
       </c>
       <c r="B106" t="n">
-        <v>18.12786865234375</v>
+        <v>2.670494794845581</v>
       </c>
       <c r="C106" t="n">
-        <v>11.96929836273193</v>
+        <v>14.23135757446289</v>
       </c>
       <c r="D106" t="n">
-        <v>21.31619262695312</v>
+        <v>29.633544921875</v>
       </c>
       <c r="E106" t="n">
-        <v>-3.554085969924927</v>
+        <v>-13.87127208709717</v>
       </c>
       <c r="F106" t="n">
-        <v>-4.400970935821533</v>
+        <v>-15.19902038574219</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>24.16701316833496</v>
+        <v>35.00179290771484</v>
       </c>
       <c r="B107" t="n">
-        <v>21.83402252197266</v>
+        <v>4.719277381896973</v>
       </c>
       <c r="C107" t="n">
-        <v>9.51987361907959</v>
+        <v>12.96459865570068</v>
       </c>
       <c r="D107" t="n">
-        <v>18.39993286132812</v>
+        <v>32.24004745483398</v>
       </c>
       <c r="E107" t="n">
-        <v>-1.306008458137512</v>
+        <v>-9.149530410766602</v>
       </c>
       <c r="F107" t="n">
-        <v>-4.990952968597412</v>
+        <v>-21.80295181274414</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>22.3682861328125</v>
+        <v>30.68376350402832</v>
       </c>
       <c r="B108" t="n">
-        <v>24.49599075317383</v>
+        <v>7.402646064758301</v>
       </c>
       <c r="C108" t="n">
-        <v>7.433257102966309</v>
+        <v>11.03158187866211</v>
       </c>
       <c r="D108" t="n">
-        <v>15.27077102661133</v>
+        <v>34.59635925292969</v>
       </c>
       <c r="E108" t="n">
-        <v>0.4310120940208435</v>
+        <v>-3.851950407028198</v>
       </c>
       <c r="F108" t="n">
-        <v>-4.721889019012451</v>
+        <v>-26.46935844421387</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>21.16282272338867</v>
+        <v>26.09328079223633</v>
       </c>
       <c r="B109" t="n">
-        <v>26.78991317749023</v>
+        <v>10.68890953063965</v>
       </c>
       <c r="C109" t="n">
-        <v>5.621201515197754</v>
+        <v>9.211155891418457</v>
       </c>
       <c r="D109" t="n">
-        <v>12.42297172546387</v>
+        <v>37.56808853149414</v>
       </c>
       <c r="E109" t="n">
-        <v>1.55321741104126</v>
+        <v>0.6406002044677734</v>
       </c>
       <c r="F109" t="n">
-        <v>-1.664033770561218</v>
+        <v>-28.81171417236328</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>21.16282272338867</v>
+        <v>21.96469497680664</v>
       </c>
       <c r="B110" t="n">
-        <v>27.93170356750488</v>
+        <v>14.5127592086792</v>
       </c>
       <c r="C110" t="n">
-        <v>3.849214553833008</v>
+        <v>8.056380271911621</v>
       </c>
       <c r="D110" t="n">
-        <v>10.09071159362793</v>
+        <v>41.62058639526367</v>
       </c>
       <c r="E110" t="n">
-        <v>1.55321741104126</v>
+        <v>3.255075454711914</v>
       </c>
       <c r="F110" t="n">
-        <v>0.7711601853370667</v>
+        <v>-27.84021759033203</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>19.17927742004395</v>
+        <v>18.84021377563477</v>
       </c>
       <c r="B111" t="n">
-        <v>27.93170356750488</v>
+        <v>18.4620304107666</v>
       </c>
       <c r="C111" t="n">
-        <v>2.028393268585205</v>
+        <v>7.631134986877441</v>
       </c>
       <c r="D111" t="n">
-        <v>8.368703842163086</v>
+        <v>46.40455627441406</v>
       </c>
       <c r="E111" t="n">
-        <v>2.864248275756836</v>
+        <v>3.778931617736816</v>
       </c>
       <c r="F111" t="n">
-        <v>3.233591079711914</v>
+        <v>-23.65500640869141</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>15.49751281738281</v>
+        <v>16.68153190612793</v>
       </c>
       <c r="B112" t="n">
-        <v>24.85214233398438</v>
+        <v>22.19267463684082</v>
       </c>
       <c r="C112" t="n">
-        <v>0.3547589182853699</v>
+        <v>7.62893009185791</v>
       </c>
       <c r="D112" t="n">
-        <v>7.326061725616455</v>
+        <v>50.90551376342773</v>
       </c>
       <c r="E112" t="n">
-        <v>2.90300178527832</v>
+        <v>2.989729881286621</v>
       </c>
       <c r="F112" t="n">
-        <v>4.708730220794678</v>
+        <v>-17.90377616882324</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>12.52638816833496</v>
+        <v>14.89202308654785</v>
       </c>
       <c r="B113" t="n">
-        <v>21.29015731811523</v>
+        <v>25.65364456176758</v>
       </c>
       <c r="C113" t="n">
-        <v>-0.8447883129119873</v>
+        <v>7.447039604187012</v>
       </c>
       <c r="D113" t="n">
-        <v>7.326061725616455</v>
+        <v>53.94125366210938</v>
       </c>
       <c r="E113" t="n">
-        <v>2.807473182678223</v>
+        <v>1.984105110168457</v>
       </c>
       <c r="F113" t="n">
-        <v>4.708730220794678</v>
+        <v>-12.7451000213623</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>9.215041160583496</v>
+        <v>12.82290649414062</v>
       </c>
       <c r="B114" t="n">
-        <v>17.28633499145508</v>
+        <v>28.88093566894531</v>
       </c>
       <c r="C114" t="n">
-        <v>-0.8447883129119873</v>
+        <v>6.514992713928223</v>
       </c>
       <c r="D114" t="n">
-        <v>6.652417182922363</v>
+        <v>54.57696151733398</v>
       </c>
       <c r="E114" t="n">
-        <v>2.738945007324219</v>
+        <v>1.394550323486328</v>
       </c>
       <c r="F114" t="n">
-        <v>4.972953796386719</v>
+        <v>-9.312848091125488</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>6.359859466552734</v>
+        <v>10.18710517883301</v>
       </c>
       <c r="B115" t="n">
-        <v>13.77134227752686</v>
+        <v>31.83587646484375</v>
       </c>
       <c r="C115" t="n">
-        <v>-2.044806718826294</v>
+        <v>4.705924034118652</v>
       </c>
       <c r="D115" t="n">
-        <v>7.272210121154785</v>
+        <v>52.42317962646484</v>
       </c>
       <c r="E115" t="n">
-        <v>2.946109771728516</v>
+        <v>1.272356986999512</v>
       </c>
       <c r="F115" t="n">
-        <v>3.544883728027344</v>
+        <v>-7.267074108123779</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>4.233314514160156</v>
+        <v>7.226284503936768</v>
       </c>
       <c r="B116" t="n">
-        <v>11.02431488037109</v>
+        <v>34.37152481079102</v>
       </c>
       <c r="C116" t="n">
-        <v>-1.942658543586731</v>
+        <v>2.53796648979187</v>
       </c>
       <c r="D116" t="n">
-        <v>7.334885597229004</v>
+        <v>47.89757537841797</v>
       </c>
       <c r="E116" t="n">
-        <v>3.342206954956055</v>
+        <v>1.625527381896973</v>
       </c>
       <c r="F116" t="n">
-        <v>2.969204902648926</v>
+        <v>-5.846165180206299</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>2.641688585281372</v>
+        <v>4.365374088287354</v>
       </c>
       <c r="B117" t="n">
-        <v>8.855266571044922</v>
+        <v>36.28218078613281</v>
       </c>
       <c r="C117" t="n">
-        <v>-2.493098497390747</v>
+        <v>0.4914291501045227</v>
       </c>
       <c r="D117" t="n">
-        <v>6.348202705383301</v>
+        <v>42.03614044189453</v>
       </c>
       <c r="E117" t="n">
-        <v>3.476110458374023</v>
+        <v>2.128566741943359</v>
       </c>
       <c r="F117" t="n">
-        <v>3.2120361328125</v>
+        <v>-4.485012531280518</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>1.281748652458191</v>
+        <v>1.874521732330322</v>
       </c>
       <c r="B118" t="n">
-        <v>7.014925479888916</v>
+        <v>37.48102569580078</v>
       </c>
       <c r="C118" t="n">
-        <v>-3.849356889724731</v>
+        <v>-1.157155156135559</v>
       </c>
       <c r="D118" t="n">
-        <v>3.419781684875488</v>
+        <v>35.81021118164062</v>
       </c>
       <c r="E118" t="n">
-        <v>3.351181983947754</v>
+        <v>2.477652549743652</v>
       </c>
       <c r="F118" t="n">
-        <v>3.673894882202148</v>
+        <v>-3.187932968139648</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.01651448011398315</v>
+        <v>-0.2525133490562439</v>
       </c>
       <c r="B119" t="n">
-        <v>5.329207897186279</v>
+        <v>38.03540802001953</v>
       </c>
       <c r="C119" t="n">
-        <v>-5.599003791809082</v>
+        <v>-2.294648408889771</v>
       </c>
       <c r="D119" t="n">
-        <v>2.117655754089355</v>
+        <v>29.72727966308594</v>
       </c>
       <c r="E119" t="n">
-        <v>3.194304466247559</v>
+        <v>2.760715484619141</v>
       </c>
       <c r="F119" t="n">
-        <v>3.697695732116699</v>
+        <v>-2.264061689376831</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>-1.106313109397888</v>
+        <v>-2.145410060882568</v>
       </c>
       <c r="B120" t="n">
-        <v>3.719731330871582</v>
+        <v>38.01148986816406</v>
       </c>
       <c r="C120" t="n">
-        <v>-7.15632152557373</v>
+        <v>-2.974211931228638</v>
       </c>
       <c r="D120" t="n">
-        <v>1.112370491027832</v>
+        <v>23.87648963928223</v>
       </c>
       <c r="E120" t="n">
-        <v>3.103184700012207</v>
+        <v>3.257452964782715</v>
       </c>
       <c r="F120" t="n">
-        <v>3.189976692199707</v>
+        <v>-1.930615544319153</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-1.106313109397888</v>
+        <v>-3.912736415863037</v>
       </c>
       <c r="B121" t="n">
-        <v>2.159071922302246</v>
+        <v>37.50178146362305</v>
       </c>
       <c r="C121" t="n">
-        <v>-8.060893058776855</v>
+        <v>-3.321513414382935</v>
       </c>
       <c r="D121" t="n">
-        <v>1.112370491027832</v>
+        <v>18.37241744995117</v>
       </c>
       <c r="E121" t="n">
-        <v>2.988593101501465</v>
+        <v>3.933878898620605</v>
       </c>
       <c r="F121" t="n">
-        <v>2.448141098022461</v>
+        <v>-2.156813383102417</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-2.892327785491943</v>
+        <v>-5.566525936126709</v>
       </c>
       <c r="B122" t="n">
-        <v>0.6797341108322144</v>
+        <v>36.761474609375</v>
       </c>
       <c r="C122" t="n">
-        <v>-8.01267147064209</v>
+        <v>-3.291848421096802</v>
       </c>
       <c r="D122" t="n">
-        <v>0.1055842638015747</v>
+        <v>13.49048137664795</v>
       </c>
       <c r="E122" t="n">
-        <v>2.826013565063477</v>
+        <v>4.535276412963867</v>
       </c>
       <c r="F122" t="n">
-        <v>1.811277270317078</v>
+        <v>-2.79176139831543</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>-3.28500509262085</v>
+        <v>-7.028748989105225</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.6471559405326843</v>
+        <v>36.11223983764648</v>
       </c>
       <c r="C123" t="n">
-        <v>-6.972407341003418</v>
+        <v>-2.738700151443481</v>
       </c>
       <c r="D123" t="n">
-        <v>0.5056926012039185</v>
+        <v>9.545365333557129</v>
       </c>
       <c r="E123" t="n">
-        <v>2.613735198974609</v>
+        <v>4.803083419799805</v>
       </c>
       <c r="F123" t="n">
-        <v>1.389117121696472</v>
+        <v>-3.658819437026978</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-3.548881053924561</v>
+        <v>-8.199536323547363</v>
       </c>
       <c r="B124" t="n">
-        <v>-1.742454290390015</v>
+        <v>35.78156661987305</v>
       </c>
       <c r="C124" t="n">
-        <v>-4.008757591247559</v>
+        <v>-1.55828583240509</v>
       </c>
       <c r="D124" t="n">
-        <v>1.0970698595047</v>
+        <v>6.758526802062988</v>
       </c>
       <c r="E124" t="n">
-        <v>2.413565635681152</v>
+        <v>4.647116661071777</v>
       </c>
       <c r="F124" t="n">
-        <v>1.172569632530212</v>
+        <v>-4.615706920623779</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-3.8030104637146</v>
+        <v>-9.001103401184082</v>
       </c>
       <c r="B125" t="n">
-        <v>-1.742454290390015</v>
+        <v>35.83075332641602</v>
       </c>
       <c r="C125" t="n">
-        <v>-2.168180465698242</v>
+        <v>0.2416866421699524</v>
       </c>
       <c r="D125" t="n">
-        <v>1.830876469612122</v>
+        <v>5.204546928405762</v>
       </c>
       <c r="E125" t="n">
-        <v>2.282135009765625</v>
+        <v>4.206013679504395</v>
       </c>
       <c r="F125" t="n">
-        <v>1.1352618932724</v>
+        <v>-5.59414529800415</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-4.082911968231201</v>
+        <v>-9.455517768859863</v>
       </c>
       <c r="B126" t="n">
-        <v>-3.414405107498169</v>
+        <v>36.18160629272461</v>
       </c>
       <c r="C126" t="n">
-        <v>0.1290515661239624</v>
+        <v>2.458037137985229</v>
       </c>
       <c r="D126" t="n">
-        <v>2.712720155715942</v>
+        <v>4.822934150695801</v>
       </c>
       <c r="E126" t="n">
-        <v>2.131811141967773</v>
+        <v>3.570806503295898</v>
       </c>
       <c r="F126" t="n">
-        <v>1.240626215934753</v>
+        <v>-6.515547752380371</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>-4.357360363006592</v>
+        <v>-9.639225959777832</v>
       </c>
       <c r="B127" t="n">
-        <v>-3.782000780105591</v>
+        <v>36.68302536010742</v>
       </c>
       <c r="C127" t="n">
-        <v>2.841923475265503</v>
+        <v>4.846232414245605</v>
       </c>
       <c r="D127" t="n">
-        <v>3.750218629837036</v>
+        <v>5.465207099914551</v>
       </c>
       <c r="E127" t="n">
-        <v>1.789656639099121</v>
+        <v>2.710711479187012</v>
       </c>
       <c r="F127" t="n">
-        <v>1.387107253074646</v>
+        <v>-7.329535007476807</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-4.540313243865967</v>
+        <v>-9.625393867492676</v>
       </c>
       <c r="B128" t="n">
-        <v>-4.034295082092285</v>
+        <v>37.14251708984375</v>
       </c>
       <c r="C128" t="n">
-        <v>6.093329429626465</v>
+        <v>7.260586738586426</v>
       </c>
       <c r="D128" t="n">
-        <v>4.94954776763916</v>
+        <v>6.943646430969238</v>
       </c>
       <c r="E128" t="n">
-        <v>1.062143325805664</v>
+        <v>1.382333755493164</v>
       </c>
       <c r="F128" t="n">
-        <v>1.427420973777771</v>
+        <v>-7.961258888244629</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-4.514867305755615</v>
+        <v>-9.370224952697754</v>
       </c>
       <c r="B129" t="n">
-        <v>-4.21941089630127</v>
+        <v>36.24139785766602</v>
       </c>
       <c r="C129" t="n">
-        <v>10.11725997924805</v>
+        <v>9.081307411193848</v>
       </c>
       <c r="D129" t="n">
-        <v>6.325737953186035</v>
+        <v>7.981907844543457</v>
       </c>
       <c r="E129" t="n">
-        <v>-0.1891069412231445</v>
+        <v>-1.171301364898682</v>
       </c>
       <c r="F129" t="n">
-        <v>1.108768820762634</v>
+        <v>-8.476103782653809</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>-4.14924955368042</v>
+        <v>-8.908890724182129</v>
       </c>
       <c r="B130" t="n">
-        <v>-4.291377067565918</v>
+        <v>34.534423828125</v>
       </c>
       <c r="C130" t="n">
-        <v>15.15330505371094</v>
+        <v>11.27894496917725</v>
       </c>
       <c r="D130" t="n">
-        <v>7.905919075012207</v>
+        <v>9.006983757019043</v>
       </c>
       <c r="E130" t="n">
-        <v>-1.931409358978271</v>
+        <v>-4.583183765411377</v>
       </c>
       <c r="F130" t="n">
-        <v>-1.301443338394165</v>
+        <v>-9.336959838867188</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>-3.322061061859131</v>
+        <v>-8.143357276916504</v>
       </c>
       <c r="B131" t="n">
-        <v>-4.08350658416748</v>
+        <v>32.97328186035156</v>
       </c>
       <c r="C131" t="n">
-        <v>21.25603485107422</v>
+        <v>15.05617904663086</v>
       </c>
       <c r="D131" t="n">
-        <v>10.91657733917236</v>
+        <v>10.79626178741455</v>
       </c>
       <c r="E131" t="n">
-        <v>-3.811415195465088</v>
+        <v>-8.625768661499023</v>
       </c>
       <c r="F131" t="n">
-        <v>-4.28496789932251</v>
+        <v>-9.82703971862793</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>-0.8791184425354004</v>
+        <v>-6.726266384124756</v>
       </c>
       <c r="B132" t="n">
-        <v>-3.435118913650513</v>
+        <v>31.69489860534668</v>
       </c>
       <c r="C132" t="n">
-        <v>28.14455032348633</v>
+        <v>20.64223098754883</v>
       </c>
       <c r="D132" t="n">
-        <v>13.13824462890625</v>
+        <v>13.34848880767822</v>
       </c>
       <c r="E132" t="n">
-        <v>-5.292253971099854</v>
+        <v>-12.83760643005371</v>
       </c>
       <c r="F132" t="n">
-        <v>-9.085338592529297</v>
+        <v>-8.708208084106445</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.983454704284668</v>
+        <v>-4.43298864364624</v>
       </c>
       <c r="B133" t="n">
-        <v>-0.8376686573028564</v>
+        <v>30.29571342468262</v>
       </c>
       <c r="C133" t="n">
-        <v>35.30560684204102</v>
+        <v>27.39080047607422</v>
       </c>
       <c r="D133" t="n">
-        <v>16.81298637390137</v>
+        <v>15.96257400512695</v>
       </c>
       <c r="E133" t="n">
-        <v>-6.178208827972412</v>
+        <v>-16.22301483154297</v>
       </c>
       <c r="F133" t="n">
-        <v>-14.67136287689209</v>
+        <v>-5.819094657897949</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>3.502999067306519</v>
+        <v>-1.362744808197021</v>
       </c>
       <c r="B134" t="n">
-        <v>1.687589526176453</v>
+        <v>28.43868064880371</v>
       </c>
       <c r="C134" t="n">
-        <v>42.34088134765625</v>
+        <v>34.4665412902832</v>
       </c>
       <c r="D134" t="n">
-        <v>22.24246597290039</v>
+        <v>17.81980514526367</v>
       </c>
       <c r="E134" t="n">
-        <v>-6.696675777435303</v>
+        <v>-18.24248123168945</v>
       </c>
       <c r="F134" t="n">
-        <v>-19.0488452911377</v>
+        <v>-2.221620798110962</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>6.670035362243652</v>
+        <v>2.270254611968994</v>
       </c>
       <c r="B135" t="n">
-        <v>4.984700202941895</v>
+        <v>26.08031463623047</v>
       </c>
       <c r="C135" t="n">
-        <v>49.10545349121094</v>
+        <v>41.48126220703125</v>
       </c>
       <c r="D135" t="n">
-        <v>28.96348571777344</v>
+        <v>18.42052268981934</v>
       </c>
       <c r="E135" t="n">
-        <v>-7.340396404266357</v>
+        <v>-19.13518714904785</v>
       </c>
       <c r="F135" t="n">
-        <v>-20.86366081237793</v>
+        <v>0.7821330428123474</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>10.39155197143555</v>
+        <v>6.368454456329346</v>
       </c>
       <c r="B136" t="n">
-        <v>8.437366485595703</v>
+        <v>23.31995964050293</v>
       </c>
       <c r="C136" t="n">
-        <v>55.26722717285156</v>
+        <v>48.43169403076172</v>
       </c>
       <c r="D136" t="n">
-        <v>36.01895523071289</v>
+        <v>17.7080249786377</v>
       </c>
       <c r="E136" t="n">
-        <v>-8.218428611755371</v>
+        <v>-19.33159637451172</v>
       </c>
       <c r="F136" t="n">
-        <v>-20.86366081237793</v>
+        <v>2.55660343170166</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>14.25938701629639</v>
+        <v>10.89157104492188</v>
       </c>
       <c r="B137" t="n">
-        <v>11.70953178405762</v>
+        <v>20.26687622070312</v>
       </c>
       <c r="C137" t="n">
-        <v>60.14048767089844</v>
+        <v>55.11045837402344</v>
       </c>
       <c r="D137" t="n">
-        <v>42.52344512939453</v>
+        <v>15.97478675842285</v>
       </c>
       <c r="E137" t="n">
-        <v>-8.983983039855957</v>
+        <v>-18.92882537841797</v>
       </c>
       <c r="F137" t="n">
-        <v>-17.44245338439941</v>
+        <v>3.300968170166016</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>17.75688171386719</v>
+        <v>15.59321784973145</v>
       </c>
       <c r="B138" t="n">
-        <v>14.76436424255371</v>
+        <v>17.05504035949707</v>
       </c>
       <c r="C138" t="n">
-        <v>63.08321380615234</v>
+        <v>60.6828498840332</v>
       </c>
       <c r="D138" t="n">
-        <v>47.98697662353516</v>
+        <v>13.64656829833984</v>
       </c>
       <c r="E138" t="n">
-        <v>-9.26759147644043</v>
+        <v>-17.81509590148926</v>
       </c>
       <c r="F138" t="n">
-        <v>-14.80469703674316</v>
+        <v>3.592397689819336</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>20.59222984313965</v>
+        <v>19.94712829589844</v>
       </c>
       <c r="B139" t="n">
-        <v>17.64851570129395</v>
+        <v>13.9618616104126</v>
       </c>
       <c r="C139" t="n">
-        <v>63.08321380615234</v>
+        <v>63.96287155151367</v>
       </c>
       <c r="D139" t="n">
-        <v>52.22467422485352</v>
+        <v>11.13039493560791</v>
       </c>
       <c r="E139" t="n">
-        <v>-8.82679557800293</v>
+        <v>-15.93621921539307</v>
       </c>
       <c r="F139" t="n">
-        <v>-12.13479423522949</v>
+        <v>3.793984413146973</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>22.78560256958008</v>
+        <v>23.40440559387207</v>
       </c>
       <c r="B140" t="n">
-        <v>20.34078025817871</v>
+        <v>11.37755393981934</v>
       </c>
       <c r="C140" t="n">
-        <v>63.43367004394531</v>
+        <v>64.09814453125</v>
       </c>
       <c r="D140" t="n">
-        <v>55.12143707275391</v>
+        <v>8.773089408874512</v>
       </c>
       <c r="E140" t="n">
-        <v>-7.554399013519287</v>
+        <v>-13.39452362060547</v>
       </c>
       <c r="F140" t="n">
-        <v>-9.54774284362793</v>
+        <v>3.90543270111084</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>24.53916358947754</v>
+        <v>25.74095726013184</v>
       </c>
       <c r="B141" t="n">
-        <v>22.7390022277832</v>
+        <v>9.530928611755371</v>
       </c>
       <c r="C141" t="n">
-        <v>60.95892333984375</v>
+        <v>61.04795074462891</v>
       </c>
       <c r="D141" t="n">
-        <v>56.51483535766602</v>
+        <v>6.807829856872559</v>
       </c>
       <c r="E141" t="n">
-        <v>-4.435454845428467</v>
+        <v>-10.45402431488037</v>
       </c>
       <c r="F141" t="n">
-        <v>-6.95880126953125</v>
+        <v>3.802151679992676</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>26.06562423706055</v>
+        <v>27.17789840698242</v>
       </c>
       <c r="B142" t="n">
-        <v>24.71235275268555</v>
+        <v>8.256221771240234</v>
       </c>
       <c r="C142" t="n">
-        <v>57.44539642333984</v>
+        <v>55.51524353027344</v>
       </c>
       <c r="D142" t="n">
-        <v>56.51483535766602</v>
+        <v>5.26711368560791</v>
       </c>
       <c r="E142" t="n">
-        <v>-2.801101922988892</v>
+        <v>-7.479913711547852</v>
       </c>
       <c r="F142" t="n">
-        <v>-4.350513935089111</v>
+        <v>3.429184913635254</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>27.48002243041992</v>
+        <v>28.17247772216797</v>
       </c>
       <c r="B143" t="n">
-        <v>26.13064575195312</v>
+        <v>7.094609260559082</v>
       </c>
       <c r="C143" t="n">
-        <v>52.61046981811523</v>
+        <v>48.46988677978516</v>
       </c>
       <c r="D143" t="n">
-        <v>53.59059906005859</v>
+        <v>3.991835832595825</v>
       </c>
       <c r="E143" t="n">
-        <v>-1.136833310127258</v>
+        <v>-4.818893432617188</v>
       </c>
       <c r="F143" t="n">
-        <v>-1.853160381317139</v>
+        <v>2.787846565246582</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>28.75043487548828</v>
+        <v>29.09237289428711</v>
       </c>
       <c r="B144" t="n">
-        <v>26.13064575195312</v>
+        <v>5.644221305847168</v>
       </c>
       <c r="C144" t="n">
-        <v>45.86772537231445</v>
+        <v>40.73078918457031</v>
       </c>
       <c r="D144" t="n">
-        <v>48.68266677856445</v>
+        <v>2.794726610183716</v>
       </c>
       <c r="E144" t="n">
-        <v>0.3072556853294373</v>
+        <v>-2.696383476257324</v>
       </c>
       <c r="F144" t="n">
-        <v>0.215160608291626</v>
+        <v>1.891316294670105</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>28.75043487548828</v>
+        <v>29.99522399902344</v>
       </c>
       <c r="B145" t="n">
-        <v>27.64686012268066</v>
+        <v>3.826830625534058</v>
       </c>
       <c r="C145" t="n">
-        <v>36.98170852661133</v>
+        <v>32.85811233520508</v>
       </c>
       <c r="D145" t="n">
-        <v>41.01849365234375</v>
+        <v>1.623976826667786</v>
       </c>
       <c r="E145" t="n">
-        <v>1.518229007720947</v>
+        <v>-1.208343982696533</v>
       </c>
       <c r="F145" t="n">
-        <v>1.375093579292297</v>
+        <v>0.8244852423667908</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>30.6075325012207</v>
+        <v>30.65387344360352</v>
       </c>
       <c r="B146" t="n">
-        <v>27.30505752563477</v>
+        <v>1.908247709274292</v>
       </c>
       <c r="C146" t="n">
-        <v>27.09731292724609</v>
+        <v>25.27343559265137</v>
       </c>
       <c r="D146" t="n">
-        <v>31.83993148803711</v>
+        <v>0.6069632768630981</v>
       </c>
       <c r="E146" t="n">
-        <v>2.538557767868042</v>
+        <v>-0.3050265312194824</v>
       </c>
       <c r="F146" t="n">
-        <v>1.375093579292297</v>
+        <v>-0.1948285698890686</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>30.53154945373535</v>
+        <v>30.84313583374023</v>
       </c>
       <c r="B147" t="n">
-        <v>27.44146537780762</v>
+        <v>0.194836437702179</v>
       </c>
       <c r="C147" t="n">
-        <v>18.24430847167969</v>
+        <v>18.35565948486328</v>
       </c>
       <c r="D147" t="n">
-        <v>23.24468040466309</v>
+        <v>-0.08530700206756592</v>
       </c>
       <c r="E147" t="n">
-        <v>2.538557767868042</v>
+        <v>0.1357946395874023</v>
       </c>
       <c r="F147" t="n">
-        <v>1.403282999992371</v>
+        <v>-0.9392371773719788</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>30.44008636474609</v>
+        <v>30.62697982788086</v>
       </c>
       <c r="B148" t="n">
-        <v>28.35806655883789</v>
+        <v>-1.308030366897583</v>
       </c>
       <c r="C148" t="n">
-        <v>11.76279067993164</v>
+        <v>12.4382266998291</v>
       </c>
       <c r="D148" t="n">
-        <v>16.5695915222168</v>
+        <v>-0.398192286491394</v>
       </c>
       <c r="E148" t="n">
-        <v>3.548030853271484</v>
+        <v>0.1935849189758301</v>
       </c>
       <c r="F148" t="n">
-        <v>-0.1362863183021545</v>
+        <v>-1.368638634681702</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>30.94119453430176</v>
+        <v>30.26295280456543</v>
       </c>
       <c r="B149" t="n">
-        <v>29.41776847839355</v>
+        <v>-2.705952882766724</v>
       </c>
       <c r="C149" t="n">
-        <v>7.925720691680908</v>
+        <v>7.905760765075684</v>
       </c>
       <c r="D149" t="n">
-        <v>12.06407165527344</v>
+        <v>-0.3064736127853394</v>
       </c>
       <c r="E149" t="n">
-        <v>1.142879247665405</v>
+        <v>-0.08313035219907761</v>
       </c>
       <c r="F149" t="n">
-        <v>-1.22161591053009</v>
+        <v>-1.613699555397034</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>31.79684257507324</v>
+        <v>30.00558090209961</v>
       </c>
       <c r="B150" t="n">
-        <v>30.22054672241211</v>
+        <v>-3.968247652053833</v>
       </c>
       <c r="C150" t="n">
-        <v>6.308670997619629</v>
+        <v>5.152848243713379</v>
       </c>
       <c r="D150" t="n">
-        <v>9.378883361816406</v>
+        <v>0.2829219102859497</v>
       </c>
       <c r="E150" t="n">
-        <v>-0.1601985692977905</v>
+        <v>-0.6515941619873047</v>
       </c>
       <c r="F150" t="n">
-        <v>-1.686380505561829</v>
+        <v>-1.690987706184387</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>32.41983413696289</v>
+        <v>30.08897399902344</v>
       </c>
       <c r="B151" t="n">
-        <v>30.79057884216309</v>
+        <v>-5.106608390808105</v>
       </c>
       <c r="C151" t="n">
-        <v>6.308670997619629</v>
+        <v>4.291808128356934</v>
       </c>
       <c r="D151" t="n">
-        <v>8.014972686767578</v>
+        <v>1.388030171394348</v>
       </c>
       <c r="E151" t="n">
-        <v>-1.377321481704712</v>
+        <v>-1.516824722290039</v>
       </c>
       <c r="F151" t="n">
-        <v>-1.948105454444885</v>
+        <v>-1.408719658851624</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>32.5552978515625</v>
+        <v>30.6102294921875</v>
       </c>
       <c r="B152" t="n">
-        <v>31.1693172454834</v>
+        <v>-6.218531608581543</v>
       </c>
       <c r="C152" t="n">
-        <v>6.057999610900879</v>
+        <v>5.051423072814941</v>
       </c>
       <c r="D152" t="n">
-        <v>8.014972686767578</v>
+        <v>2.850531816482544</v>
       </c>
       <c r="E152" t="n">
-        <v>-2.608634948730469</v>
+        <v>-2.683315277099609</v>
       </c>
       <c r="F152" t="n">
-        <v>-2.561219930648804</v>
+        <v>-0.7117367386817932</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>32.31487655639648</v>
+        <v>31.36173820495605</v>
       </c>
       <c r="B153" t="n">
-        <v>32.49709320068359</v>
+        <v>-7.239396095275879</v>
       </c>
       <c r="C153" t="n">
-        <v>9.902683258056641</v>
+        <v>6.971779823303223</v>
       </c>
       <c r="D153" t="n">
-        <v>9.232510566711426</v>
+        <v>4.476319313049316</v>
       </c>
       <c r="E153" t="n">
-        <v>-3.881985187530518</v>
+        <v>-4.052934169769287</v>
       </c>
       <c r="F153" t="n">
-        <v>-4.796870708465576</v>
+        <v>-0.01343733631074429</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>30.72711181640625</v>
+        <v>32.27715682983398</v>
       </c>
       <c r="B154" t="n">
-        <v>24.70272445678711</v>
+        <v>-7.978287696838379</v>
       </c>
       <c r="C154" t="n">
-        <v>15.29484272003174</v>
+        <v>10.22372627258301</v>
       </c>
       <c r="D154" t="n">
-        <v>18.18862915039062</v>
+        <v>6.194087028503418</v>
       </c>
       <c r="E154" t="n">
-        <v>-6.166357040405273</v>
+        <v>-5.491645336151123</v>
       </c>
       <c r="F154" t="n">
-        <v>-4.796870708465576</v>
+        <v>-0.4657383561134338</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>30.72711181640625</v>
+        <v>36.62917709350586</v>
       </c>
       <c r="B155" t="n">
-        <v>19.1520824432373</v>
+        <v>7.544915199279785</v>
       </c>
       <c r="C155" t="n">
-        <v>15.29484272003174</v>
+        <v>17.19567108154297</v>
       </c>
       <c r="D155" t="n">
-        <v>22.98089027404785</v>
+        <v>25.45641326904297</v>
       </c>
       <c r="E155" t="n">
-        <v>-7.17520809173584</v>
+        <v>-14.62648868560791</v>
       </c>
       <c r="F155" t="n">
-        <v>-4.074986457824707</v>
+        <v>-1.793697476387024</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>29.8830623626709</v>
+        <v>42.2148551940918</v>
       </c>
       <c r="B156" t="n">
-        <v>16.74848937988281</v>
+        <v>-0.5347663760185242</v>
       </c>
       <c r="C156" t="n">
-        <v>15.44893836975098</v>
+        <v>13.64706897735596</v>
       </c>
       <c r="D156" t="n">
-        <v>24.82188606262207</v>
+        <v>27.21529197692871</v>
       </c>
       <c r="E156" t="n">
-        <v>-7.17520809173584</v>
+        <v>-18.76203155517578</v>
       </c>
       <c r="F156" t="n">
-        <v>-3.593687057495117</v>
+        <v>-5.687963962554932</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>27.35567474365234</v>
+        <v>39.1757926940918</v>
       </c>
       <c r="B157" t="n">
-        <v>16.74848937988281</v>
+        <v>3.495947599411011</v>
       </c>
       <c r="C157" t="n">
-        <v>12.99995994567871</v>
+        <v>15.61922931671143</v>
       </c>
       <c r="D157" t="n">
-        <v>24.82188606262207</v>
+        <v>31.75540733337402</v>
       </c>
       <c r="E157" t="n">
-        <v>-3.537754058837891</v>
+        <v>-15.89766120910645</v>
       </c>
       <c r="F157" t="n">
-        <v>-3.983077764511108</v>
+        <v>-15.17643260955811</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>24.34810447692871</v>
+        <v>36.94161605834961</v>
       </c>
       <c r="B158" t="n">
-        <v>18.95001983642578</v>
+        <v>5.55962085723877</v>
       </c>
       <c r="C158" t="n">
-        <v>10.28099250793457</v>
+        <v>14.94430065155029</v>
       </c>
       <c r="D158" t="n">
-        <v>20.92189025878906</v>
+        <v>35.15823745727539</v>
       </c>
       <c r="E158" t="n">
-        <v>-0.9181027412414551</v>
+        <v>-11.98736572265625</v>
       </c>
       <c r="F158" t="n">
-        <v>-4.271251678466797</v>
+        <v>-21.17772483825684</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>21.69179153442383</v>
+        <v>33.20418167114258</v>
       </c>
       <c r="B159" t="n">
-        <v>21.63549423217773</v>
+        <v>8.206350326538086</v>
       </c>
       <c r="C159" t="n">
-        <v>7.714199542999268</v>
+        <v>13.0580358505249</v>
       </c>
       <c r="D159" t="n">
-        <v>17.3989143371582</v>
+        <v>37.20364761352539</v>
       </c>
       <c r="E159" t="n">
-        <v>1.326914548873901</v>
+        <v>-6.59656810760498</v>
       </c>
       <c r="F159" t="n">
-        <v>-4.190798282623291</v>
+        <v>-25.22887420654297</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>19.84951400756836</v>
+        <v>28.62991523742676</v>
       </c>
       <c r="B160" t="n">
-        <v>24.41011238098145</v>
+        <v>11.19886016845703</v>
       </c>
       <c r="C160" t="n">
-        <v>5.446010112762451</v>
+        <v>10.4883451461792</v>
       </c>
       <c r="D160" t="n">
-        <v>13.57397651672363</v>
+        <v>38.60206985473633</v>
       </c>
       <c r="E160" t="n">
-        <v>2.695100784301758</v>
+        <v>-1.002685070037842</v>
       </c>
       <c r="F160" t="n">
-        <v>-2.171436786651611</v>
+        <v>-27.87697410583496</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>18.77657508850098</v>
+        <v>23.87270927429199</v>
       </c>
       <c r="B161" t="n">
-        <v>26.56071090698242</v>
+        <v>14.7370023727417</v>
       </c>
       <c r="C161" t="n">
-        <v>3.341034173965454</v>
+        <v>8.108105659484863</v>
       </c>
       <c r="D161" t="n">
-        <v>9.989540100097656</v>
+        <v>40.3744010925293</v>
       </c>
       <c r="E161" t="n">
-        <v>2.695100784301758</v>
+        <v>3.249944686889648</v>
       </c>
       <c r="F161" t="n">
-        <v>0.01059556007385254</v>
+        <v>-28.12112426757812</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>18.77657508850098</v>
+        <v>19.78976249694824</v>
       </c>
       <c r="B162" t="n">
-        <v>26.56071090698242</v>
+        <v>18.63906288146973</v>
       </c>
       <c r="C162" t="n">
-        <v>1.184863567352295</v>
+        <v>6.48996639251709</v>
       </c>
       <c r="D162" t="n">
-        <v>6.937595844268799</v>
+        <v>43.20130920410156</v>
       </c>
       <c r="E162" t="n">
-        <v>3.825468063354492</v>
+        <v>4.937858581542969</v>
       </c>
       <c r="F162" t="n">
-        <v>2.707206726074219</v>
+        <v>-25.26183700561523</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>15.88259315490723</v>
+        <v>16.91628837585449</v>
       </c>
       <c r="B163" t="n">
-        <v>27.31921768188477</v>
+        <v>22.57848358154297</v>
       </c>
       <c r="C163" t="n">
-        <v>-1.005783915519714</v>
+        <v>5.953707695007324</v>
       </c>
       <c r="D163" t="n">
-        <v>4.667004585266113</v>
+        <v>46.99800872802734</v>
       </c>
       <c r="E163" t="n">
-        <v>3.458517074584961</v>
+        <v>4.029531478881836</v>
       </c>
       <c r="F163" t="n">
-        <v>4.826447486877441</v>
+        <v>-19.93703651428223</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>13.38490295410156</v>
+        <v>15.11625385284424</v>
       </c>
       <c r="B164" t="n">
-        <v>24.53911972045898</v>
+        <v>26.34638595581055</v>
       </c>
       <c r="C164" t="n">
-        <v>-2.773441314697266</v>
+        <v>6.386160850524902</v>
       </c>
       <c r="D164" t="n">
-        <v>3.607247352600098</v>
+        <v>50.81918716430664</v>
       </c>
       <c r="E164" t="n">
-        <v>3.144430160522461</v>
+        <v>1.955513954162598</v>
       </c>
       <c r="F164" t="n">
-        <v>4.826447486877441</v>
+        <v>-14.11695289611816</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>10.03305244445801</v>
+        <v>13.70382976531982</v>
       </c>
       <c r="B165" t="n">
-        <v>20.43834495544434</v>
+        <v>29.78068542480469</v>
       </c>
       <c r="C165" t="n">
-        <v>-2.773441314697266</v>
+        <v>6.987399101257324</v>
       </c>
       <c r="D165" t="n">
-        <v>3.607247352600098</v>
+        <v>53.21377563476562</v>
       </c>
       <c r="E165" t="n">
-        <v>2.870455741882324</v>
+        <v>0.4962596893310547</v>
       </c>
       <c r="F165" t="n">
-        <v>4.776036262512207</v>
+        <v>-9.736700057983398</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>6.890896797180176</v>
+        <v>11.88643264770508</v>
       </c>
       <c r="B166" t="n">
-        <v>16.00663757324219</v>
+        <v>32.62651062011719</v>
       </c>
       <c r="C166" t="n">
-        <v>-4.226033210754395</v>
+        <v>6.608025550842285</v>
       </c>
       <c r="D166" t="n">
-        <v>5.81636905670166</v>
+        <v>52.75714874267578</v>
       </c>
       <c r="E166" t="n">
-        <v>2.778024673461914</v>
+        <v>0.2718167304992676</v>
       </c>
       <c r="F166" t="n">
-        <v>3.411381244659424</v>
+        <v>-7.139708042144775</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>4.621338844299316</v>
+        <v>9.26246452331543</v>
       </c>
       <c r="B167" t="n">
-        <v>12.0980167388916</v>
+        <v>34.76794815063477</v>
       </c>
       <c r="C167" t="n">
-        <v>-2.776234865188599</v>
+        <v>4.89328670501709</v>
       </c>
       <c r="D167" t="n">
-        <v>6.858685493469238</v>
+        <v>48.81339263916016</v>
       </c>
       <c r="E167" t="n">
-        <v>2.859837532043457</v>
+        <v>1.059046745300293</v>
       </c>
       <c r="F167" t="n">
-        <v>3.411381244659424</v>
+        <v>-5.634093761444092</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>3.118841886520386</v>
+        <v>6.070877552032471</v>
       </c>
       <c r="B168" t="n">
-        <v>9.082542419433594</v>
+        <v>36.26109313964844</v>
       </c>
       <c r="C168" t="n">
-        <v>-1.701346516609192</v>
+        <v>2.408598661422729</v>
       </c>
       <c r="D168" t="n">
-        <v>6.858685493469238</v>
+        <v>42.22959136962891</v>
       </c>
       <c r="E168" t="n">
-        <v>2.873612403869629</v>
+        <v>2.168370246887207</v>
       </c>
       <c r="F168" t="n">
-        <v>2.21906852722168</v>
+        <v>-4.472493171691895</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>1.947626709938049</v>
+        <v>2.892691135406494</v>
       </c>
       <c r="B169" t="n">
-        <v>6.989468097686768</v>
+        <v>37.28277206420898</v>
       </c>
       <c r="C169" t="n">
-        <v>-2.085095643997192</v>
+        <v>0.03818970918655396</v>
       </c>
       <c r="D169" t="n">
-        <v>5.112424850463867</v>
+        <v>34.78266143798828</v>
       </c>
       <c r="E169" t="n">
-        <v>2.93865966796875</v>
+        <v>2.898374557495117</v>
       </c>
       <c r="F169" t="n">
-        <v>3.174415588378906</v>
+        <v>-3.422798156738281</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0.8476768732070923</v>
+        <v>0.2125745415687561</v>
       </c>
       <c r="B170" t="n">
-        <v>5.564800262451172</v>
+        <v>37.96280670166016</v>
       </c>
       <c r="C170" t="n">
-        <v>-4.985411643981934</v>
+        <v>-1.534989476203918</v>
       </c>
       <c r="D170" t="n">
-        <v>3.319767475128174</v>
+        <v>27.92179870605469</v>
       </c>
       <c r="E170" t="n">
-        <v>3.196072578430176</v>
+        <v>3.133481025695801</v>
       </c>
       <c r="F170" t="n">
-        <v>3.607839584350586</v>
+        <v>-2.680487871170044</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>-0.1552085280418396</v>
+        <v>-1.822247982025146</v>
       </c>
       <c r="B171" t="n">
-        <v>4.430703639984131</v>
+        <v>38.2361946105957</v>
       </c>
       <c r="C171" t="n">
-        <v>-6.379963874816895</v>
+        <v>-2.166808366775513</v>
       </c>
       <c r="D171" t="n">
-        <v>1.875954389572144</v>
+        <v>22.13599014282227</v>
       </c>
       <c r="E171" t="n">
-        <v>3.476709365844727</v>
+        <v>3.274293899536133</v>
       </c>
       <c r="F171" t="n">
-        <v>3.209285736083984</v>
+        <v>-2.442037105560303</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>-0.1552085280418396</v>
+        <v>-3.356791973114014</v>
       </c>
       <c r="B172" t="n">
-        <v>3.296181678771973</v>
+        <v>37.96685028076172</v>
       </c>
       <c r="C172" t="n">
-        <v>-6.379963874816895</v>
+        <v>-2.159266710281372</v>
       </c>
       <c r="D172" t="n">
-        <v>1.875954389572144</v>
+        <v>17.28264045715332</v>
       </c>
       <c r="E172" t="n">
-        <v>3.450227737426758</v>
+        <v>3.665900230407715</v>
       </c>
       <c r="F172" t="n">
-        <v>2.384516716003418</v>
+        <v>-2.70269513130188</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>-1.692464351654053</v>
+        <v>-4.642905712127686</v>
       </c>
       <c r="B173" t="n">
-        <v>2.071659088134766</v>
+        <v>37.23641204833984</v>
       </c>
       <c r="C173" t="n">
-        <v>-8.194693565368652</v>
+        <v>-1.827536702156067</v>
       </c>
       <c r="D173" t="n">
-        <v>0.4607058763504028</v>
+        <v>13.22500801086426</v>
       </c>
       <c r="E173" t="n">
-        <v>3.086796760559082</v>
+        <v>4.199840545654297</v>
       </c>
       <c r="F173" t="n">
-        <v>1.62658154964447</v>
+        <v>-3.323705911636353</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>-1.8406081199646</v>
+        <v>-5.840394496917725</v>
       </c>
       <c r="B174" t="n">
-        <v>0.8382514715194702</v>
+        <v>36.39774703979492</v>
       </c>
       <c r="C174" t="n">
-        <v>-6.11726188659668</v>
+        <v>-1.188208699226379</v>
       </c>
       <c r="D174" t="n">
-        <v>1.127617955207825</v>
+        <v>10.01593685150146</v>
       </c>
       <c r="E174" t="n">
-        <v>2.572429656982422</v>
+        <v>4.539412498474121</v>
       </c>
       <c r="F174" t="n">
-        <v>1.149452090263367</v>
+        <v>-4.167925357818604</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>-1.778489589691162</v>
+        <v>-6.93146276473999</v>
       </c>
       <c r="B175" t="n">
-        <v>-0.2457765936851501</v>
+        <v>35.81571197509766</v>
       </c>
       <c r="C175" t="n">
-        <v>-4.222339153289795</v>
+        <v>-0.06506651639938354</v>
       </c>
       <c r="D175" t="n">
-        <v>1.980862736701965</v>
+        <v>7.78817081451416</v>
       </c>
       <c r="E175" t="n">
-        <v>2.117764472961426</v>
+        <v>4.423846244812012</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9518575072288513</v>
+        <v>-5.122202396392822</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>-1.71693754196167</v>
+        <v>-7.7967848777771</v>
       </c>
       <c r="B176" t="n">
-        <v>-0.2457765936851501</v>
+        <v>35.66172027587891</v>
       </c>
       <c r="C176" t="n">
-        <v>-1.838540434837341</v>
+        <v>1.680464625358582</v>
       </c>
       <c r="D176" t="n">
-        <v>2.836486101150513</v>
+        <v>6.606759071350098</v>
       </c>
       <c r="E176" t="n">
-        <v>1.838939666748047</v>
+        <v>3.855466842651367</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9648403525352478</v>
+        <v>-6.098928451538086</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>-1.756152629852295</v>
+        <v>-8.340470314025879</v>
       </c>
       <c r="B177" t="n">
-        <v>-1.897830247879028</v>
+        <v>35.87953567504883</v>
       </c>
       <c r="C177" t="n">
-        <v>0.8077008128166199</v>
+        <v>3.96429705619812</v>
       </c>
       <c r="D177" t="n">
-        <v>3.69714093208313</v>
+        <v>6.408829689025879</v>
       </c>
       <c r="E177" t="n">
-        <v>1.635186195373535</v>
+        <v>2.969599723815918</v>
       </c>
       <c r="F177" t="n">
-        <v>1.119377017021179</v>
+        <v>-6.987965106964111</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>-1.865941524505615</v>
+        <v>-8.550442695617676</v>
       </c>
       <c r="B178" t="n">
-        <v>-2.182574510574341</v>
+        <v>36.29677963256836</v>
       </c>
       <c r="C178" t="n">
-        <v>3.69288182258606</v>
+        <v>6.54027271270752</v>
       </c>
       <c r="D178" t="n">
-        <v>4.610323905944824</v>
+        <v>7.041951179504395</v>
       </c>
       <c r="E178" t="n">
-        <v>1.313787460327148</v>
+        <v>1.899196624755859</v>
       </c>
       <c r="F178" t="n">
-        <v>1.310769438743591</v>
+        <v>-7.706486225128174</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>-1.934056758880615</v>
+        <v>-8.48070240020752</v>
       </c>
       <c r="B179" t="n">
-        <v>-2.313014268875122</v>
+        <v>36.72138214111328</v>
       </c>
       <c r="C179" t="n">
-        <v>6.986342906951904</v>
+        <v>9.147933006286621</v>
       </c>
       <c r="D179" t="n">
-        <v>5.619553565979004</v>
+        <v>8.294980049133301</v>
       </c>
       <c r="E179" t="n">
-        <v>0.6643857955932617</v>
+        <v>0.5952258110046387</v>
       </c>
       <c r="F179" t="n">
-        <v>1.402161002159119</v>
+        <v>-8.205051422119141</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>-1.818850994110107</v>
+        <v>-8.160370826721191</v>
       </c>
       <c r="B180" t="n">
-        <v>-2.367640733718872</v>
+        <v>36.25075149536133</v>
       </c>
       <c r="C180" t="n">
-        <v>10.98696422576904</v>
+        <v>11.15327930450439</v>
       </c>
       <c r="D180" t="n">
-        <v>6.758715629577637</v>
+        <v>9.308695793151855</v>
       </c>
       <c r="E180" t="n">
-        <v>-0.452000617980957</v>
+        <v>-1.676403522491455</v>
       </c>
       <c r="F180" t="n">
-        <v>1.170507788658142</v>
+        <v>-8.487771987915039</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>-1.378446102142334</v>
+        <v>-7.656335353851318</v>
       </c>
       <c r="B181" t="n">
-        <v>-2.314950227737427</v>
+        <v>34.92041778564453</v>
       </c>
       <c r="C181" t="n">
-        <v>16.00456619262695</v>
+        <v>12.90317249298096</v>
       </c>
       <c r="D181" t="n">
-        <v>8.059706687927246</v>
+        <v>10.01158809661865</v>
       </c>
       <c r="E181" t="n">
-        <v>-1.988396167755127</v>
+        <v>-4.879045963287354</v>
       </c>
       <c r="F181" t="n">
-        <v>-0.9244827032089233</v>
+        <v>-9.031055450439453</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>-0.4940676093101501</v>
+        <v>-6.929633617401123</v>
       </c>
       <c r="B182" t="n">
-        <v>-1.992902040481567</v>
+        <v>33.47794723510742</v>
       </c>
       <c r="C182" t="n">
-        <v>22.13760757446289</v>
+        <v>15.55238628387451</v>
       </c>
       <c r="D182" t="n">
-        <v>9.586607933044434</v>
+        <v>11.03895568847656</v>
       </c>
       <c r="E182" t="n">
-        <v>-3.579489231109619</v>
+        <v>-8.79694938659668</v>
       </c>
       <c r="F182" t="n">
-        <v>-3.601106643676758</v>
+        <v>-9.647491455078125</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>0.9224629998207092</v>
+        <v>-5.654847621917725</v>
       </c>
       <c r="B183" t="n">
-        <v>-1.252991914749146</v>
+        <v>32.31336212158203</v>
       </c>
       <c r="C183" t="n">
-        <v>29.09015655517578</v>
+        <v>19.96592712402344</v>
       </c>
       <c r="D183" t="n">
-        <v>12.84498405456543</v>
+        <v>12.78596496582031</v>
       </c>
       <c r="E183" t="n">
-        <v>-4.709074974060059</v>
+        <v>-13.16086959838867</v>
       </c>
       <c r="F183" t="n">
-        <v>-7.977678298950195</v>
+        <v>-9.178893089294434</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>4.135555744171143</v>
+        <v>-3.467790126800537</v>
       </c>
       <c r="B184" t="n">
-        <v>1.282304525375366</v>
+        <v>31.16969108581543</v>
       </c>
       <c r="C184" t="n">
-        <v>36.2213134765625</v>
+        <v>26.09015655517578</v>
       </c>
       <c r="D184" t="n">
-        <v>15.76739692687988</v>
+        <v>14.96384811401367</v>
       </c>
       <c r="E184" t="n">
-        <v>-5.206559181213379</v>
+        <v>-16.9991512298584</v>
       </c>
       <c r="F184" t="n">
-        <v>-13.21026229858398</v>
+        <v>-6.86382007598877</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>6.13645076751709</v>
+        <v>-0.3252825140953064</v>
       </c>
       <c r="B185" t="n">
-        <v>3.67267370223999</v>
+        <v>29.5740909576416</v>
       </c>
       <c r="C185" t="n">
-        <v>43.06969451904297</v>
+        <v>33.13059997558594</v>
       </c>
       <c r="D185" t="n">
-        <v>20.5266284942627</v>
+        <v>16.88351821899414</v>
       </c>
       <c r="E185" t="n">
-        <v>-5.421093940734863</v>
+        <v>-19.31484985351562</v>
       </c>
       <c r="F185" t="n">
-        <v>-17.43244171142578</v>
+        <v>-3.267049312591553</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>8.82298469543457</v>
+        <v>3.49218225479126</v>
       </c>
       <c r="B186" t="n">
-        <v>6.802417755126953</v>
+        <v>27.32068061828613</v>
       </c>
       <c r="C186" t="n">
-        <v>49.54926300048828</v>
+        <v>40.25368881225586</v>
       </c>
       <c r="D186" t="n">
-        <v>26.76620864868164</v>
+        <v>17.90369987487793</v>
       </c>
       <c r="E186" t="n">
-        <v>-5.723567008972168</v>
+        <v>-20.03680038452148</v>
       </c>
       <c r="F186" t="n">
-        <v>-19.30491638183594</v>
+        <v>0.2305616736412048</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>12.14947319030762</v>
+        <v>7.674513339996338</v>
       </c>
       <c r="B187" t="n">
-        <v>10.03928089141846</v>
+        <v>24.49334526062012</v>
       </c>
       <c r="C187" t="n">
-        <v>55.51313781738281</v>
+        <v>47.0721321105957</v>
       </c>
       <c r="D187" t="n">
-        <v>33.56512451171875</v>
+        <v>17.68868255615234</v>
       </c>
       <c r="E187" t="n">
-        <v>-6.361711025238037</v>
+        <v>-19.81670570373535</v>
       </c>
       <c r="F187" t="n">
-        <v>-19.30491638183594</v>
+        <v>2.522987365722656</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>15.75506210327148</v>
+        <v>12.09055328369141</v>
       </c>
       <c r="B188" t="n">
-        <v>13.00555610656738</v>
+        <v>21.27472114562988</v>
       </c>
       <c r="C188" t="n">
-        <v>60.40575408935547</v>
+        <v>53.47742080688477</v>
       </c>
       <c r="D188" t="n">
-        <v>39.96893692016602</v>
+        <v>16.29622459411621</v>
       </c>
       <c r="E188" t="n">
-        <v>-7.117360591888428</v>
+        <v>-19.17880439758301</v>
       </c>
       <c r="F188" t="n">
-        <v>-16.02328872680664</v>
+        <v>3.423080444335938</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>19.06488037109375</v>
+        <v>16.63461112976074</v>
       </c>
       <c r="B189" t="n">
-        <v>15.6757926940918</v>
+        <v>17.86227226257324</v>
       </c>
       <c r="C189" t="n">
-        <v>63.50680923461914</v>
+        <v>59.07156753540039</v>
       </c>
       <c r="D189" t="n">
-        <v>45.43361282348633</v>
+        <v>14.09743404388428</v>
       </c>
       <c r="E189" t="n">
-        <v>-7.554378032684326</v>
+        <v>-18.17242813110352</v>
       </c>
       <c r="F189" t="n">
-        <v>-13.31646347045898</v>
+        <v>3.534842491149902</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>21.66336822509766</v>
+        <v>20.96496200561523</v>
       </c>
       <c r="B190" t="n">
-        <v>18.16712379455566</v>
+        <v>14.54683303833008</v>
       </c>
       <c r="C190" t="n">
-        <v>63.50680923461914</v>
+        <v>62.94159698486328</v>
       </c>
       <c r="D190" t="n">
-        <v>49.82346343994141</v>
+        <v>11.58989238739014</v>
       </c>
       <c r="E190" t="n">
-        <v>-7.339375019073486</v>
+        <v>-16.57208633422852</v>
       </c>
       <c r="F190" t="n">
-        <v>-10.70554161071777</v>
+        <v>3.540151596069336</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>23.49370956420898</v>
+        <v>24.54041862487793</v>
       </c>
       <c r="B191" t="n">
-        <v>20.52486801147461</v>
+        <v>11.71333503723145</v>
       </c>
       <c r="C191" t="n">
-        <v>63.88712310791016</v>
+        <v>64.04672241210938</v>
       </c>
       <c r="D191" t="n">
-        <v>53.10848236083984</v>
+        <v>9.209872245788574</v>
       </c>
       <c r="E191" t="n">
-        <v>-6.342833042144775</v>
+        <v>-14.23890209197998</v>
       </c>
       <c r="F191" t="n">
-        <v>-8.350593566894531</v>
+        <v>3.649430274963379</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>24.78000640869141</v>
+        <v>26.93574905395508</v>
       </c>
       <c r="B192" t="n">
-        <v>22.6600341796875</v>
+        <v>9.64177131652832</v>
       </c>
       <c r="C192" t="n">
-        <v>61.19475936889648</v>
+        <v>61.82300186157227</v>
       </c>
       <c r="D192" t="n">
-        <v>55.13119888305664</v>
+        <v>7.216265678405762</v>
       </c>
       <c r="E192" t="n">
-        <v>-4.666378498077393</v>
+        <v>-11.34504508972168</v>
       </c>
       <c r="F192" t="n">
-        <v>-6.07820987701416</v>
+        <v>3.65770435333252</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>25.82705879211426</v>
+        <v>28.11617851257324</v>
       </c>
       <c r="B193" t="n">
-        <v>24.40358924865723</v>
+        <v>8.294071197509766</v>
       </c>
       <c r="C193" t="n">
-        <v>57.61101531982422</v>
+        <v>56.51190185546875</v>
       </c>
       <c r="D193" t="n">
-        <v>55.13119888305664</v>
+        <v>5.662043571472168</v>
       </c>
       <c r="E193" t="n">
-        <v>-2.66966724395752</v>
+        <v>-8.31026554107666</v>
       </c>
       <c r="F193" t="n">
-        <v>-3.730552673339844</v>
+        <v>3.305459022521973</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>26.85727691650391</v>
+        <v>28.44355773925781</v>
       </c>
       <c r="B194" t="n">
-        <v>25.56338500976562</v>
+        <v>7.303240776062012</v>
       </c>
       <c r="C194" t="n">
-        <v>53.03266143798828</v>
+        <v>49.01304244995117</v>
       </c>
       <c r="D194" t="n">
-        <v>54.18142318725586</v>
+        <v>4.430695533752441</v>
       </c>
       <c r="E194" t="n">
-        <v>-0.8016719818115234</v>
+        <v>-5.573888778686523</v>
       </c>
       <c r="F194" t="n">
-        <v>-1.327377796173096</v>
+        <v>2.497494697570801</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>27.91804885864258</v>
+        <v>28.46236991882324</v>
       </c>
       <c r="B195" t="n">
-        <v>25.56338500976562</v>
+        <v>6.207180976867676</v>
       </c>
       <c r="C195" t="n">
-        <v>46.78500366210938</v>
+        <v>40.47324752807617</v>
       </c>
       <c r="D195" t="n">
-        <v>49.70321655273438</v>
+        <v>3.356724977493286</v>
       </c>
       <c r="E195" t="n">
-        <v>0.6239356994628906</v>
+        <v>-3.411196231842041</v>
       </c>
       <c r="F195" t="n">
-        <v>0.8324034214019775</v>
+        <v>1.300431609153748</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>27.91804885864258</v>
+        <v>28.59257125854492</v>
       </c>
       <c r="B196" t="n">
-        <v>26.34233283996582</v>
+        <v>4.739253044128418</v>
       </c>
       <c r="C196" t="n">
-        <v>38.12555694580078</v>
+        <v>31.93484497070312</v>
       </c>
       <c r="D196" t="n">
-        <v>41.98008346557617</v>
+        <v>2.366631746292114</v>
       </c>
       <c r="E196" t="n">
-        <v>1.57647705078125</v>
+        <v>-1.926064014434814</v>
       </c>
       <c r="F196" t="n">
-        <v>2.084200859069824</v>
+        <v>-0.1011610701680183</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>29.66293716430664</v>
+        <v>28.90957260131836</v>
       </c>
       <c r="B197" t="n">
-        <v>25.31420135498047</v>
+        <v>3.043087720870972</v>
       </c>
       <c r="C197" t="n">
-        <v>27.85701751708984</v>
+        <v>24.20209693908691</v>
       </c>
       <c r="D197" t="n">
-        <v>32.14955139160156</v>
+        <v>1.577662587165833</v>
       </c>
       <c r="E197" t="n">
-        <v>2.496590614318848</v>
+        <v>-1.021522521972656</v>
       </c>
       <c r="F197" t="n">
-        <v>2.084200859069824</v>
+        <v>-1.388059735298157</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>29.49554061889648</v>
+        <v>29.23794364929199</v>
       </c>
       <c r="B198" t="n">
-        <v>25.13652992248535</v>
+        <v>1.449721097946167</v>
       </c>
       <c r="C198" t="n">
-        <v>18.41147041320801</v>
+        <v>17.72091293334961</v>
       </c>
       <c r="D198" t="n">
-        <v>22.92776107788086</v>
+        <v>1.156561970710754</v>
       </c>
       <c r="E198" t="n">
-        <v>3.823692321777344</v>
+        <v>-0.5215821266174316</v>
       </c>
       <c r="F198" t="n">
-        <v>0.7150861024856567</v>
+        <v>-2.209067583084106</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>29.2205982208252</v>
+        <v>29.45836639404297</v>
       </c>
       <c r="B199" t="n">
-        <v>26.56662368774414</v>
+        <v>0.01853066496551037</v>
       </c>
       <c r="C199" t="n">
-        <v>11.5919017791748</v>
+        <v>12.52146339416504</v>
       </c>
       <c r="D199" t="n">
-        <v>16.04021835327148</v>
+        <v>1.090136647224426</v>
       </c>
       <c r="E199" t="n">
-        <v>4.43558406829834</v>
+        <v>-0.3370084762573242</v>
       </c>
       <c r="F199" t="n">
-        <v>-0.5741932392120361</v>
+        <v>-2.474514245986938</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>29.88187599182129</v>
+        <v>29.55608940124512</v>
       </c>
       <c r="B200" t="n">
-        <v>28.43019676208496</v>
+        <v>-1.339675188064575</v>
       </c>
       <c r="C200" t="n">
-        <v>7.829389095306396</v>
+        <v>8.561173439025879</v>
       </c>
       <c r="D200" t="n">
-        <v>11.6826057434082</v>
+        <v>1.292452931404114</v>
       </c>
       <c r="E200" t="n">
-        <v>1.489431619644165</v>
+        <v>-0.4468836784362793</v>
       </c>
       <c r="F200" t="n">
-        <v>-0.5741932392120361</v>
+        <v>-2.461461067199707</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>31.27848052978516</v>
+        <v>29.58720016479492</v>
       </c>
       <c r="B201" t="n">
-        <v>29.82965660095215</v>
+        <v>-2.591954469680786</v>
       </c>
       <c r="C201" t="n">
-        <v>6.624008178710938</v>
+        <v>5.996163368225098</v>
       </c>
       <c r="D201" t="n">
-        <v>9.286718368530273</v>
+        <v>1.80584442615509</v>
       </c>
       <c r="E201" t="n">
-        <v>-0.3474298715591431</v>
+        <v>-0.869171142578125</v>
       </c>
       <c r="F201" t="n">
-        <v>-2.359774589538574</v>
+        <v>-2.400632381439209</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>32.48244857788086</v>
+        <v>29.77712249755859</v>
       </c>
       <c r="B202" t="n">
-        <v>30.69919013977051</v>
+        <v>-3.755744218826294</v>
       </c>
       <c r="C202" t="n">
-        <v>6.624008178710938</v>
+        <v>4.997540473937988</v>
       </c>
       <c r="D202" t="n">
-        <v>8.128528594970703</v>
+        <v>2.714642763137817</v>
       </c>
       <c r="E202" t="n">
-        <v>-1.848885059356689</v>
+        <v>-1.701761245727539</v>
       </c>
       <c r="F202" t="n">
-        <v>-2.232460260391235</v>
+        <v>-2.124730348587036</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>32.95843887329102</v>
+        <v>30.3548526763916</v>
       </c>
       <c r="B203" t="n">
-        <v>31.17373275756836</v>
+        <v>-4.907349586486816</v>
       </c>
       <c r="C203" t="n">
-        <v>7.345824241638184</v>
+        <v>5.560357093811035</v>
       </c>
       <c r="D203" t="n">
-        <v>8.128528594970703</v>
+        <v>3.997327089309692</v>
       </c>
       <c r="E203" t="n">
-        <v>-3.037696599960327</v>
+        <v>-2.972599983215332</v>
       </c>
       <c r="F203" t="n">
-        <v>-2.286291599273682</v>
+        <v>-1.401167511940002</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>31.37902641296387</v>
+        <v>31.24044990539551</v>
       </c>
       <c r="B204" t="n">
-        <v>29.06661605834961</v>
+        <v>-5.926053047180176</v>
       </c>
       <c r="C204" t="n">
-        <v>11.93314743041992</v>
+        <v>7.474421501159668</v>
       </c>
       <c r="D204" t="n">
-        <v>11.49846839904785</v>
+        <v>5.537283897399902</v>
       </c>
       <c r="E204" t="n">
-        <v>-4.069603443145752</v>
+        <v>-4.436430931091309</v>
       </c>
       <c r="F204" t="n">
-        <v>-4.045472145080566</v>
+        <v>-0.5069051384925842</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>31.37902641296387</v>
+        <v>32.22208786010742</v>
       </c>
       <c r="B205" t="n">
-        <v>29.06661605834961</v>
+        <v>-6.592947959899902</v>
       </c>
       <c r="C205" t="n">
-        <v>11.93314743041992</v>
+        <v>10.57750988006592</v>
       </c>
       <c r="D205" t="n">
-        <v>11.49846839904785</v>
+        <v>7.170718193054199</v>
       </c>
       <c r="E205" t="n">
-        <v>-4.069603443145752</v>
+        <v>-5.742526054382324</v>
       </c>
       <c r="F205" t="n">
-        <v>-4.045472145080566</v>
+        <v>-0.63492351770401</v>
       </c>
     </row>
   </sheetData>
